--- a/log/time_log.xlsx
+++ b/log/time_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A185"/>
+  <dimension ref="A1:A161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,922 +430,802 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0740058422088623</v>
+        <v>0.1600937843322754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.07399868965148926</v>
+        <v>0.123816967010498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.06351709365844727</v>
+        <v>0.180246114730835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.04551005363464355</v>
+        <v>0.1231920719146729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04776263236999512</v>
+        <v>0.1226174831390381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04551863670349121</v>
+        <v>0.1252593994140625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.04702186584472656</v>
+        <v>0.109611988067627</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.04799652099609375</v>
+        <v>0.1302459239959717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04700946807861328</v>
+        <v>0.1286427974700928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06400060653686523</v>
+        <v>0.1231343746185303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04999995231628418</v>
+        <v>0.1361429691314697</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.05238080024719238</v>
+        <v>0.1191518306732178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06604480743408203</v>
+        <v>0.1236522197723389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.08951783180236816</v>
+        <v>0.1231949329376221</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.05099916458129883</v>
+        <v>0.121652364730835</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.06900644302368164</v>
+        <v>0.1326229572296143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.06010293960571289</v>
+        <v>0.1316089630126953</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.08952450752258301</v>
+        <v>0.133516788482666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.05455970764160156</v>
+        <v>0.1285650730133057</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05800437927246094</v>
+        <v>0.1449229717254639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.04899930953979492</v>
+        <v>0.1205193996429443</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.06452131271362305</v>
+        <v>0.1300389766693115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04946660995483398</v>
+        <v>0.1245262622833252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.05400919914245605</v>
+        <v>0.1150393486022949</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04950189590454102</v>
+        <v>0.1245222091674805</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0692446231842041</v>
+        <v>0.1159458160400391</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04900431632995605</v>
+        <v>0.128638744354248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.04999685287475586</v>
+        <v>0.1161675453186035</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.06951665878295898</v>
+        <v>0.1225993633270264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.04954862594604492</v>
+        <v>0.1282179355621338</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.04999637603759766</v>
+        <v>0.1326503753662109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.04851484298706055</v>
+        <v>0.126408576965332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.05858850479125977</v>
+        <v>0.1651721000671387</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.05199980735778809</v>
+        <v>0.1250278949737549</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.05257892608642578</v>
+        <v>0.1150479316711426</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.05154585838317871</v>
+        <v>0.1255204677581787</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.06800389289855957</v>
+        <v>0.161597728729248</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.05400228500366211</v>
+        <v>0.1510496139526367</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.05213308334350586</v>
+        <v>0.1445212364196777</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.07204532623291016</v>
+        <v>0.1305229663848877</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.06100726127624512</v>
+        <v>0.1480565071105957</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.05899953842163086</v>
+        <v>0.1425685882568359</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.07152295112609863</v>
+        <v>0.14052414894104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.06810832023620605</v>
+        <v>0.1340320110321045</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.05953097343444824</v>
+        <v>0.1205704212188721</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.06400084495544434</v>
+        <v>0.1335229873657227</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.06899905204772949</v>
+        <v>0.1280500888824463</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.06800079345703125</v>
+        <v>0.1295206546783447</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.06355714797973633</v>
+        <v>0.1430623531341553</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.05120325088500977</v>
+        <v>0.1200466156005859</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.04999184608459473</v>
+        <v>0.1195263862609863</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.07100844383239746</v>
+        <v>0.1305239200592041</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.05951571464538574</v>
+        <v>0.128554105758667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.04914593696594238</v>
+        <v>0.1222662925720215</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.05099129676818848</v>
+        <v>0.1365172863006592</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.0579981803894043</v>
+        <v>0.1260454654693604</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.05118036270141602</v>
+        <v>0.1355652809143066</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.05500102043151855</v>
+        <v>0.1315386295318604</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.04999780654907227</v>
+        <v>0.1632132530212402</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.04951643943786621</v>
+        <v>0.1564908027648926</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.05203819274902344</v>
+        <v>0.1375222206115723</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.05299210548400879</v>
+        <v>0.1345255374908447</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.06914281845092773</v>
+        <v>0.2047252655029297</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0905144214630127</v>
+        <v>0.1651480197906494</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.07351541519165039</v>
+        <v>0.1378710269927979</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.07005906105041504</v>
+        <v>0.1045188903808594</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.06951689720153809</v>
+        <v>0.1145317554473877</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.06351613998413086</v>
+        <v>0.123990535736084</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.06700587272644043</v>
+        <v>0.08400154113769531</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.06799745559692383</v>
+        <v>0.08751702308654785</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.06752347946166992</v>
+        <v>0.08252644538879395</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1042494773864746</v>
+        <v>0.09252452850341797</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1085255146026611</v>
+        <v>0.06805539131164551</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1120457649230957</v>
+        <v>0.1077296733856201</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1075329780578613</v>
+        <v>0.07151126861572266</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.104534387588501</v>
+        <v>0.1025242805480957</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.07550978660583496</v>
+        <v>0.08500504493713379</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.06551384925842285</v>
+        <v>0.08152389526367188</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.07651519775390625</v>
+        <v>0.09352707862854004</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.06650400161743164</v>
+        <v>0.08751511573791504</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.07152342796325684</v>
+        <v>0.1095705032348633</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.06852293014526367</v>
+        <v>0.08953118324279785</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.06701254844665527</v>
+        <v>0.07999038696289062</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.06699824333190918</v>
+        <v>0.08453106880187988</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.08000922203063965</v>
+        <v>0.0935215950012207</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.09752678871154785</v>
+        <v>0.08800745010375977</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.08352136611938477</v>
+        <v>0.08852458000183105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.0845179557800293</v>
+        <v>0.07552218437194824</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.08652639389038086</v>
+        <v>0.1070382595062256</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.08052587509155273</v>
+        <v>0.08953046798706055</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.09051966667175293</v>
+        <v>0.08451390266418457</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.08052420616149902</v>
+        <v>0.0830070972442627</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.07552647590637207</v>
+        <v>0.1720390319824219</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.07852602005004883</v>
+        <v>0.09354782104492188</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.07653284072875977</v>
+        <v>0.0985267162322998</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.0775299072265625</v>
+        <v>0.1075634956359863</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.06951475143432617</v>
+        <v>0.1105268001556396</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.06452226638793945</v>
+        <v>0.1005167961120605</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.06900715827941895</v>
+        <v>0.08111310005187988</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.0710148811340332</v>
+        <v>0.1015255451202393</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.07799863815307617</v>
+        <v>0.07152652740478516</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.07400965690612793</v>
+        <v>0.1065173149108887</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.07251334190368652</v>
+        <v>0.08551740646362305</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.06851983070373535</v>
+        <v>0.09351754188537598</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.07052874565124512</v>
+        <v>0.09751462936401367</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.07552671432495117</v>
+        <v>0.08351492881774902</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.07852315902709961</v>
+        <v>0.08151531219482422</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.08351969718933105</v>
+        <v>0.09552812576293945</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.08252239227294922</v>
+        <v>0.08652830123901367</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.07956171035766602</v>
+        <v>0.1025166511535645</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.07889556884765625</v>
+        <v>0.1105391979217529</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.07817864418029785</v>
+        <v>0.08852958679199219</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.06874847412109375</v>
+        <v>0.07053446769714355</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.07845330238342285</v>
+        <v>0.09351277351379395</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.07767724990844727</v>
+        <v>0.07953119277954102</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.07968688011169434</v>
+        <v>0.08453202247619629</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.0997922420501709</v>
+        <v>0.1005189418792725</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.08117890357971191</v>
+        <v>0.1025242805480957</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.08169889450073242</v>
+        <v>0.1130924224853516</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.07653522491455078</v>
+        <v>0.108518123626709</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.07852339744567871</v>
+        <v>0.0840153694152832</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.1095352172851562</v>
+        <v>0.114520788192749</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.1145331859588623</v>
+        <v>0.09119462966918945</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.1238994598388672</v>
+        <v>0.08951830863952637</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.0765228271484375</v>
+        <v>0.08503580093383789</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.06852149963378906</v>
+        <v>0.1063637733459473</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.06951594352722168</v>
+        <v>0.08452057838439941</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.0700066089630127</v>
+        <v>0.08901596069335938</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.06600069999694824</v>
+        <v>0.0905156135559082</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.06751871109008789</v>
+        <v>0.1065218448638916</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.07252407073974609</v>
+        <v>0.07400107383728027</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.06352043151855469</v>
+        <v>0.0745236873626709</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.07052373886108398</v>
+        <v>0.1185283660888672</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.06900382041931152</v>
+        <v>0.09257340431213379</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.07400846481323242</v>
+        <v>0.08251953125</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.0769965648651123</v>
+        <v>0.08951902389526367</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.08100438117980957</v>
+        <v>0.09055018424987793</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.07199883460998535</v>
+        <v>0.08952450752258301</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.06651854515075684</v>
+        <v>0.104520320892334</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.06820106506347656</v>
+        <v>0.08542823791503906</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.06752538681030273</v>
+        <v>0.08252453804016113</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.06753039360046387</v>
+        <v>0.07852792739868164</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.07101082801818848</v>
+        <v>0.08751463890075684</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.06900167465209961</v>
+        <v>0.07752299308776855</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.06952524185180664</v>
+        <v>0.1105198860168457</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.07453227043151855</v>
+        <v>0.08652186393737793</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.07051801681518555</v>
+        <v>0.1070671081542969</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.07252335548400879</v>
+        <v>0.1405789852142334</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.07752752304077148</v>
+        <v>0.1670575141906738</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.06352734565734863</v>
+        <v>0.1185262203216553</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.06500530242919922</v>
+        <v>0.1574361324310303</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.06599855422973633</v>
+        <v>0.1270463466644287</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.06851625442504883</v>
+        <v>0.1650621891021729</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.07252907752990723</v>
+        <v>0.1740550994873047</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.08451747894287109</v>
+        <v>0.1205275058746338</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.06452250480651855</v>
+        <v>0.0794517993927002</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.07350754737854004</v>
+        <v>0.07056665420532227</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.06800389289855957</v>
+        <v>0.1035163402557373</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.05500030517578125</v>
+        <v>0.07352352142333984</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.07405805587768555</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>0.06251883506774902</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>0.05852007865905762</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>0.07100844383239746</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>0.05600118637084961</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>0.06451654434204102</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>0.0705268383026123</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>0.06200528144836426</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>0.06899547576904297</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>0.07451391220092773</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>0.08152604103088379</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>0.07651925086975098</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>0.08252811431884766</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>0.07851767539978027</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>0.06751275062561035</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>0.08152031898498535</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>0.0935206413269043</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>0.07551407814025879</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>0.0830078125</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>0.06900310516357422</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>0.06451201438903809</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>0.07351994514465332</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>0.07920980453491211</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>0.08953213691711426</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>0.3548824787139893</v>
+        <v>0.07100486755371094</v>
       </c>
     </row>
   </sheetData>

--- a/log/time_log.xlsx
+++ b/log/time_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A161"/>
+  <dimension ref="A1:A895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,802 +430,4472 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1600937843322754</v>
+        <v>0.0765073299407959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.123816967010498</v>
+        <v>0.06404924392700195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.180246114730835</v>
+        <v>0.05350947380065918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1231920719146729</v>
+        <v>0.05499839782714844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1226174831390381</v>
+        <v>0.05850791931152344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1252593994140625</v>
+        <v>0.04809713363647461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.109611988067627</v>
+        <v>0.0469973087310791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1302459239959717</v>
+        <v>0.0760951042175293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1286427974700928</v>
+        <v>0.04854631423950195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1231343746185303</v>
+        <v>0.04803633689880371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1361429691314697</v>
+        <v>0.04551887512207031</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1191518306732178</v>
+        <v>0.04601788520812988</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1236522197723389</v>
+        <v>0.04899358749389648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1231949329376221</v>
+        <v>0.07630801200866699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.121652364730835</v>
+        <v>0.04651665687561035</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1326229572296143</v>
+        <v>0.04798746109008789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1316089630126953</v>
+        <v>0.04751372337341309</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.133516788482666</v>
+        <v>0.04504585266113281</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1285650730133057</v>
+        <v>0.04796957969665527</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1449229717254639</v>
+        <v>0.0476994514465332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1205193996429443</v>
+        <v>0.05103707313537598</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1300389766693115</v>
+        <v>0.0475153923034668</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1245262622833252</v>
+        <v>0.04601526260375977</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1150393486022949</v>
+        <v>0.05401420593261719</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1245222091674805</v>
+        <v>0.04436349868774414</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1159458160400391</v>
+        <v>0.04500198364257812</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.128638744354248</v>
+        <v>0.04552793502807617</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1161675453186035</v>
+        <v>0.0754857063293457</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1225993633270264</v>
+        <v>0.0440363883972168</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1282179355621338</v>
+        <v>0.04569673538208008</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1326503753662109</v>
+        <v>0.04898691177368164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.126408576965332</v>
+        <v>0.05999875068664551</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1651721000671387</v>
+        <v>0.0536949634552002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1250278949737549</v>
+        <v>0.0500030517578125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1150479316711426</v>
+        <v>0.04852294921875</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1255204677581787</v>
+        <v>0.05257272720336914</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.161597728729248</v>
+        <v>0.04599547386169434</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1510496139526367</v>
+        <v>0.04365277290344238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1445212364196777</v>
+        <v>0.04700016975402832</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1305229663848877</v>
+        <v>0.07551956176757812</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1480565071105957</v>
+        <v>0.0454564094543457</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1425685882568359</v>
+        <v>0.05200743675231934</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.14052414894104</v>
+        <v>0.05051183700561523</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1340320110321045</v>
+        <v>0.04653000831604004</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1205704212188721</v>
+        <v>0.07622337341308594</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1335229873657227</v>
+        <v>0.04598569869995117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1280500888824463</v>
+        <v>0.04860401153564453</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1295206546783447</v>
+        <v>0.07305121421813965</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1430623531341553</v>
+        <v>0.04700016975402832</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1200466156005859</v>
+        <v>0.05720329284667969</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.1195263862609863</v>
+        <v>0.04798722267150879</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.1305239200592041</v>
+        <v>0.07428312301635742</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.128554105758667</v>
+        <v>0.04650998115539551</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1222662925720215</v>
+        <v>0.04701375961303711</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1365172863006592</v>
+        <v>0.04598760604858398</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1260454654693604</v>
+        <v>0.04570341110229492</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1355652809143066</v>
+        <v>0.04498744010925293</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1315386295318604</v>
+        <v>0.05246210098266602</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1632132530212402</v>
+        <v>0.07259845733642578</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1564908027648926</v>
+        <v>0.04599690437316895</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1375222206115723</v>
+        <v>0.04556131362915039</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1345255374908447</v>
+        <v>0.04605650901794434</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2047252655029297</v>
+        <v>0.04540872573852539</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1651480197906494</v>
+        <v>0.05556678771972656</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1378710269927979</v>
+        <v>0.04898786544799805</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1045188903808594</v>
+        <v>0.04572272300720215</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1145317554473877</v>
+        <v>0.04888701438903809</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.123990535736084</v>
+        <v>0.04751038551330566</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.08400154113769531</v>
+        <v>0.04950714111328125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.08751702308654785</v>
+        <v>0.04554271697998047</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.08252644538879395</v>
+        <v>0.04661798477172852</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09252452850341797</v>
+        <v>0.04503083229064941</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.06805539131164551</v>
+        <v>0.04555273056030273</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1077296733856201</v>
+        <v>0.04783272743225098</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.07151126861572266</v>
+        <v>0.04504156112670898</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1025242805480957</v>
+        <v>0.04531073570251465</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.08500504493713379</v>
+        <v>0.04895401000976562</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.08152389526367188</v>
+        <v>0.04491996765136719</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.09352707862854004</v>
+        <v>0.0439915657043457</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.08751511573791504</v>
+        <v>0.0525665283203125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1095705032348633</v>
+        <v>0.04804134368896484</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.08953118324279785</v>
+        <v>0.06993317604064941</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.07999038696289062</v>
+        <v>0.05554890632629395</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.08453106880187988</v>
+        <v>0.04639053344726562</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.0935215950012207</v>
+        <v>0.04802823066711426</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.08800745010375977</v>
+        <v>0.04369711875915527</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.08852458000183105</v>
+        <v>0.04502439498901367</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.07552218437194824</v>
+        <v>0.05059075355529785</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1070382595062256</v>
+        <v>0.04765152931213379</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.08953046798706055</v>
+        <v>0.04399299621582031</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.08451390266418457</v>
+        <v>0.04912400245666504</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.0830070972442627</v>
+        <v>0.04599666595458984</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1720390319824219</v>
+        <v>0.04742908477783203</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.09354782104492188</v>
+        <v>0.06157231330871582</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.0985267162322998</v>
+        <v>0.04904365539550781</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.1075634956359863</v>
+        <v>0.04855561256408691</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.1105268001556396</v>
+        <v>0.06951093673706055</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.1005167961120605</v>
+        <v>0.0459589958190918</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.08111310005187988</v>
+        <v>0.04956841468811035</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.1015255451202393</v>
+        <v>0.04600405693054199</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.07152652740478516</v>
+        <v>0.04651093482971191</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1065173149108887</v>
+        <v>0.04690003395080566</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.08551740646362305</v>
+        <v>0.05601668357849121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.09351754188537598</v>
+        <v>0.04952597618103027</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.09751462936401367</v>
+        <v>0.04500699043273926</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.08351492881774902</v>
+        <v>0.0455319881439209</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.08151531219482422</v>
+        <v>0.04951357841491699</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.09552812576293945</v>
+        <v>0.07333493232727051</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.08652830123901367</v>
+        <v>0.07950353622436523</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1025166511535645</v>
+        <v>0.04753232002258301</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1105391979217529</v>
+        <v>0.07350349426269531</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.08852958679199219</v>
+        <v>0.05627751350402832</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.07053446769714355</v>
+        <v>0.04804205894470215</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.09351277351379395</v>
+        <v>0.0464484691619873</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.07953119277954102</v>
+        <v>0.04499506950378418</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.08453202247619629</v>
+        <v>0.04460740089416504</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1005189418792725</v>
+        <v>0.05504798889160156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1025242805480957</v>
+        <v>0.05600690841674805</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1130924224853516</v>
+        <v>0.05025196075439453</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.108518123626709</v>
+        <v>0.04698586463928223</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.0840153694152832</v>
+        <v>0.04757976531982422</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.114520788192749</v>
+        <v>0.05562806129455566</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.09119462966918945</v>
+        <v>0.04499912261962891</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.08951830863952637</v>
+        <v>0.06054425239562988</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.08503580093383789</v>
+        <v>0.05008506774902344</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1063637733459473</v>
+        <v>0.04660725593566895</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.08452057838439941</v>
+        <v>0.0465693473815918</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.08901596069335938</v>
+        <v>0.0449521541595459</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.0905156135559082</v>
+        <v>0.04956340789794922</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1065218448638916</v>
+        <v>0.04625058174133301</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.07400107383728027</v>
+        <v>0.04650688171386719</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.0745236873626709</v>
+        <v>0.04600405693054199</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.1185283660888672</v>
+        <v>0.0532386302947998</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.09257340431213379</v>
+        <v>0.04352402687072754</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.08251953125</v>
+        <v>0.04504680633544922</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.08951902389526367</v>
+        <v>0.04441666603088379</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.09055018424987793</v>
+        <v>0.04795479774475098</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.08952450752258301</v>
+        <v>0.05199861526489258</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.104520320892334</v>
+        <v>0.06540155410766602</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.08542823791503906</v>
+        <v>0.07550692558288574</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.08252453804016113</v>
+        <v>0.06005048751831055</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.07852792739868164</v>
+        <v>0.04504752159118652</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.08751463890075684</v>
+        <v>0.04520797729492188</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.07752299308776855</v>
+        <v>0.0469968318939209</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.1105198860168457</v>
+        <v>0.04823851585388184</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.08652186393737793</v>
+        <v>0.04599428176879883</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.1070671081542969</v>
+        <v>0.03518247604370117</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.1405789852142334</v>
+        <v>0.04704070091247559</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.1670575141906738</v>
+        <v>0.05019283294677734</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.1185262203216553</v>
+        <v>0.04597115516662598</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.1574361324310303</v>
+        <v>0.04395174980163574</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.1270463466644287</v>
+        <v>0.04760384559631348</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.1650621891021729</v>
+        <v>0.05906558036804199</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.1740550994873047</v>
+        <v>0.07155871391296387</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.1205275058746338</v>
+        <v>0.04520177841186523</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.0794517993927002</v>
+        <v>0.04599905014038086</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.07056665420532227</v>
+        <v>0.04463768005371094</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.1035163402557373</v>
+        <v>0.04609489440917969</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.07352352142333984</v>
+        <v>0.04499936103820801</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.07100486755371094</v>
+        <v>0.04705452919006348</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.04699945449829102</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.04365205764770508</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.04603338241577148</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.04451966285705566</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.04602909088134766</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.04504680633544922</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.04469203948974609</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.07674527168273926</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.04632472991943359</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.04659748077392578</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.04804325103759766</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.04698491096496582</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.04496502876281738</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.04555368423461914</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.04700160026550293</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.04703307151794434</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.04462146759033203</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.04499554634094238</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.04961824417114258</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.04699373245239258</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.05011272430419922</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.04762077331542969</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.05199027061462402</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.04450631141662598</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.0559999942779541</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.0489952564239502</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.04852128028869629</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.04799914360046387</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.04951167106628418</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.0480036735534668</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.04699182510375977</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.04759573936462402</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.04699349403381348</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.04502344131469727</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.04802370071411133</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.07402443885803223</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.04655885696411133</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.0531463623046875</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.04837846755981445</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.04465341567993164</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.04604816436767578</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.04564857482910156</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.04505109786987305</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.0450434684753418</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.04459452629089355</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.05099940299987793</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.07363080978393555</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.0445396900177002</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.07660722732543945</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.04498600959777832</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.0515139102935791</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.04700851440429688</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.04594016075134277</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.04700493812561035</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.03599858283996582</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.05825448036193848</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.05914974212646484</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.04707121849060059</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.05554962158203125</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.06099843978881836</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.05611872673034668</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.06512737274169922</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.04900002479553223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.04754424095153809</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.05850076675415039</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.04400277137756348</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.04455256462097168</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.04599428176879883</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.05856513977050781</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.07465147972106934</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.044036865234375</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.04751324653625488</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.05907344818115234</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.05450081825256348</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.06041836738586426</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.05571293830871582</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.05300021171569824</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.04604911804199219</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.04700803756713867</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.04698634147644043</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.04551386833190918</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.0449988842010498</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.07750964164733887</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.04951715469360352</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.0735163688659668</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.04599928855895996</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.04698276519775391</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.07390022277832031</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.04795527458190918</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.04652547836303711</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.04870867729187012</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.0436100959777832</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.04578709602355957</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.04500246047973633</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.0480039119720459</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.04604244232177734</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.04358053207397461</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.07635498046875</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.05700016021728516</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.04851293563842773</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.04404568672180176</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.04498529434204102</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.06028461456298828</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.0725858211517334</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.0520017147064209</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.04869651794433594</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.04503345489501953</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.04520511627197266</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.04648947715759277</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.05004596710205078</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.05559396743774414</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.05400586128234863</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.05104351043701172</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.06852602958679199</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.04805207252502441</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.04699969291687012</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.06156730651855469</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.04806733131408691</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.04722499847412109</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.04532003402709961</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.04900288581848145</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.08251833915710449</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.04851102828979492</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.07355594635009766</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.05305242538452148</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.07957077026367188</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.04711651802062988</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.04799675941467285</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.05401897430419922</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.06765151023864746</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.04572582244873047</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.04950618743896484</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.07247138023376465</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.07203030586242676</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.04600048065185547</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.07546687126159668</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.05240225791931152</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.04900288581848145</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.04821562767028809</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.04485726356506348</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.04433631896972656</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.0485537052154541</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.07203006744384766</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.05756664276123047</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.04653525352478027</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.04904508590698242</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.04727602005004883</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.04399991035461426</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.05006885528564453</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.04558944702148438</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.04500222206115723</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.05154204368591309</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.04598259925842285</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.0465233325958252</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.04604268074035645</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.04500412940979004</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.07160329818725586</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.0459592342376709</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.07202482223510742</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.04842257499694824</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.04813790321350098</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.05430936813354492</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.04425978660583496</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.04804325103759766</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.04753470420837402</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.06755471229553223</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.0599970817565918</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.04635000228881836</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.06006956100463867</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.05142498016357422</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.04451799392700195</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.04600238800048828</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.04450011253356934</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.0460045337677002</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.05598711967468262</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.05913329124450684</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.0489966869354248</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.04400014877319336</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.0475153923034668</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.04705142974853516</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.05113387107849121</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.04608917236328125</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.07500624656677246</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.04652929306030273</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.04400801658630371</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.04422140121459961</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.0450742244720459</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.04699301719665527</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.07128524780273438</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.04371738433837891</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.04813146591186523</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.0482337474822998</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.04504156112670898</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.05285811424255371</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.05600523948669434</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.0470433235168457</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.0552980899810791</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.07357358932495117</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.0500342845916748</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.04550480842590332</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.04505133628845215</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.04560661315917969</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.04832601547241211</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.04604387283325195</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.04448437690734863</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.04499483108520508</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.0456085205078125</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.04600620269775391</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.0515134334564209</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.04568791389465332</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.04903435707092285</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.04565072059631348</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.04403281211853027</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.07704639434814453</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.04758167266845703</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.04530763626098633</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.04460287094116211</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.04600262641906738</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.0460357666015625</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.04579496383666992</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.0449984073638916</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.04752063751220703</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.04645991325378418</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.04650974273681641</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.07455730438232422</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.04600620269775391</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.04774117469787598</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.04508399963378906</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.04500031471252441</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.04713559150695801</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.0464930534362793</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.05750060081481934</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.07451319694519043</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.0469968318939209</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.04851269721984863</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.04500317573547363</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.04499673843383789</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.04751706123352051</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.04699468612670898</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.05405998229980469</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.07955193519592285</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.06066179275512695</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.04413700103759766</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.04456901550292969</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.07553696632385254</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.04700088500976562</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.04754114151000977</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.07450962066650391</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.06223726272583008</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.04961109161376953</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.04552865028381348</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.04503512382507324</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.04858207702636719</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.05595970153808594</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.04751443862915039</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.05056428909301758</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.07295727729797363</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.07297039031982422</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.04562282562255859</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.04809379577636719</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.05905556678771973</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.04365229606628418</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.04700255393981934</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.04511213302612305</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.0469517707824707</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.0449984073638916</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.0451657772064209</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.05098652839660645</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.04742956161499023</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.04599761962890625</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.04751992225646973</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.04755353927612305</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.05700254440307617</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.04650974273681641</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.0449984073638916</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.04686760902404785</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.07329416275024414</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.0429539680480957</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.04951095581054688</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.04803943634033203</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.06399846076965332</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.0542449951171875</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.05204868316650391</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.04704570770263672</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.04561543464660645</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.04500102996826172</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.04955887794494629</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.0590977668762207</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.04799938201904297</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.07218742370605469</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.04796051979064941</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.05399966239929199</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.05956006050109863</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.04511618614196777</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.04599857330322266</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.04551434516906738</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.04399776458740234</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.04610300064086914</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.04699873924255371</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.0456230640411377</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.07455563545227051</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.04599976539611816</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.04651260375976562</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.04705405235290527</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.04604315757751465</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.0465857982635498</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.04697132110595703</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.04451489448547363</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.04599857330322266</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.04505443572998047</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.04595494270324707</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.04883122444152832</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.08151888847351074</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.09950137138366699</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.05950760841369629</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.08252406120300293</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.06050896644592285</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.06101679801940918</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.05999350547790527</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.06645035743713379</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.08651280403137207</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.06502771377563477</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.06206417083740234</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.06099724769592285</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.07300734519958496</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.07750916481018066</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.04952502250671387</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.05450820922851562</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.04799556732177734</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.05640077590942383</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.05852890014648438</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.0540010929107666</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.04614615440368652</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.04500079154968262</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.05700349807739258</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.0595247745513916</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.04803061485290527</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.08000540733337402</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.06399393081665039</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.05408263206481934</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.04902291297912598</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.05801010131835938</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.04900550842285156</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.05547499656677246</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0.05004286766052246</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0.04998493194580078</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0.05251836776733398</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>0.04899454116821289</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0.05650901794433594</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>0.05116677284240723</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.07102417945861816</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0.07601213455200195</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.07099151611328125</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.07450675964355469</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.04651117324829102</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.04699587821960449</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.07172799110412598</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0.07611918449401855</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.07622838020324707</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.04856705665588379</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.04932093620300293</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.04769563674926758</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.04702425003051758</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.04555726051330566</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0.04598307609558105</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0.04494881629943848</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.043487548828125</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.04499602317810059</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.0736541748046875</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>0.04751467704772949</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0.04299545288085938</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.04663205146789551</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.0459589958190918</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0.04504251480102539</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.04351639747619629</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.0480034351348877</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.04564857482910156</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.04400014877319336</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.05308890342712402</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.04500508308410645</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.04600000381469727</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.04379987716674805</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0.04503107070922852</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.04852986335754395</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0.0469975471496582</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0.05100059509277344</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0.04814767837524414</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.07542800903320312</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0.04395341873168945</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.04551029205322266</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0.04498887062072754</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0.04587125778198242</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.04600667953491211</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.04399967193603516</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.04551386833190918</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0.04599475860595703</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.04448819160461426</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.04404902458190918</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.07616996765136719</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.07450056076049805</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.04480457305908203</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.04699945449829102</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.04810857772827148</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.04501104354858398</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.04599881172180176</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.0485069751739502</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0.06816244125366211</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0.0449984073638916</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.04852581024169922</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.04499578475952148</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0.04551076889038086</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.04601836204528809</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0.06813335418701172</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.04752874374389648</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.04504919052124023</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.04505062103271484</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.05256414413452148</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.0479578971862793</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0.04453492164611816</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0.04703664779663086</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.04699969291687012</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0.0465092658996582</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0.05299735069274902</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.04450750350952148</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0.04672574996948242</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.04800057411193848</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.04587674140930176</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0.04695320129394531</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0.05431151390075684</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0.04817914962768555</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>0.0450444221496582</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0.04803943634033203</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0.06851053237915039</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0.04799938201904297</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0.04550480842590332</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.04500555992126465</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0.04534316062927246</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0.07810688018798828</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0.0460362434387207</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0.04404258728027344</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0.04746699333190918</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0.04804372787475586</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0.04618477821350098</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0.0439910888671875</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0.04559874534606934</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0.04652047157287598</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0.04499959945678711</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0.04553318023681641</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>0.04499936103820801</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0.04552173614501953</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>0.04551005363464355</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0.06899333000183105</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0.04751086235046387</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>0.04852890968322754</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>0.04395556449890137</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0.07545685768127441</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0.0494844913482666</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0.0480048656463623</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0.04958319664001465</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0.05550909042358398</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0.04802441596984863</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0.04402041435241699</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0.04422569274902344</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0.0491790771484375</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.04649496078491211</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0.04500365257263184</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0.04452037811279297</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0.04499530792236328</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0.04450416564941406</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0.04602694511413574</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0.04600358009338379</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0.04451179504394531</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>0.04795360565185547</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0.04551291465759277</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0.04395270347595215</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0.04553842544555664</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0.07356023788452148</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0.04503917694091797</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0.06459856033325195</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0.04651355743408203</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0.05402636528015137</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0.0449521541595459</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0.04601025581359863</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0.04800081253051758</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0.04581069946289062</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0.07251310348510742</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0.04595422744750977</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0.06953692436218262</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0.04567980766296387</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0.04568004608154297</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0.04751992225646973</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0.0449976921081543</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0.04351305961608887</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0.04522991180419922</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0.04645919799804688</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0.04506325721740723</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0.04500126838684082</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0.05257034301757812</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0.05746865272521973</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0.04612445831298828</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0.04404830932617188</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0.04568004608154297</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0.04952692985534668</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0.04497170448303223</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0.04399824142456055</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0.04636788368225098</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0.07551312446594238</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0.0439455509185791</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0.07451057434082031</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0.05650877952575684</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0.04499435424804688</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0.07154083251953125</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0.04751443862915039</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>0.04799842834472656</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0.04604673385620117</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>0.04548835754394531</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0.04700231552124023</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0.04753255844116211</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0.07156181335449219</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0.04603338241577148</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0.04658722877502441</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0.0439293384552002</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0.04551982879638672</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0.04558372497558594</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0.05537676811218262</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0.07452058792114258</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0.04448103904724121</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0.0469505786895752</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0.05558180809020996</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0.04399776458740234</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0.04594087600708008</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0.04651641845703125</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>0.04546093940734863</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0.0665132999420166</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0.04761815071105957</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>0.04735469818115234</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>0.0445101261138916</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0.0460050106048584</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0.04821252822875977</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0.0458838939666748</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0.04400062561035156</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0.04648280143737793</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0.04704976081848145</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0.0459904670715332</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0.04350399971008301</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0.04607510566711426</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0.04951381683349609</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0.04505157470703125</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0.04415178298950195</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0.06605386734008789</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0.04651975631713867</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0.04353690147399902</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0.04604601860046387</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0.04595446586608887</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>0.04655051231384277</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>0.04800128936767578</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>0.04401636123657227</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>0.04600620269775391</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0.04585123062133789</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>0.04662990570068359</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0.04582023620605469</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>0.07413935661315918</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>0.07508087158203125</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0.04495978355407715</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>0.04489874839782715</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>0.04655790328979492</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>0.04602503776550293</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>0.07360720634460449</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>0.04451322555541992</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>0.0469968318939209</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>0.04606175422668457</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>0.06862735748291016</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>0.04583311080932617</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>0.04651021957397461</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>0.04400229454040527</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>0.04599833488464355</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>0.05326151847839355</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>0.04699850082397461</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>0.04459214210510254</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>0.04438996315002441</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>0.04600071907043457</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>0.05870962142944336</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>0.04685783386230469</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>0.0447227954864502</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>0.0755164623260498</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>0.04799962043762207</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>0.07299947738647461</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>0.04523801803588867</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>0.05700421333312988</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>0.04799342155456543</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>0.07651400566101074</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>0.0583491325378418</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>0.05000209808349609</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>0.04778671264648438</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>0.04468059539794922</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>0.04700112342834473</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>0.04565048217773438</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>0.04299354553222656</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>0.04364800453186035</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>0.04555964469909668</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0.04599809646606445</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>0.0455012321472168</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>0.04500007629394531</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>0.07451367378234863</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>0.04823613166809082</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>0.0449976921081543</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>0.04450774192810059</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>0.06252336502075195</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>0.07704281806945801</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>0.05499505996704102</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0.04551529884338379</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0.05601072311401367</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0.04899883270263672</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>0.0455322265625</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0.04699516296386719</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>0.07660317420959473</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>0.04415440559387207</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>0.04395508766174316</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>0.04613018035888672</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>0.04630112648010254</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>0.04399752616882324</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>0.04531383514404297</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>0.05393385887145996</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>0.04600763320922852</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>0.04456925392150879</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>0.04914212226867676</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>0.04847931861877441</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>0.04595708847045898</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>0.04414510726928711</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>0.04547929763793945</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0.05499482154846191</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>0.0456092357635498</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>0.04500246047973633</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>0.04459953308105469</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>0.04858160018920898</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>0.0479896068572998</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>0.04418635368347168</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>0.05796217918395996</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>0.04699444770812988</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>0.04361653327941895</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>0.05465865135192871</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>0.04354357719421387</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>0.04694509506225586</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>0.04499983787536621</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>0.05244827270507812</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>0.04700016975402832</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>0.0755162239074707</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>0.0435492992401123</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0.04500079154968262</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>0.0445866584777832</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>0.0460052490234375</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>0.04600191116333008</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>0.04451513290405273</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>0.0460655689239502</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>0.0472414493560791</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>0.04400086402893066</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>0.07495617866516113</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>0.04750919342041016</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>0.04706931114196777</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>0.04398465156555176</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>0.05603575706481934</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>0.04603838920593262</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0.05518341064453125</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>0.04489755630493164</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>0.04799985885620117</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>0.04653358459472656</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>0.04500031471252441</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>0.04550981521606445</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>0.0460052490234375</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>0.04999947547912598</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>0.04651427268981934</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>0.04400110244750977</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>0.04651165008544922</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>0.04951238632202148</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>0.04391837120056152</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>0.04568648338317871</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>0.04595613479614258</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>0.05955600738525391</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>0.04656648635864258</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>0.04399967193603516</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0.04660701751708984</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>0.04803276062011719</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0.04551839828491211</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>0.07313060760498047</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>0.0490717887878418</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>0.04603672027587891</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>0.04569530487060547</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>0.04395270347595215</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>0.04598832130432129</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>0.04604053497314453</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0.04355978965759277</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>0.04754543304443359</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0.0492398738861084</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>0.04459738731384277</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>0.05604457855224609</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>0.0749969482421875</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0.04659461975097656</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>0.07251453399658203</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>0.0479741096496582</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>0.04659509658813477</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0.04659056663513184</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>0.04593586921691895</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0.0445101261138916</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>0.04504013061523438</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0.04450464248657227</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0.04303884506225586</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0.04399871826171875</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>0.04852461814880371</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0.04703783988952637</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>0.04355478286743164</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0.05092859268188477</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>0.04600691795349121</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>0.04464840888977051</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>0.04400181770324707</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>0.07399988174438477</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>0.04734039306640625</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>0.04403400421142578</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>0.04753589630126953</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>0.04499340057373047</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>0.04526019096374512</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>0.04557466506958008</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>0.04465746879577637</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>0.0460360050201416</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>0.04499936103820801</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>0.0445864200592041</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>0.04393625259399414</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>0.07323431968688965</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>0.04654669761657715</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>0.04496359825134277</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>0.04558491706848145</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>0.07335948944091797</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>0.04605412483215332</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>0.0465242862701416</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>0.04658055305480957</v>
       </c>
     </row>
   </sheetData>

--- a/log/time_log.xlsx
+++ b/log/time_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A895"/>
+  <dimension ref="A1:A1079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,4472 +430,5392 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0765073299407959</v>
+        <v>0.1415441036224365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.06404924392700195</v>
+        <v>0.08723902702331543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05350947380065918</v>
+        <v>0.1022107601165771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.05499839782714844</v>
+        <v>0.0980072021484375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05850791931152344</v>
+        <v>0.09557366371154785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04809713363647461</v>
+        <v>0.08951783180236816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0469973087310791</v>
+        <v>0.09653377532958984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0760951042175293</v>
+        <v>0.09503269195556641</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04854631423950195</v>
+        <v>0.102574348449707</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.04803633689880371</v>
+        <v>0.1074721813201904</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04551887512207031</v>
+        <v>0.1125521659851074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.04601788520812988</v>
+        <v>0.07999515533447266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.04899358749389648</v>
+        <v>0.08651280403137207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.07630801200866699</v>
+        <v>0.1015126705169678</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.04651665687561035</v>
+        <v>0.07952237129211426</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.04798746109008789</v>
+        <v>0.09353232383728027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.04751372337341309</v>
+        <v>0.09052181243896484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.04504585266113281</v>
+        <v>0.09691882133483887</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.04796957969665527</v>
+        <v>0.106605052947998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0476994514465332</v>
+        <v>0.09052515029907227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.05103707313537598</v>
+        <v>0.103579044342041</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0475153923034668</v>
+        <v>0.08101916313171387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04601526260375977</v>
+        <v>0.1065185070037842</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.05401420593261719</v>
+        <v>0.1077346801757812</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04436349868774414</v>
+        <v>0.09153890609741211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.04500198364257812</v>
+        <v>0.1088860034942627</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04552793502807617</v>
+        <v>0.07596111297607422</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.0754857063293457</v>
+        <v>0.1015262603759766</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0440363883972168</v>
+        <v>0.0900413990020752</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.04569673538208008</v>
+        <v>0.09720134735107422</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.04898691177368164</v>
+        <v>0.1081116199493408</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.05999875068664551</v>
+        <v>0.09604406356811523</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.0536949634552002</v>
+        <v>0.08678531646728516</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0500030517578125</v>
+        <v>0.1024794578552246</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.04852294921875</v>
+        <v>0.09647393226623535</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.05257272720336914</v>
+        <v>0.1047613620758057</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.04599547386169434</v>
+        <v>0.08364486694335938</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.04365277290344238</v>
+        <v>0.09052014350891113</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.04700016975402832</v>
+        <v>0.1065571308135986</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.07551956176757812</v>
+        <v>0.07200121879577637</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0454564094543457</v>
+        <v>0.09447884559631348</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.05200743675231934</v>
+        <v>0.1015605926513672</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.05051183700561523</v>
+        <v>0.08346319198608398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.04653000831604004</v>
+        <v>0.095550537109375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.07622337341308594</v>
+        <v>0.09908628463745117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.04598569869995117</v>
+        <v>0.08047056198120117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.04860401153564453</v>
+        <v>0.1050665378570557</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.07305121421813965</v>
+        <v>0.09652018547058105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.04700016975402832</v>
+        <v>0.1005818843841553</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.05720329284667969</v>
+        <v>0.09841752052307129</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.04798722267150879</v>
+        <v>0.08633589744567871</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.07428312301635742</v>
+        <v>0.0915980339050293</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.04650998115539551</v>
+        <v>0.0962982177734375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.04701375961303711</v>
+        <v>0.1027617454528809</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.04598760604858398</v>
+        <v>0.1028974056243896</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.04570341110229492</v>
+        <v>0.09656476974487305</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.04498744010925293</v>
+        <v>0.1075661182403564</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.05246210098266602</v>
+        <v>0.113053560256958</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.07259845733642578</v>
+        <v>0.1081044673919678</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.04599690437316895</v>
+        <v>0.07007980346679688</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.04556131362915039</v>
+        <v>0.09956479072570801</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.04605650901794434</v>
+        <v>0.08751678466796875</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.04540872573852539</v>
+        <v>0.09052443504333496</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05556678771972656</v>
+        <v>0.07884502410888672</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.04898786544799805</v>
+        <v>0.08005619049072266</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.04572272300720215</v>
+        <v>0.08407402038574219</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.04888701438903809</v>
+        <v>0.08224368095397949</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.04751038551330566</v>
+        <v>0.09552383422851562</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.04950714111328125</v>
+        <v>0.08930182456970215</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.04554271697998047</v>
+        <v>0.1104469299316406</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.04661798477172852</v>
+        <v>0.07847905158996582</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.04503083229064941</v>
+        <v>0.1385359764099121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.04555273056030273</v>
+        <v>0.1015162467956543</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.04783272743225098</v>
+        <v>0.1345205307006836</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.04504156112670898</v>
+        <v>0.0730128288269043</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.04531073570251465</v>
+        <v>0.111454963684082</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.04895401000976562</v>
+        <v>0.1270701885223389</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.04491996765136719</v>
+        <v>0.1031925678253174</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.0439915657043457</v>
+        <v>0.1845355033874512</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.0525665283203125</v>
+        <v>0.09353089332580566</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.04804134368896484</v>
+        <v>0.1390931606292725</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.06993317604064941</v>
+        <v>0.09110331535339355</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.05554890632629395</v>
+        <v>0.08539175987243652</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.04639053344726562</v>
+        <v>0.08551907539367676</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.04802823066711426</v>
+        <v>0.08952713012695312</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.04369711875915527</v>
+        <v>0.1005430221557617</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.04502439498901367</v>
+        <v>0.08852219581604004</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.05059075355529785</v>
+        <v>0.09151601791381836</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.04765152931213379</v>
+        <v>0.08156967163085938</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.04399299621582031</v>
+        <v>0.07953166961669922</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.04912400245666504</v>
+        <v>0.07852721214294434</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.04599666595458984</v>
+        <v>0.0815274715423584</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.04742908477783203</v>
+        <v>0.09055423736572266</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.06157231330871582</v>
+        <v>0.0934758186340332</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.04904365539550781</v>
+        <v>0.09674882888793945</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.04855561256408691</v>
+        <v>0.0945887565612793</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.06951093673706055</v>
+        <v>0.09002065658569336</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.0459589958190918</v>
+        <v>0.09252738952636719</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.04956841468811035</v>
+        <v>0.09600353240966797</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.04600405693054199</v>
+        <v>0.0872652530670166</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.04651093482971191</v>
+        <v>0.0804746150970459</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.04690003395080566</v>
+        <v>0.07948589324951172</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.05601668357849121</v>
+        <v>0.08152174949645996</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.04952597618103027</v>
+        <v>0.08321619033813477</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.04500699043273926</v>
+        <v>0.08214473724365234</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.0455319881439209</v>
+        <v>0.09923195838928223</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.04951357841491699</v>
+        <v>0.09152793884277344</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.07333493232727051</v>
+        <v>0.0890052318572998</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.07950353622436523</v>
+        <v>0.09448480606079102</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.04753232002258301</v>
+        <v>0.08151793479919434</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.07350349426269531</v>
+        <v>0.0885770320892334</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.05627751350402832</v>
+        <v>0.0865328311920166</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.04804205894470215</v>
+        <v>0.08756208419799805</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.0464484691619873</v>
+        <v>0.08796525001525879</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.04499506950378418</v>
+        <v>0.07847881317138672</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.04460740089416504</v>
+        <v>0.08560991287231445</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.05504798889160156</v>
+        <v>0.08112502098083496</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.05600690841674805</v>
+        <v>0.08154988288879395</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.05025196075439453</v>
+        <v>0.08063244819641113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.04698586463928223</v>
+        <v>0.07251858711242676</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.04757976531982422</v>
+        <v>0.085601806640625</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.05562806129455566</v>
+        <v>0.1042768955230713</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.04499912261962891</v>
+        <v>0.08457183837890625</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.06054425239562988</v>
+        <v>0.08599615097045898</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.05008506774902344</v>
+        <v>0.07753920555114746</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.04660725593566895</v>
+        <v>0.08872389793395996</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.0465693473815918</v>
+        <v>0.08765482902526855</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.0449521541595459</v>
+        <v>0.1164886951446533</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.04956340789794922</v>
+        <v>0.09151601791381836</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.04625058174133301</v>
+        <v>0.09206438064575195</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.04650688171386719</v>
+        <v>0.08652472496032715</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.04600405693054199</v>
+        <v>0.09251689910888672</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.0532386302947998</v>
+        <v>0.08949661254882812</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.04352402687072754</v>
+        <v>0.07109928131103516</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.04504680633544922</v>
+        <v>0.1015679836273193</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.04441666603088379</v>
+        <v>0.0860602855682373</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.04795479774475098</v>
+        <v>0.08506441116333008</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.05199861526489258</v>
+        <v>0.09103298187255859</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.06540155410766602</v>
+        <v>0.08701062202453613</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.07550692558288574</v>
+        <v>0.07651710510253906</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.06005048751831055</v>
+        <v>0.06858229637145996</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.04504752159118652</v>
+        <v>0.08052468299865723</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.04520797729492188</v>
+        <v>0.07339787483215332</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.0469968318939209</v>
+        <v>0.07157397270202637</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.04823851585388184</v>
+        <v>0.08555507659912109</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.04599428176879883</v>
+        <v>0.0759589672088623</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.03518247604370117</v>
+        <v>0.08303523063659668</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.04704070091247559</v>
+        <v>0.06956386566162109</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.05019283294677734</v>
+        <v>0.0928497314453125</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.04597115516662598</v>
+        <v>0.07523322105407715</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.04395174980163574</v>
+        <v>0.08499908447265625</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.04760384559631348</v>
+        <v>0.08139204978942871</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.05906558036804199</v>
+        <v>0.08074784278869629</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.07155871391296387</v>
+        <v>0.08261513710021973</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.04520177841186523</v>
+        <v>0.0796504020690918</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.04599905014038086</v>
+        <v>0.08199572563171387</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.04463768005371094</v>
+        <v>0.08000493049621582</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.04609489440917969</v>
+        <v>0.06600213050842285</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.04499936103820801</v>
+        <v>0.07852649688720703</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.04705452919006348</v>
+        <v>0.09052276611328125</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.04699945449829102</v>
+        <v>0.08152580261230469</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.04365205764770508</v>
+        <v>0.07460403442382812</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.04603338241577148</v>
+        <v>0.0895226001739502</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.04451966285705566</v>
+        <v>0.07600975036621094</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.04602909088134766</v>
+        <v>0.08601117134094238</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.04504680633544922</v>
+        <v>0.08800911903381348</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.04469203948974609</v>
+        <v>0.08424067497253418</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.07674527168273926</v>
+        <v>0.0885918140411377</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.04632472991943359</v>
+        <v>0.07159948348999023</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.04659748077392578</v>
+        <v>0.06545090675354004</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.04804325103759766</v>
+        <v>0.08647680282592773</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.04698491096496582</v>
+        <v>0.09258651733398438</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.04496502876281738</v>
+        <v>0.07170701026916504</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.04555368423461914</v>
+        <v>0.1015174388885498</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.04700160026550293</v>
+        <v>0.07952594757080078</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.04703307151794434</v>
+        <v>0.09217381477355957</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.04462146759033203</v>
+        <v>0.07329750061035156</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.04499554634094238</v>
+        <v>0.07995748519897461</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.04961824417114258</v>
+        <v>0.0824744701385498</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.04699373245239258</v>
+        <v>0.06978178024291992</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.05011272430419922</v>
+        <v>0.08122396469116211</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.04762077331542969</v>
+        <v>0.0732724666595459</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.05199027061462402</v>
+        <v>0.06841254234313965</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.04450631141662598</v>
+        <v>0.06851816177368164</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.0559999942779541</v>
+        <v>0.07415366172790527</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.0489952564239502</v>
+        <v>0.07313704490661621</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.04852128028869629</v>
+        <v>0.0874180793762207</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.04799914360046387</v>
+        <v>0.07751035690307617</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.04951167106628418</v>
+        <v>0.07421374320983887</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.0480036735534668</v>
+        <v>0.08849525451660156</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.04699182510375977</v>
+        <v>0.08261227607727051</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.04759573936462402</v>
+        <v>0.08809542655944824</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.04699349403381348</v>
+        <v>0.08432936668395996</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.04502344131469727</v>
+        <v>0.07409238815307617</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.04802370071411133</v>
+        <v>0.07800698280334473</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.07402443885803223</v>
+        <v>0.08307552337646484</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.04655885696411133</v>
+        <v>0.09220457077026367</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.0531463623046875</v>
+        <v>0.07758092880249023</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.04837846755981445</v>
+        <v>0.0855717658996582</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.04465341567993164</v>
+        <v>0.08688640594482422</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.04604816436767578</v>
+        <v>0.09453678131103516</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.04564857482910156</v>
+        <v>0.07401275634765625</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.04505109786987305</v>
+        <v>0.08057236671447754</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.0450434684753418</v>
+        <v>0.0904691219329834</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.04459452629089355</v>
+        <v>0.07756662368774414</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.05099940299987793</v>
+        <v>0.09850358963012695</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.07363080978393555</v>
+        <v>0.093475341796875</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.0445396900177002</v>
+        <v>0.08455896377563477</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.07660722732543945</v>
+        <v>0.09300971031188965</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.04498600959777832</v>
+        <v>0.08448362350463867</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.0515139102935791</v>
+        <v>0.08942937850952148</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.04700851440429688</v>
+        <v>0.07364606857299805</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.04594016075134277</v>
+        <v>0.08552098274230957</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.04700493812561035</v>
+        <v>0.07461452484130859</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.03599858283996582</v>
+        <v>0.08156251907348633</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.05825448036193848</v>
+        <v>0.08154630661010742</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.05914974212646484</v>
+        <v>0.09100794792175293</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.04707121849060059</v>
+        <v>0.0775604248046875</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.05554962158203125</v>
+        <v>0.1020817756652832</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.06099843978881836</v>
+        <v>0.09056282043457031</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.05611872673034668</v>
+        <v>0.08148884773254395</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.06512737274169922</v>
+        <v>0.0845952033996582</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.04900002479553223</v>
+        <v>0.09454250335693359</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.04754424095153809</v>
+        <v>0.08001184463500977</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.05850076675415039</v>
+        <v>0.07265758514404297</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.04400277137756348</v>
+        <v>0.0915229320526123</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.04455256462097168</v>
+        <v>0.07887434959411621</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.04599428176879883</v>
+        <v>0.0942234992980957</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.05856513977050781</v>
+        <v>0.07967138290405273</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.07465147972106934</v>
+        <v>0.09047389030456543</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.044036865234375</v>
+        <v>0.07600164413452148</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.04751324653625488</v>
+        <v>0.1009488105773926</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.05907344818115234</v>
+        <v>0.07953023910522461</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.05450081825256348</v>
+        <v>0.0900108814239502</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.06041836738586426</v>
+        <v>0.07313942909240723</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.05571293830871582</v>
+        <v>0.0938723087310791</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.05300021171569824</v>
+        <v>0.09292268753051758</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.04604911804199219</v>
+        <v>0.06609153747558594</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.04700803756713867</v>
+        <v>0.08100128173828125</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.04698634147644043</v>
+        <v>0.07967948913574219</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.04551386833190918</v>
+        <v>0.07178735733032227</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.0449988842010498</v>
+        <v>0.0740504264831543</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.07750964164733887</v>
+        <v>0.0881345272064209</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.04951715469360352</v>
+        <v>0.09102416038513184</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.0735163688659668</v>
+        <v>0.08591818809509277</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.04599928855895996</v>
+        <v>0.07361221313476562</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.04698276519775391</v>
+        <v>0.08352112770080566</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.07390022277832031</v>
+        <v>0.08656096458435059</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.04795527458190918</v>
+        <v>0.07746529579162598</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.04652547836303711</v>
+        <v>0.07761240005493164</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.04870867729187012</v>
+        <v>0.08409428596496582</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.0436100959777832</v>
+        <v>0.08551788330078125</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.04578709602355957</v>
+        <v>0.07465982437133789</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.04500246047973633</v>
+        <v>0.0755918025970459</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.0480039119720459</v>
+        <v>0.07300186157226562</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.04604244232177734</v>
+        <v>0.07996034622192383</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.04358053207397461</v>
+        <v>0.07496881484985352</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.07635498046875</v>
+        <v>0.08235311508178711</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.05700016021728516</v>
+        <v>0.07451796531677246</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.04851293563842773</v>
+        <v>0.08195400238037109</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.04404568672180176</v>
+        <v>0.08354687690734863</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.04498529434204102</v>
+        <v>0.07243800163269043</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.06028461456298828</v>
+        <v>0.08255958557128906</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.0725858211517334</v>
+        <v>0.07349419593811035</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.0520017147064209</v>
+        <v>0.08455729484558105</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.04869651794433594</v>
+        <v>0.09002208709716797</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.04503345489501953</v>
+        <v>0.069976806640625</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.04520511627197266</v>
+        <v>0.07744598388671875</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.04648947715759277</v>
+        <v>0.08252072334289551</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.05004596710205078</v>
+        <v>0.07822775840759277</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.05559396743774414</v>
+        <v>0.08046650886535645</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.05400586128234863</v>
+        <v>0.08848261833190918</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.05104351043701172</v>
+        <v>0.07655501365661621</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.06852602958679199</v>
+        <v>0.07102012634277344</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.04805207252502441</v>
+        <v>0.07699418067932129</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.04699969291687012</v>
+        <v>0.08196115493774414</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.06156730651855469</v>
+        <v>0.07407093048095703</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.04806733131408691</v>
+        <v>0.07358503341674805</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.04722499847412109</v>
+        <v>0.07256627082824707</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.04532003402709961</v>
+        <v>0.08748388290405273</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.04900288581848145</v>
+        <v>0.07408809661865234</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.08251833915710449</v>
+        <v>0.07807087898254395</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.04851102828979492</v>
+        <v>0.0855708122253418</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.07355594635009766</v>
+        <v>0.08475637435913086</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.05305242538452148</v>
+        <v>0.07701444625854492</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.07957077026367188</v>
+        <v>0.07639503479003906</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.04711651802062988</v>
+        <v>0.09318256378173828</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.04799675941467285</v>
+        <v>0.08807778358459473</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.05401897430419922</v>
+        <v>0.07605624198913574</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.06765151023864746</v>
+        <v>0.1007204055786133</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.04572582244873047</v>
+        <v>0.07445979118347168</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.04950618743896484</v>
+        <v>0.0850059986114502</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.07247138023376465</v>
+        <v>0.08106684684753418</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.07203030586242676</v>
+        <v>0.07652378082275391</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.04600048065185547</v>
+        <v>0.07309627532958984</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.07546687126159668</v>
+        <v>0.06481409072875977</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.05240225791931152</v>
+        <v>0.07769465446472168</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.04900288581848145</v>
+        <v>0.0816037654876709</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.04821562767028809</v>
+        <v>0.08357024192810059</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.04485726356506348</v>
+        <v>0.07355690002441406</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.04433631896972656</v>
+        <v>0.08527731895446777</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.0485537052154541</v>
+        <v>0.0680086612701416</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.07203006744384766</v>
+        <v>0.09526968002319336</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.05756664276123047</v>
+        <v>0.08358097076416016</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.04653525352478027</v>
+        <v>0.08461499214172363</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.04904508590698242</v>
+        <v>0.0734868049621582</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.04727602005004883</v>
+        <v>0.07951998710632324</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.04399991035461426</v>
+        <v>0.09252834320068359</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.05006885528564453</v>
+        <v>0.09686040878295898</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.04558944702148438</v>
+        <v>0.0770573616027832</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.04500222206115723</v>
+        <v>0.08205270767211914</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.05154204368591309</v>
+        <v>0.08662676811218262</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.04598259925842285</v>
+        <v>0.08852696418762207</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.0465233325958252</v>
+        <v>0.08868598937988281</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.04604268074035645</v>
+        <v>0.06452536582946777</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.04500412940979004</v>
+        <v>0.08316731452941895</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.07160329818725586</v>
+        <v>0.07846784591674805</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.0459592342376709</v>
+        <v>0.0890507698059082</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.07202482223510742</v>
+        <v>0.08443546295166016</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.04842257499694824</v>
+        <v>0.07911539077758789</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.04813790321350098</v>
+        <v>0.08627510070800781</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.05430936813354492</v>
+        <v>0.08155179023742676</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.04425978660583496</v>
+        <v>0.08541584014892578</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.04804325103759766</v>
+        <v>0.08362889289855957</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.04753470420837402</v>
+        <v>0.08309364318847656</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.06755471229553223</v>
+        <v>0.08350086212158203</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.0599970817565918</v>
+        <v>0.08719515800476074</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.04635000228881836</v>
+        <v>0.07556533813476562</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.06006956100463867</v>
+        <v>0.08452200889587402</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.05142498016357422</v>
+        <v>0.07361555099487305</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.04451799392700195</v>
+        <v>0.07329273223876953</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.04600238800048828</v>
+        <v>0.07607507705688477</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.04450011253356934</v>
+        <v>0.08119535446166992</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.0460045337677002</v>
+        <v>0.07854223251342773</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.05598711967468262</v>
+        <v>0.07655930519104004</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.05913329124450684</v>
+        <v>0.07809782028198242</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.0489966869354248</v>
+        <v>0.0950160026550293</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.04400014877319336</v>
+        <v>0.0736534595489502</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.0475153923034668</v>
+        <v>0.07374215126037598</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.04705142974853516</v>
+        <v>0.07249188423156738</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.05113387107849121</v>
+        <v>0.08654689788818359</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.04608917236328125</v>
+        <v>0.09094929695129395</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.07500624656677246</v>
+        <v>0.07156682014465332</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.04652929306030273</v>
+        <v>0.06841278076171875</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.04400801658630371</v>
+        <v>0.1413123607635498</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.04422140121459961</v>
+        <v>0.06956291198730469</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.0450742244720459</v>
+        <v>0.08251142501831055</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.04699301719665527</v>
+        <v>0.07852983474731445</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.07128524780273438</v>
+        <v>0.07551956176757812</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.04371738433837891</v>
+        <v>0.09009623527526855</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.04813146591186523</v>
+        <v>0.08100628852844238</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.0482337474822998</v>
+        <v>0.06954312324523926</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.04504156112670898</v>
+        <v>0.07566404342651367</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.05285811424255371</v>
+        <v>0.07622790336608887</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.05600523948669434</v>
+        <v>0.08055329322814941</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.0470433235168457</v>
+        <v>0.08748221397399902</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.0552980899810791</v>
+        <v>0.0680079460144043</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.07357358932495117</v>
+        <v>0.08755588531494141</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.0500342845916748</v>
+        <v>0.07996559143066406</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.04550480842590332</v>
+        <v>0.08356738090515137</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.04505133628845215</v>
+        <v>0.08299779891967773</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.04560661315917969</v>
+        <v>0.07646965980529785</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.04832601547241211</v>
+        <v>0.07545685768127441</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.04604387283325195</v>
+        <v>0.06759977340698242</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.04448437690734863</v>
+        <v>0.0798952579498291</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.04499483108520508</v>
+        <v>0.08511543273925781</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.0456085205078125</v>
+        <v>0.07939887046813965</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.04600620269775391</v>
+        <v>0.08035564422607422</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.0515134334564209</v>
+        <v>0.07199525833129883</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.04568791389465332</v>
+        <v>0.0739591121673584</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.04903435707092285</v>
+        <v>0.07996416091918945</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.04565072059631348</v>
+        <v>0.07757210731506348</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.04403281211853027</v>
+        <v>0.07252979278564453</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.07704639434814453</v>
+        <v>0.0830531120300293</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.04758167266845703</v>
+        <v>0.09102582931518555</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.04530763626098633</v>
+        <v>0.1001808643341064</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.04460287094116211</v>
+        <v>0.08400368690490723</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.04600262641906738</v>
+        <v>0.06457710266113281</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.0460357666015625</v>
+        <v>0.08551621437072754</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.04579496383666992</v>
+        <v>0.0895228385925293</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.0449984073638916</v>
+        <v>0.08652973175048828</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.04752063751220703</v>
+        <v>0.08607864379882812</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.04645991325378418</v>
+        <v>0.08650994300842285</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.04650974273681641</v>
+        <v>0.09200859069824219</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.07455730438232422</v>
+        <v>0.10648512840271</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.04600620269775391</v>
+        <v>0.08552789688110352</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.04774117469787598</v>
+        <v>0.0831916332244873</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.04508399963378906</v>
+        <v>0.08900594711303711</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.04500031471252441</v>
+        <v>0.0890657901763916</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.04713559150695801</v>
+        <v>0.09474730491638184</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.0464930534362793</v>
+        <v>0.08013153076171875</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.05750060081481934</v>
+        <v>0.06700420379638672</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.07451319694519043</v>
+        <v>0.09468698501586914</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.0469968318939209</v>
+        <v>0.08104562759399414</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.04851269721984863</v>
+        <v>0.07752370834350586</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.04500317573547363</v>
+        <v>0.1011941432952881</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.04499673843383789</v>
+        <v>0.07451701164245605</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.04751706123352051</v>
+        <v>0.07951116561889648</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.04699468612670898</v>
+        <v>0.09517741203308105</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.05405998229980469</v>
+        <v>0.08651590347290039</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.07955193519592285</v>
+        <v>0.08107542991638184</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.06066179275512695</v>
+        <v>0.07301759719848633</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.04413700103759766</v>
+        <v>0.06461143493652344</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.04456901550292969</v>
+        <v>0.07859086990356445</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.07553696632385254</v>
+        <v>0.08861398696899414</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.04700088500976562</v>
+        <v>0.06595373153686523</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.04754114151000977</v>
+        <v>0.08465170860290527</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.07450962066650391</v>
+        <v>0.07908940315246582</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.06223726272583008</v>
+        <v>0.07549071311950684</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.04961109161376953</v>
+        <v>0.07037234306335449</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.04552865028381348</v>
+        <v>0.06751537322998047</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.04503512382507324</v>
+        <v>0.07152247428894043</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.04858207702636719</v>
+        <v>0.07808327674865723</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.05595970153808594</v>
+        <v>0.08200526237487793</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.04751443862915039</v>
+        <v>0.08308529853820801</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.05056428909301758</v>
+        <v>0.07651901245117188</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.07295727729797363</v>
+        <v>0.08152198791503906</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.07297039031982422</v>
+        <v>0.08303380012512207</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.04562282562255859</v>
+        <v>0.07700538635253906</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.04809379577636719</v>
+        <v>0.08623290061950684</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.05905556678771973</v>
+        <v>0.08951783180236816</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.04365229606628418</v>
+        <v>0.07952070236206055</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.04700255393981934</v>
+        <v>0.08641982078552246</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.04511213302612305</v>
+        <v>0.1005198955535889</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.0469517707824707</v>
+        <v>0.0845179557800293</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.0449984073638916</v>
+        <v>0.07428240776062012</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.0451657772064209</v>
+        <v>0.08556056022644043</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.05098652839660645</v>
+        <v>0.06842541694641113</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.04742956161499023</v>
+        <v>0.08959269523620605</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.04599761962890625</v>
+        <v>0.08611631393432617</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.04751992225646973</v>
+        <v>0.08300280570983887</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.04755353927612305</v>
+        <v>0.07854199409484863</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.05700254440307617</v>
+        <v>0.07528877258300781</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.04650974273681641</v>
+        <v>0.08391427993774414</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.0449984073638916</v>
+        <v>0.08370757102966309</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.04686760902404785</v>
+        <v>0.07858800888061523</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.07329416275024414</v>
+        <v>0.08061337471008301</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.0429539680480957</v>
+        <v>0.07851123809814453</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.04951095581054688</v>
+        <v>0.08200883865356445</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.04803943634033203</v>
+        <v>0.0890047550201416</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.06399846076965332</v>
+        <v>0.08673191070556641</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.0542449951171875</v>
+        <v>0.0895533561706543</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.05204868316650391</v>
+        <v>0.07048654556274414</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.04704570770263672</v>
+        <v>0.08661532402038574</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.04561543464660645</v>
+        <v>0.08351516723632812</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.04500102996826172</v>
+        <v>0.07296204566955566</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.04955887794494629</v>
+        <v>0.09199810028076172</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.0590977668762207</v>
+        <v>0.08856320381164551</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.04799938201904297</v>
+        <v>0.08656454086303711</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.07218742370605469</v>
+        <v>0.09259557723999023</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.04796051979064941</v>
+        <v>0.08452367782592773</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.05399966239929199</v>
+        <v>0.09070086479187012</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.05956006050109863</v>
+        <v>0.0800926685333252</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.04511618614196777</v>
+        <v>0.07300138473510742</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.04599857330322266</v>
+        <v>0.0815434455871582</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.04551434516906738</v>
+        <v>0.07245135307312012</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.04399776458740234</v>
+        <v>0.08751630783081055</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.04610300064086914</v>
+        <v>0.09203290939331055</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.04699873924255371</v>
+        <v>0.1001787185668945</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.0456230640411377</v>
+        <v>0.08051609992980957</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.07455563545227051</v>
+        <v>0.09496712684631348</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.04599976539611816</v>
+        <v>0.09151339530944824</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.04651260375976562</v>
+        <v>0.09451198577880859</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.04705405235290527</v>
+        <v>0.08625292778015137</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.04604315757751465</v>
+        <v>0.09852409362792969</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.0465857982635498</v>
+        <v>0.09857606887817383</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.04697132110595703</v>
+        <v>0.1042957305908203</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.04451489448547363</v>
+        <v>0.07217907905578613</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.04599857330322266</v>
+        <v>0.08092975616455078</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.04505443572998047</v>
+        <v>0.07999157905578613</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.04595494270324707</v>
+        <v>0.08752799034118652</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.04883122444152832</v>
+        <v>0.08251547813415527</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.08151888847351074</v>
+        <v>0.07504057884216309</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.09950137138366699</v>
+        <v>0.07500195503234863</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.05950760841369629</v>
+        <v>0.08255457878112793</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.08252406120300293</v>
+        <v>0.09102582931518555</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.06050896644592285</v>
+        <v>0.1562700271606445</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.06101679801940918</v>
+        <v>0.087005615234375</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.05999350547790527</v>
+        <v>0.0806276798248291</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.06645035743713379</v>
+        <v>0.08452939987182617</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.08651280403137207</v>
+        <v>0.09160256385803223</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.06502771377563477</v>
+        <v>0.08160805702209473</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.06206417083740234</v>
+        <v>0.07100152969360352</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.06099724769592285</v>
+        <v>0.0880744457244873</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.07300734519958496</v>
+        <v>0.08571624755859375</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.07750916481018066</v>
+        <v>0.08951759338378906</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.04952502250671387</v>
+        <v>0.07450056076049805</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.05450820922851562</v>
+        <v>0.09755730628967285</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.04799556732177734</v>
+        <v>0.08759474754333496</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.05640077590942383</v>
+        <v>0.08796525001525879</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.05852890014648438</v>
+        <v>0.08659553527832031</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.0540010929107666</v>
+        <v>0.07437944412231445</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.04614615440368652</v>
+        <v>0.08058738708496094</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.04500079154968262</v>
+        <v>0.09562516212463379</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.05700349807739258</v>
+        <v>0.09752511978149414</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.0595247745513916</v>
+        <v>0.08551526069641113</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.04803061485290527</v>
+        <v>0.09851646423339844</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.08000540733337402</v>
+        <v>0.08350157737731934</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.06399393081665039</v>
+        <v>0.07254862785339355</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.05408263206481934</v>
+        <v>0.07735705375671387</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.04902291297912598</v>
+        <v>0.07762408256530762</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.05801010131835938</v>
+        <v>0.09460878372192383</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.04900550842285156</v>
+        <v>0.08963990211486816</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.05547499656677246</v>
+        <v>0.1085777282714844</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.05004286766052246</v>
+        <v>0.1051597595214844</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.04998493194580078</v>
+        <v>0.08799171447753906</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.05251836776733398</v>
+        <v>0.08475542068481445</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0.04899454116821289</v>
+        <v>0.07451438903808594</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.05650901794433594</v>
+        <v>0.08451199531555176</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.05116677284240723</v>
+        <v>0.07547211647033691</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.07102417945861816</v>
+        <v>0.08459663391113281</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.07601213455200195</v>
+        <v>0.08022594451904297</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.07099151611328125</v>
+        <v>0.08921957015991211</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.07450675964355469</v>
+        <v>0.09351491928100586</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.04651117324829102</v>
+        <v>0.08552289009094238</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.04699587821960449</v>
+        <v>0.08083081245422363</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.07172799110412598</v>
+        <v>0.08752846717834473</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.07611918449401855</v>
+        <v>0.07952332496643066</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.07622838020324707</v>
+        <v>0.08550310134887695</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.04856705665588379</v>
+        <v>0.0830070972442627</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.04932093620300293</v>
+        <v>0.076019287109375</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.04769563674926758</v>
+        <v>0.07951259613037109</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.04702425003051758</v>
+        <v>0.08351731300354004</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.04555726051330566</v>
+        <v>0.07621645927429199</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.04598307609558105</v>
+        <v>0.07357215881347656</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.04494881629943848</v>
+        <v>0.08551454544067383</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.043487548828125</v>
+        <v>0.09746599197387695</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.04499602317810059</v>
+        <v>0.09048318862915039</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.0736541748046875</v>
+        <v>0.09191679954528809</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.04751467704772949</v>
+        <v>0.07857251167297363</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.04299545288085938</v>
+        <v>0.0883023738861084</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.04663205146789551</v>
+        <v>0.06700015068054199</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>0.0459589958190918</v>
+        <v>0.09456658363342285</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.04504251480102539</v>
+        <v>0.08396434783935547</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.04351639747619629</v>
+        <v>0.08626961708068848</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.0480034351348877</v>
+        <v>0.06846976280212402</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.04564857482910156</v>
+        <v>0.0895841121673584</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.04400014877319336</v>
+        <v>0.07051420211791992</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.05308890342712402</v>
+        <v>0.07268524169921875</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.04500508308410645</v>
+        <v>0.08954477310180664</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.04600000381469727</v>
+        <v>0.08302164077758789</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.04379987716674805</v>
+        <v>0.0790560245513916</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.04503107070922852</v>
+        <v>0.08116006851196289</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.04852986335754395</v>
+        <v>0.07811403274536133</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.0469975471496582</v>
+        <v>0.08007240295410156</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.05100059509277344</v>
+        <v>0.06912684440612793</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.04814767837524414</v>
+        <v>0.07183504104614258</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.07542800903320312</v>
+        <v>0.0914456844329834</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.04395341873168945</v>
+        <v>0.100517749786377</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.04551029205322266</v>
+        <v>0.09587621688842773</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.04498887062072754</v>
+        <v>0.0938262939453125</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.04587125778198242</v>
+        <v>0.0785062313079834</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.04600667953491211</v>
+        <v>0.07850790023803711</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.04399967193603516</v>
+        <v>0.07895302772521973</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.04551386833190918</v>
+        <v>0.08472895622253418</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.04599475860595703</v>
+        <v>0.07908082008361816</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.04448819160461426</v>
+        <v>0.1014707088470459</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.04404902458190918</v>
+        <v>0.08986377716064453</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.07616996765136719</v>
+        <v>0.08660602569580078</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.07450056076049805</v>
+        <v>0.08455872535705566</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.04480457305908203</v>
+        <v>0.08901524543762207</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0.04699945449829102</v>
+        <v>0.06856679916381836</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.04810857772827148</v>
+        <v>0.08347463607788086</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>0.04501104354858398</v>
+        <v>0.0916290283203125</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0.04599881172180176</v>
+        <v>0.09452509880065918</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.0485069751739502</v>
+        <v>0.07850861549377441</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.06816244125366211</v>
+        <v>0.07960677146911621</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.0449984073638916</v>
+        <v>0.07801222801208496</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.04852581024169922</v>
+        <v>0.06502008438110352</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.04499578475952148</v>
+        <v>0.07432794570922852</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.04551076889038086</v>
+        <v>0.07947325706481934</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.04601836204528809</v>
+        <v>0.06700897216796875</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.06813335418701172</v>
+        <v>0.086517333984375</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.04752874374389648</v>
+        <v>0.07648348808288574</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>0.04504919052124023</v>
+        <v>0.09264659881591797</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.04505062103271484</v>
+        <v>0.08595657348632812</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.05256414413452148</v>
+        <v>0.07851314544677734</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.0479578971862793</v>
+        <v>0.08222579956054688</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.04453492164611816</v>
+        <v>0.07838129997253418</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0.04703664779663086</v>
+        <v>0.08951520919799805</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.04699969291687012</v>
+        <v>0.09122276306152344</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.0465092658996582</v>
+        <v>0.08751320838928223</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.05299735069274902</v>
+        <v>0.07740616798400879</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.04450750350952148</v>
+        <v>0.07951140403747559</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>0.04672574996948242</v>
+        <v>0.07917141914367676</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0.04800057411193848</v>
+        <v>0.09534239768981934</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0.04587674140930176</v>
+        <v>0.07255125045776367</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0.04695320129394531</v>
+        <v>0.0745234489440918</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>0.05431151390075684</v>
+        <v>0.07273745536804199</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0.04817914962768555</v>
+        <v>0.07751703262329102</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0.0450444221496582</v>
+        <v>0.0715174674987793</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0.04803943634033203</v>
+        <v>0.07600593566894531</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0.06851053237915039</v>
+        <v>0.07500696182250977</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.04799938201904297</v>
+        <v>0.07995343208312988</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>0.04550480842590332</v>
+        <v>0.08452272415161133</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0.04500555992126465</v>
+        <v>0.07600831985473633</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>0.04534316062927246</v>
+        <v>0.08751487731933594</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.07810688018798828</v>
+        <v>0.08552026748657227</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.0460362434387207</v>
+        <v>0.06957292556762695</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.04404258728027344</v>
+        <v>0.08452439308166504</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0.04746699333190918</v>
+        <v>0.07997465133666992</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.04804372787475586</v>
+        <v>0.07555770874023438</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0.04618477821350098</v>
+        <v>0.0745396614074707</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.0439910888671875</v>
+        <v>0.08120417594909668</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0.04559874534606934</v>
+        <v>0.09112763404846191</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0.04652047157287598</v>
+        <v>0.07724761962890625</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.04499959945678711</v>
+        <v>0.09560728073120117</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.04553318023681641</v>
+        <v>0.07805943489074707</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0.04499936103820801</v>
+        <v>0.08760786056518555</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0.04552173614501953</v>
+        <v>0.08252406120300293</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>0.04551005363464355</v>
+        <v>0.09515094757080078</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0.06899333000183105</v>
+        <v>0.07306194305419922</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0.04751086235046387</v>
+        <v>0.09315299987792969</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0.04852890968322754</v>
+        <v>0.1020359992980957</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0.04395556449890137</v>
+        <v>0.08402490615844727</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0.07545685768127441</v>
+        <v>0.09255719184875488</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>0.0494844913482666</v>
+        <v>0.09960627555847168</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.0480048656463623</v>
+        <v>0.08961725234985352</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>0.04958319664001465</v>
+        <v>0.06799936294555664</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0.05550909042358398</v>
+        <v>0.08796215057373047</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>0.04802441596984863</v>
+        <v>0.07679843902587891</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.04402041435241699</v>
+        <v>0.09226584434509277</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.04422569274902344</v>
+        <v>0.07709980010986328</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0.0491790771484375</v>
+        <v>0.1021034717559814</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.04649496078491211</v>
+        <v>0.09061312675476074</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.04500365257263184</v>
+        <v>0.09656739234924316</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.04452037811279297</v>
+        <v>0.0815582275390625</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0.04499530792236328</v>
+        <v>0.06654191017150879</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>0.04450416564941406</v>
+        <v>0.06661462783813477</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0.04602694511413574</v>
+        <v>0.08251762390136719</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.04600358009338379</v>
+        <v>0.07054543495178223</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.04451179504394531</v>
+        <v>0.08751177787780762</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>0.04795360565185547</v>
+        <v>0.07796859741210938</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0.04551291465759277</v>
+        <v>0.07500529289245605</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>0.04395270347595215</v>
+        <v>0.07461667060852051</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0.04553842544555664</v>
+        <v>0.09300470352172852</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0.07356023788452148</v>
+        <v>0.08499789237976074</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0.04503917694091797</v>
+        <v>0.0665130615234375</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>0.06459856033325195</v>
+        <v>0.07509517669677734</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0.04651355743408203</v>
+        <v>0.0900418758392334</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>0.05402636528015137</v>
+        <v>0.07901191711425781</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.0449521541595459</v>
+        <v>0.08548307418823242</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>0.04601025581359863</v>
+        <v>0.07951474189758301</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0.04800081253051758</v>
+        <v>0.08289432525634766</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.04581069946289062</v>
+        <v>0.09852480888366699</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0.07251310348510742</v>
+        <v>0.09300708770751953</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.04595422744750977</v>
+        <v>0.0735163688659668</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0.06953692436218262</v>
+        <v>0.08251619338989258</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0.04567980766296387</v>
+        <v>0.07653951644897461</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0.04568004608154297</v>
+        <v>0.07765626907348633</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0.04751992225646973</v>
+        <v>0.08726668357849121</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.0449976921081543</v>
+        <v>0.07511448860168457</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.04351305961608887</v>
+        <v>0.08960556983947754</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0.04522991180419922</v>
+        <v>0.09146571159362793</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.04645919799804688</v>
+        <v>0.08085513114929199</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.04506325721740723</v>
+        <v>0.07084870338439941</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.04500126838684082</v>
+        <v>0.07556271553039551</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.05257034301757812</v>
+        <v>0.09422922134399414</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0.05746865272521973</v>
+        <v>0.07899999618530273</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0.04612445831298828</v>
+        <v>0.06630802154541016</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0.04404830932617188</v>
+        <v>0.0797114372253418</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0.04568004608154297</v>
+        <v>0.08662128448486328</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>0.04952692985534668</v>
+        <v>0.07642412185668945</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0.04497170448303223</v>
+        <v>0.0928962230682373</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0.04399824142456055</v>
+        <v>0.07927250862121582</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.04636788368225098</v>
+        <v>0.06600379943847656</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0.07551312446594238</v>
+        <v>0.08751606941223145</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.0439455509185791</v>
+        <v>0.08400583267211914</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>0.07451057434082031</v>
+        <v>0.09751248359680176</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.05650877952575684</v>
+        <v>0.09604477882385254</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.04499435424804688</v>
+        <v>0.0714414119720459</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.07154083251953125</v>
+        <v>0.0745551586151123</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>0.04751443862915039</v>
+        <v>0.07895517349243164</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0.04799842834472656</v>
+        <v>0.08697605133056641</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0.04604673385620117</v>
+        <v>0.08448123931884766</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0.04548835754394531</v>
+        <v>0.0710289478302002</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.04700231552124023</v>
+        <v>0.07959866523742676</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.04753255844116211</v>
+        <v>0.07556843757629395</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.07156181335449219</v>
+        <v>0.07808184623718262</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.04603338241577148</v>
+        <v>0.08596014976501465</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>0.04658722877502441</v>
+        <v>0.09114551544189453</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.0439293384552002</v>
+        <v>0.08314204216003418</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.04551982879638672</v>
+        <v>0.07651543617248535</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.04558372497558594</v>
+        <v>0.08047318458557129</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0.05537676811218262</v>
+        <v>0.08060073852539062</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0.07452058792114258</v>
+        <v>0.08156228065490723</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.04448103904724121</v>
+        <v>0.08757543563842773</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.0469505786895752</v>
+        <v>0.08851766586303711</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.05558180809020996</v>
+        <v>0.08600163459777832</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.04399776458740234</v>
+        <v>0.08253049850463867</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.04594087600708008</v>
+        <v>0.09451508522033691</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.04651641845703125</v>
+        <v>0.08403396606445312</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.04546093940734863</v>
+        <v>0.08309626579284668</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.0665132999420166</v>
+        <v>0.0766913890838623</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.04761815071105957</v>
+        <v>0.08396172523498535</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.04735469818115234</v>
+        <v>0.08711528778076172</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.0445101261138916</v>
+        <v>0.08820915222167969</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0.0460050106048584</v>
+        <v>0.08777093887329102</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>0.04821252822875977</v>
+        <v>0.07262992858886719</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0.0458838939666748</v>
+        <v>0.07702207565307617</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.04400062561035156</v>
+        <v>0.07400417327880859</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0.04648280143737793</v>
+        <v>0.0984337329864502</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>0.04704976081848145</v>
+        <v>0.09448719024658203</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.0459904670715332</v>
+        <v>0.09165263175964355</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>0.04350399971008301</v>
+        <v>0.08456850051879883</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>0.04607510566711426</v>
+        <v>0.09259438514709473</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>0.04951381683349609</v>
+        <v>0.08299851417541504</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0.04505157470703125</v>
+        <v>0.07346105575561523</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>0.04415178298950195</v>
+        <v>0.07548642158508301</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>0.06605386734008789</v>
+        <v>0.09781312942504883</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>0.04651975631713867</v>
+        <v>0.08961820602416992</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.04353690147399902</v>
+        <v>0.07552051544189453</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.04604601860046387</v>
+        <v>0.09100437164306641</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.04595446586608887</v>
+        <v>0.07851314544677734</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.04655051231384277</v>
+        <v>0.08452320098876953</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.04800128936767578</v>
+        <v>0.0870671272277832</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.04401636123657227</v>
+        <v>0.09406614303588867</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.04600620269775391</v>
+        <v>0.09460258483886719</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>0.04585123062133789</v>
+        <v>0.09057044982910156</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.04662990570068359</v>
+        <v>0.0804903507232666</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>0.04582023620605469</v>
+        <v>0.08350872993469238</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.07413935661315918</v>
+        <v>0.1020998954772949</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>0.07508087158203125</v>
+        <v>0.07537055015563965</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>0.04495978355407715</v>
+        <v>0.08199405670166016</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>0.04489874839782715</v>
+        <v>0.09454703330993652</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.04655790328979492</v>
+        <v>0.08625388145446777</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.04602503776550293</v>
+        <v>0.07551670074462891</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>0.07360720634460449</v>
+        <v>0.08651351928710938</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0.04451322555541992</v>
+        <v>0.08511066436767578</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.0469968318939209</v>
+        <v>0.0930781364440918</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0.04606175422668457</v>
+        <v>0.07000541687011719</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0.06862735748291016</v>
+        <v>0.09847617149353027</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0.04583311080932617</v>
+        <v>0.09647035598754883</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>0.04651021957397461</v>
+        <v>0.08656859397888184</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>0.04400229454040527</v>
+        <v>0.07547926902770996</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>0.04599833488464355</v>
+        <v>0.07856321334838867</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.05326151847839355</v>
+        <v>0.09166169166564941</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>0.04699850082397461</v>
+        <v>0.0669560432434082</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>0.04459214210510254</v>
+        <v>0.07159852981567383</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0.04438996315002441</v>
+        <v>0.09157419204711914</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.04600071907043457</v>
+        <v>0.07156181335449219</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.05870962142944336</v>
+        <v>0.06844115257263184</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>0.04685783386230469</v>
+        <v>0.08047890663146973</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.0447227954864502</v>
+        <v>0.08328700065612793</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.0755164623260498</v>
+        <v>0.07405686378479004</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>0.04799962043762207</v>
+        <v>0.0730595588684082</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>0.07299947738647461</v>
+        <v>0.07913398742675781</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>0.04523801803588867</v>
+        <v>0.08633065223693848</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>0.05700421333312988</v>
+        <v>0.07896256446838379</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.04799342155456543</v>
+        <v>0.1271736621856689</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0.07651400566101074</v>
+        <v>0.09022140502929688</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.0583491325378418</v>
+        <v>0.08903145790100098</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>0.05000209808349609</v>
+        <v>0.08446979522705078</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>0.04778671264648438</v>
+        <v>0.07955718040466309</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>0.04468059539794922</v>
+        <v>0.08356142044067383</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>0.04700112342834473</v>
+        <v>0.0850226879119873</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>0.04565048217773438</v>
+        <v>0.07762050628662109</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>0.04299354553222656</v>
+        <v>0.0740509033203125</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0.04364800453186035</v>
+        <v>0.08696532249450684</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>0.04555964469909668</v>
+        <v>0.09764528274536133</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0.04599809646606445</v>
+        <v>0.09047126770019531</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.0455012321472168</v>
+        <v>0.08951544761657715</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0.04500007629394531</v>
+        <v>0.07990860939025879</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0.07451367378234863</v>
+        <v>0.08978104591369629</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.04823613166809082</v>
+        <v>0.07700634002685547</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.0449976921081543</v>
+        <v>0.09551143646240234</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.04450774192810059</v>
+        <v>0.08052229881286621</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.06252336502075195</v>
+        <v>0.08145046234130859</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.07704281806945801</v>
+        <v>0.08255600929260254</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.05499505996704102</v>
+        <v>0.07705473899841309</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>0.04551529884338379</v>
+        <v>0.07754826545715332</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>0.05601072311401367</v>
+        <v>0.0924680233001709</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>0.04899883270263672</v>
+        <v>0.08809256553649902</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.0455322265625</v>
+        <v>0.08956599235534668</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.04699516296386719</v>
+        <v>0.08304619789123535</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.07660317420959473</v>
+        <v>0.07403826713562012</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>0.04415440559387207</v>
+        <v>0.08399581909179688</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>0.04395508766174316</v>
+        <v>0.07884788513183594</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>0.04613018035888672</v>
+        <v>0.08810806274414062</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0.04630112648010254</v>
+        <v>0.08054614067077637</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>0.04399752616882324</v>
+        <v>0.09055209159851074</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>0.04531383514404297</v>
+        <v>0.07000398635864258</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>0.05393385887145996</v>
+        <v>0.06995916366577148</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0.04600763320922852</v>
+        <v>0.07648134231567383</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.04456925392150879</v>
+        <v>0.08747673034667969</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.04914212226867676</v>
+        <v>0.08345556259155273</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0.04847931861877441</v>
+        <v>0.08265233039855957</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>0.04595708847045898</v>
+        <v>0.09708857536315918</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>0.04414510726928711</v>
+        <v>0.09450054168701172</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>0.04547929763793945</v>
+        <v>0.07392358779907227</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>0.05499482154846191</v>
+        <v>0.07404685020446777</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>0.0456092357635498</v>
+        <v>0.09311532974243164</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>0.04500246047973633</v>
+        <v>0.09122562408447266</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>0.04459953308105469</v>
+        <v>0.08939695358276367</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>0.04858160018920898</v>
+        <v>0.09060144424438477</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>0.0479896068572998</v>
+        <v>0.08830142021179199</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>0.04418635368347168</v>
+        <v>0.09962344169616699</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>0.05796217918395996</v>
+        <v>0.0769953727722168</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>0.04699444770812988</v>
+        <v>0.06535553932189941</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0.04361653327941895</v>
+        <v>0.08848118782043457</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>0.05465865135192871</v>
+        <v>0.08548521995544434</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>0.04354357719421387</v>
+        <v>0.09157133102416992</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>0.04694509506225586</v>
+        <v>0.08560585975646973</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>0.04499983787536621</v>
+        <v>0.06671667098999023</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>0.05244827270507812</v>
+        <v>0.07695960998535156</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>0.04700016975402832</v>
+        <v>0.088531494140625</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>0.0755162239074707</v>
+        <v>0.06529092788696289</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>0.0435492992401123</v>
+        <v>0.09419035911560059</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>0.04500079154968262</v>
+        <v>0.07056403160095215</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.0445866584777832</v>
+        <v>0.08056735992431641</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>0.0460052490234375</v>
+        <v>0.07551813125610352</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>0.04600191116333008</v>
+        <v>0.09250450134277344</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>0.04451513290405273</v>
+        <v>0.1050972938537598</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0.0460655689239502</v>
+        <v>0.0823369026184082</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>0.0472414493560791</v>
+        <v>0.1026360988616943</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>0.04400086402893066</v>
+        <v>0.08025836944580078</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0.07495617866516113</v>
+        <v>0.0835726261138916</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>0.04750919342041016</v>
+        <v>0.07896161079406738</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>0.04706931114196777</v>
+        <v>0.08748078346252441</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>0.04398465156555176</v>
+        <v>0.08117508888244629</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>0.05603575706481934</v>
+        <v>0.09160923957824707</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>0.04603838920593262</v>
+        <v>0.07752490043640137</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>0.05518341064453125</v>
+        <v>0.09047365188598633</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.04489755630493164</v>
+        <v>0.09951543807983398</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>0.04799985885620117</v>
+        <v>0.07951498031616211</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>0.04653358459472656</v>
+        <v>0.08613300323486328</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>0.04500031471252441</v>
+        <v>0.08513402938842773</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>0.04550981521606445</v>
+        <v>0.08956241607666016</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>0.0460052490234375</v>
+        <v>0.08856320381164551</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>0.04999947547912598</v>
+        <v>0.09046840667724609</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>0.04651427268981934</v>
+        <v>0.08604288101196289</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>0.04400110244750977</v>
+        <v>0.1085164546966553</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>0.04651165008544922</v>
+        <v>0.09651827812194824</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>0.04951238632202148</v>
+        <v>0.08956480026245117</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>0.04391837120056152</v>
+        <v>0.1005642414093018</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>0.04568648338317871</v>
+        <v>0.1057565212249756</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>0.04595613479614258</v>
+        <v>0.08265328407287598</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>0.05955600738525391</v>
+        <v>0.09047389030456543</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>0.04656648635864258</v>
+        <v>0.08566856384277344</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>0.04399967193603516</v>
+        <v>0.08100628852844238</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>0.04660701751708984</v>
+        <v>0.0869603157043457</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>0.04803276062011719</v>
+        <v>0.08752965927124023</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>0.04551839828491211</v>
+        <v>0.09047174453735352</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>0.07313060760498047</v>
+        <v>0.09213662147521973</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>0.0490717887878418</v>
+        <v>0.1045591831207275</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>0.04603672027587891</v>
+        <v>0.09248709678649902</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>0.04569530487060547</v>
+        <v>0.08061790466308594</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.04395270347595215</v>
+        <v>0.09674382209777832</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>0.04598832130432129</v>
+        <v>0.0874943733215332</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>0.04604053497314453</v>
+        <v>0.08859825134277344</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>0.04355978965759277</v>
+        <v>0.06841182708740234</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>0.04754543304443359</v>
+        <v>0.08777189254760742</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>0.0492398738861084</v>
+        <v>0.09064865112304688</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>0.04459738731384277</v>
+        <v>0.07431149482727051</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>0.05604457855224609</v>
+        <v>0.08662295341491699</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>0.0749969482421875</v>
+        <v>0.08501005172729492</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.04659461975097656</v>
+        <v>0.07565999031066895</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.07251453399658203</v>
+        <v>0.07604551315307617</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>0.0479741096496582</v>
+        <v>0.0908505916595459</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0.04659509658813477</v>
+        <v>0.07266044616699219</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>0.04659056663513184</v>
+        <v>0.08125495910644531</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0.04593586921691895</v>
+        <v>0.09046792984008789</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>0.0445101261138916</v>
+        <v>0.0695796012878418</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>0.04504013061523438</v>
+        <v>0.08165764808654785</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>0.04450464248657227</v>
+        <v>0.07199907302856445</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>0.04303884506225586</v>
+        <v>0.07000446319580078</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>0.04399871826171875</v>
+        <v>0.08811068534851074</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>0.04852461814880371</v>
+        <v>0.0905146598815918</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>0.04703783988952637</v>
+        <v>0.07051324844360352</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>0.04355478286743164</v>
+        <v>0.06690382957458496</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>0.05092859268188477</v>
+        <v>0.07450699806213379</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.04600691795349121</v>
+        <v>0.07556390762329102</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>0.04464840888977051</v>
+        <v>0.09189033508300781</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>0.04400181770324707</v>
+        <v>0.09078717231750488</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>0.07399988174438477</v>
+        <v>0.1081421375274658</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0.04734039306640625</v>
+        <v>0.08662605285644531</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>0.04403400421142578</v>
+        <v>0.08460783958435059</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0.04753589630126953</v>
+        <v>0.08556318283081055</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>0.04499340057373047</v>
+        <v>0.08799958229064941</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>0.04526019096374512</v>
+        <v>0.06660079956054688</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.04557466506958008</v>
+        <v>0.06647467613220215</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.04465746879577637</v>
+        <v>0.1346330642700195</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.0460360050201416</v>
+        <v>0.07746791839599609</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>0.04499936103820801</v>
+        <v>0.07154440879821777</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>0.0445864200592041</v>
+        <v>0.08951377868652344</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>0.04393625259399414</v>
+        <v>0.0910944938659668</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0.07323431968688965</v>
+        <v>0.07831788063049316</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>0.04654669761657715</v>
+        <v>0.07705140113830566</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>0.04496359825134277</v>
+        <v>0.07895922660827637</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>0.04558491706848145</v>
+        <v>0.0922081470489502</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>0.07335948944091797</v>
+        <v>0.07905673980712891</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>0.04605412483215332</v>
+        <v>0.07860922813415527</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>0.0465242862701416</v>
+        <v>0.08865237236022949</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>0.04658055305480957</v>
+        <v>0.06995534896850586</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>0.08196115493774414</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>0.07237911224365234</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>0.07596659660339355</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>0.09967994689941406</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>0.08272385597229004</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>0.0749514102935791</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>0.08596324920654297</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>0.08151698112487793</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>0.09851861000061035</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>0.07992315292358398</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>0.1025948524475098</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>0.1105546951293945</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>0.09447622299194336</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>0.0834808349609375</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>0.07954931259155273</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>0.08756542205810547</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>0.08851885795593262</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>0.08959698677062988</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>0.08034586906433105</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>0.07647466659545898</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>0.08948302268981934</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>0.09005236625671387</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>0.1066100597381592</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>0.0915677547454834</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>0.09351515769958496</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>0.09638047218322754</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>0.1045303344726562</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>0.08155989646911621</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>0.1062064170837402</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>0.1053140163421631</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>0.08553004264831543</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>0.08352470397949219</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>0.09024333953857422</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>0.08596611022949219</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>0.07652640342712402</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>0.07953572273254395</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>0.08045482635498047</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>0.1007392406463623</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>0.08551836013793945</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>0.1063859462738037</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>0.09753036499023438</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>0.08451604843139648</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>0.09723734855651855</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>0.1114754676818848</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>0.09653401374816895</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>0.08500456809997559</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>0.08732819557189941</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>0.08452653884887695</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>0.09459137916564941</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>0.09654617309570312</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>0.08496356010437012</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>0.08106303215026855</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>0.08927774429321289</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>0.08651399612426758</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>0.07295346260070801</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>0.08518075942993164</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>0.11562180519104</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>0.08701634407043457</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>0.08751487731933594</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>0.06704974174499512</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>0.08052515983581543</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>0.07527899742126465</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>0.07969379425048828</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>0.08784031867980957</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>0.08651518821716309</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>0.08960700035095215</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>0.08892226219177246</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>0.08856940269470215</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>0.1044731140136719</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>0.09963631629943848</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>0.06659984588623047</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>0.05158185958862305</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>0.08565473556518555</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>0.1095271110534668</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>0.08657479286193848</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>0.09453368186950684</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>0.0945582389831543</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>0.08301305770874023</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>0.09350824356079102</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>0.1043615341186523</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>0.09351897239685059</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>0.08751654624938965</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>0.09802603721618652</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>0.0975184440612793</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>0.1045184135437012</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>0.1014289855957031</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>0.1139867305755615</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>0.08710813522338867</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>0.1036136150360107</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>0.1156213283538818</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>0.1312375068664551</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>0.1038486957550049</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>0.141939640045166</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>0.1090250015258789</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>0.09751439094543457</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>0.07551908493041992</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>0.113520622253418</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>0.09551763534545898</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>0.07951211929321289</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>0.1055049896240234</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>0.1025152206420898</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>0.0975182056427002</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>0.09802055358886719</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>0.07951116561889648</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>0.1075143814086914</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>0.08200550079345703</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>0.1005148887634277</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>0.0939788818359375</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>0.0885627269744873</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>0.09719586372375488</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>0.09047126770019531</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>0.09865021705627441</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>0.100513219833374</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>0.1116478443145752</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>0.1100442409515381</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>0.1400604248046875</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>0.1020674705505371</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>0.08704447746276855</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>0.0904700756072998</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>0.07496190071105957</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>0.07935500144958496</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>0.09452652931213379</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>0.09952020645141602</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>0.09343361854553223</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>0.08650493621826172</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>0.08351278305053711</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>0.07552671432495117</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>0.06661033630371094</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>0.0905308723449707</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>0.0666816234588623</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>0.08915328979492188</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>0.09125995635986328</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>0.07151556015014648</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>0.08011913299560547</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>0.07775545120239258</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>0.1020917892456055</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>0.08202409744262695</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>0.07700109481811523</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>0.07266998291015625</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>0.080474853515625</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>0.08847379684448242</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>0.0947270393371582</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>0.09275603294372559</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>0.1047747135162354</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>0.09352207183837891</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>0.09063458442687988</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>0.09056925773620605</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>0.08266401290893555</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>0.09796261787414551</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>0.08956003189086914</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>0.08008503913879395</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>0.09161162376403809</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>0.08588194847106934</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>0.06752228736877441</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>0.09161758422851562</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>0.08147454261779785</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>0.1038341522216797</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>0.1054949760437012</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>0.09853100776672363</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>0.09252333641052246</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>0.08004999160766602</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>0.09517502784729004</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>0.0863652229309082</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>0.07456541061401367</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>0.08706903457641602</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>0.08296990394592285</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>0.07956695556640625</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>0.08447837829589844</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>0.1031274795532227</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>0.09352254867553711</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>0.08251810073852539</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>0.09352493286132812</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>0.09247612953186035</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>0.07955718040466309</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>0.09826827049255371</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>0.0935518741607666</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>0.07947731018066406</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>0.08052492141723633</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>0.07652664184570312</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>0.07855987548828125</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>0.09505534172058105</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>0.07548689842224121</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>0.1165735721588135</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>0.1201767921447754</v>
       </c>
     </row>
   </sheetData>

--- a/log/time_log.xlsx
+++ b/log/time_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A394"/>
+  <dimension ref="A1:A1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,1967 +430,6122 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0565183162689209</v>
+        <v>0.1010420322418213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.06052041053771973</v>
+        <v>0.07031941413879395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05809950828552246</v>
+        <v>0.05464386940002441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.05299568176269531</v>
+        <v>0.04499912261962891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05119013786315918</v>
+        <v>0.05098915100097656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.05599308013916016</v>
+        <v>0.04852294921875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05257272720336914</v>
+        <v>0.0500032901763916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.05266189575195312</v>
+        <v>0.06999731063842773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.07629776000976562</v>
+        <v>0.04316616058349609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05299210548400879</v>
+        <v>0.04800748825073242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.05156397819519043</v>
+        <v>0.0469963550567627</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.05209088325500488</v>
+        <v>0.04453229904174805</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.05204081535339355</v>
+        <v>0.05500125885009766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.05412936210632324</v>
+        <v>0.05199384689331055</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.05301260948181152</v>
+        <v>0.07494854927062988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.05895304679870605</v>
+        <v>0.04500365257263184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.05352067947387695</v>
+        <v>0.05099916458129883</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.05361413955688477</v>
+        <v>0.05163097381591797</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.06518721580505371</v>
+        <v>0.06065869331359863</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05003070831298828</v>
+        <v>0.04804396629333496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.04957771301269531</v>
+        <v>0.07947945594787598</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.05095171928405762</v>
+        <v>0.0455780029296875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.05453276634216309</v>
+        <v>0.04395723342895508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.05300593376159668</v>
+        <v>0.04710197448730469</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.06400132179260254</v>
+        <v>0.04498529434204102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.05454850196838379</v>
+        <v>0.04400634765625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.05446600914001465</v>
+        <v>0.04751682281494141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.05295395851135254</v>
+        <v>0.06077194213867188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0555117130279541</v>
+        <v>0.04644942283630371</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.06211376190185547</v>
+        <v>0.04405331611633301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.05095911026000977</v>
+        <v>0.04698920249938965</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.0489962100982666</v>
+        <v>0.05255746841430664</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.07061147689819336</v>
+        <v>0.05704998970031738</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0545501708984375</v>
+        <v>0.0509955883026123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.05299687385559082</v>
+        <v>0.08528900146484375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.05982398986816406</v>
+        <v>0.06837081909179688</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.05184435844421387</v>
+        <v>0.04952836036682129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.05293393135070801</v>
+        <v>0.04899024963378906</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.07579684257507324</v>
+        <v>0.04651880264282227</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.04855990409851074</v>
+        <v>0.04746556282043457</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.05305004119873047</v>
+        <v>0.06195425987243652</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.05452275276184082</v>
+        <v>0.07511448860168457</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.05059313774108887</v>
+        <v>0.04552197456359863</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.0610501766204834</v>
+        <v>0.04496121406555176</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.05199313163757324</v>
+        <v>0.05000448226928711</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.05351567268371582</v>
+        <v>0.0484771728515625</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.04799914360046387</v>
+        <v>0.05100321769714355</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.05151033401489258</v>
+        <v>0.05955767631530762</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05155777931213379</v>
+        <v>0.05014204978942871</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.05199933052062988</v>
+        <v>0.04498839378356934</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.05151867866516113</v>
+        <v>0.04995012283325195</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.0585324764251709</v>
+        <v>0.05151271820068359</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.08262133598327637</v>
+        <v>0.04895591735839844</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.05193948745727539</v>
+        <v>0.0460667610168457</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.05260372161865234</v>
+        <v>0.04901552200317383</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.06230282783508301</v>
+        <v>0.04899930953979492</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.05450534820556641</v>
+        <v>0.05256342887878418</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.05295538902282715</v>
+        <v>0.05300164222717285</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.05048012733459473</v>
+        <v>0.04695653915405273</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.0480039119720459</v>
+        <v>0.04756903648376465</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.05156683921813965</v>
+        <v>0.05503630638122559</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.05357122421264648</v>
+        <v>0.04600739479064941</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.05800628662109375</v>
+        <v>0.05056905746459961</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04800081253051758</v>
+        <v>0.06198906898498535</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.05251741409301758</v>
+        <v>0.05255746841430664</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.05295515060424805</v>
+        <v>0.04755973815917969</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0505974292755127</v>
+        <v>0.06200098991394043</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0505068302154541</v>
+        <v>0.06400513648986816</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.06500053405761719</v>
+        <v>0.0605778694152832</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.05099987983703613</v>
+        <v>0.04811334609985352</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.05051660537719727</v>
+        <v>0.05399894714355469</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0510413646697998</v>
+        <v>0.05048298835754395</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.0523993968963623</v>
+        <v>0.05351543426513672</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.05975103378295898</v>
+        <v>0.04899978637695312</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.04900646209716797</v>
+        <v>0.05650186538696289</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.0505378246307373</v>
+        <v>0.04651546478271484</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.05350399017333984</v>
+        <v>0.04995870590209961</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.05099964141845703</v>
+        <v>0.05028367042541504</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.0501406192779541</v>
+        <v>0.04700732231140137</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.05736398696899414</v>
+        <v>0.04503107070922852</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.08246231079101562</v>
+        <v>0.05633807182312012</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.05100107192993164</v>
+        <v>0.04999995231628418</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.05053257942199707</v>
+        <v>0.05008339881896973</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.05352282524108887</v>
+        <v>0.05761456489562988</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.06202101707458496</v>
+        <v>0.05000782012939453</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.04995512962341309</v>
+        <v>0.05100202560424805</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.04914402961730957</v>
+        <v>0.05652260780334473</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.05000185966491699</v>
+        <v>0.05601000785827637</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.05028200149536133</v>
+        <v>0.05599451065063477</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.05806517601013184</v>
+        <v>0.04851603507995605</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.05299901962280273</v>
+        <v>0.04800796508789062</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.07419466972351074</v>
+        <v>0.05595993995666504</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.06216907501220703</v>
+        <v>0.05257892608642578</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.05851292610168457</v>
+        <v>0.05600357055664062</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.05899357795715332</v>
+        <v>0.05304050445556641</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.05534553527832031</v>
+        <v>0.05352115631103516</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.06555914878845215</v>
+        <v>0.05503416061401367</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.05409359931945801</v>
+        <v>0.05195379257202148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.08451724052429199</v>
+        <v>0.04960823059082031</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.08551430702209473</v>
+        <v>0.05202317237854004</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.07951259613037109</v>
+        <v>0.04599905014038086</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.05204606056213379</v>
+        <v>0.04951786994934082</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.05298447608947754</v>
+        <v>0.05205321311950684</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.05058789253234863</v>
+        <v>0.05300211906433105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0489966869354248</v>
+        <v>0.04555869102478027</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.06054043769836426</v>
+        <v>0.04800248146057129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.05491018295288086</v>
+        <v>0.05799388885498047</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.0815119743347168</v>
+        <v>0.04572796821594238</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.04989457130432129</v>
+        <v>0.04504203796386719</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.05350637435913086</v>
+        <v>0.05452537536621094</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.04955744743347168</v>
+        <v>0.06152606010437012</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.07199621200561523</v>
+        <v>0.05652213096618652</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.05951976776123047</v>
+        <v>0.06499361991882324</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.05251312255859375</v>
+        <v>0.07199287414550781</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.05001282691955566</v>
+        <v>0.05450892448425293</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.04795002937316895</v>
+        <v>0.05553507804870605</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.05149102210998535</v>
+        <v>0.06951642036437988</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.05196666717529297</v>
+        <v>0.05900478363037109</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.04951357841491699</v>
+        <v>0.05899763107299805</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.05357718467712402</v>
+        <v>0.07852482795715332</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.0529932975769043</v>
+        <v>0.04852128028869629</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.05251145362854004</v>
+        <v>0.06201267242431641</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.05052900314331055</v>
+        <v>0.09854745864868164</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.05299949645996094</v>
+        <v>0.06551384925842285</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.06051039695739746</v>
+        <v>0.07600498199462891</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.04946613311767578</v>
+        <v>0.06199359893798828</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.06644058227539062</v>
+        <v>0.05550813674926758</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.05499744415283203</v>
+        <v>0.05511164665222168</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.05199503898620605</v>
+        <v>0.05400776863098145</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.05104184150695801</v>
+        <v>0.05499982833862305</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.05237436294555664</v>
+        <v>0.04851937294006348</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.06346678733825684</v>
+        <v>0.05401444435119629</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.04932880401611328</v>
+        <v>0.05199980735778809</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.0520012378692627</v>
+        <v>0.1075379848480225</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.06079697608947754</v>
+        <v>0.07799816131591797</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.05051255226135254</v>
+        <v>0.06999444961547852</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.04999756813049316</v>
+        <v>0.1050539016723633</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.05928421020507812</v>
+        <v>0.0740821361541748</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.05512022972106934</v>
+        <v>0.06399917602539062</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.05405282974243164</v>
+        <v>0.06699633598327637</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.0540316104888916</v>
+        <v>0.06152057647705078</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.05248165130615234</v>
+        <v>0.0551607608795166</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.06155586242675781</v>
+        <v>0.06959152221679688</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.0520169734954834</v>
+        <v>0.0695195198059082</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.05155539512634277</v>
+        <v>0.09852409362792969</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.04803657531738281</v>
+        <v>0.05099606513977051</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.08600902557373047</v>
+        <v>0.05751252174377441</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.05199241638183594</v>
+        <v>0.07024669647216797</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.04958057403564453</v>
+        <v>0.05651307106018066</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.05501413345336914</v>
+        <v>0.06800985336303711</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.05196404457092285</v>
+        <v>0.05629706382751465</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.05312275886535645</v>
+        <v>0.04752969741821289</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.05202889442443848</v>
+        <v>0.04996609687805176</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.05299830436706543</v>
+        <v>0.05904316902160645</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.08851838111877441</v>
+        <v>0.05752468109130859</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.0540623664855957</v>
+        <v>0.0676109790802002</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.05100226402282715</v>
+        <v>0.04696273803710938</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.05199813842773438</v>
+        <v>0.0508582592010498</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.05151462554931641</v>
+        <v>0.07046914100646973</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.06609821319580078</v>
+        <v>0.04800701141357422</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.05800104141235352</v>
+        <v>0.05599451065063477</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.07822585105895996</v>
+        <v>0.05621170997619629</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.06538748741149902</v>
+        <v>0.05051469802856445</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.05154824256896973</v>
+        <v>0.05799770355224609</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.05495786666870117</v>
+        <v>0.05000662803649902</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.05004072189331055</v>
+        <v>0.0615546703338623</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.05346155166625977</v>
+        <v>0.05800294876098633</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.05326986312866211</v>
+        <v>0.05599451065063477</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.05200076103210449</v>
+        <v>0.09452080726623535</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.08218789100646973</v>
+        <v>0.06208109855651855</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.05252456665039062</v>
+        <v>0.0625147819519043</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.04995250701904297</v>
+        <v>0.09153413772583008</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.06051349639892578</v>
+        <v>0.08451962471008301</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.08051228523254395</v>
+        <v>0.0475010871887207</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.07160830497741699</v>
+        <v>0.04755663871765137</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.05252766609191895</v>
+        <v>0.04716658592224121</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.06100082397460938</v>
+        <v>0.04800534248352051</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.053558349609375</v>
+        <v>0.05595302581787109</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.05545687675476074</v>
+        <v>0.04712677001953125</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.0513908863067627</v>
+        <v>0.05608630180358887</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.05100798606872559</v>
+        <v>0.0490262508392334</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.04734492301940918</v>
+        <v>0.04994416236877441</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.05299711227416992</v>
+        <v>0.0488739013671875</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.05051064491271973</v>
+        <v>0.04723763465881348</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.04952549934387207</v>
+        <v>0.07554268836975098</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.05041050910949707</v>
+        <v>0.04496049880981445</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.05355739593505859</v>
+        <v>0.04900050163269043</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.06451773643493652</v>
+        <v>0.05853128433227539</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.04596614837646484</v>
+        <v>0.04737520217895508</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.05428910255432129</v>
+        <v>0.04504537582397461</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.05362963676452637</v>
+        <v>0.08016705513000488</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.05599832534790039</v>
+        <v>0.04920244216918945</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.04852843284606934</v>
+        <v>0.04999995231628418</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.07043719291687012</v>
+        <v>0.06252002716064453</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.05401229858398438</v>
+        <v>0.05259418487548828</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.04799580574035645</v>
+        <v>0.07452797889709473</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.0551142692565918</v>
+        <v>0.0480189323425293</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.05099010467529297</v>
+        <v>0.05158066749572754</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.05999636650085449</v>
+        <v>0.07206559181213379</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.05464315414428711</v>
+        <v>0.04992890357971191</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.07264542579650879</v>
+        <v>0.06112122535705566</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.05209517478942871</v>
+        <v>0.07706451416015625</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.04999876022338867</v>
+        <v>0.05758261680603027</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.04626679420471191</v>
+        <v>0.05200314521789551</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.04999756813049316</v>
+        <v>0.06658315658569336</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.05151033401489258</v>
+        <v>0.04647064208984375</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.05651402473449707</v>
+        <v>0.04495501518249512</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.04922342300415039</v>
+        <v>0.06746792793273926</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.05213046073913574</v>
+        <v>0.06900715827941895</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.05250740051269531</v>
+        <v>0.06300640106201172</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.05600261688232422</v>
+        <v>0.06600499153137207</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.05158448219299316</v>
+        <v>0.0665287971496582</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.05452513694763184</v>
+        <v>0.04952454566955566</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.05000090599060059</v>
+        <v>0.04899978637695312</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.05342531204223633</v>
+        <v>0.06266093254089355</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.05650210380554199</v>
+        <v>0.0586395263671875</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.05094599723815918</v>
+        <v>0.04460430145263672</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.04951167106628418</v>
+        <v>0.0448760986328125</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.0460052490234375</v>
+        <v>0.07465147972106934</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.05799984931945801</v>
+        <v>0.04703593254089355</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.04763054847717285</v>
+        <v>0.04465103149414062</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.04900050163269043</v>
+        <v>0.04504227638244629</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.04795098304748535</v>
+        <v>0.06164216995239258</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.08451604843139648</v>
+        <v>0.04851317405700684</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.04707503318786621</v>
+        <v>0.0455935001373291</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.05795407295227051</v>
+        <v>0.0445716381072998</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.04750776290893555</v>
+        <v>0.0480039119720459</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.05346965789794922</v>
+        <v>0.04694938659667969</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.05099725723266602</v>
+        <v>0.04619765281677246</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.06739950180053711</v>
+        <v>0.04525279998779297</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.05247044563293457</v>
+        <v>0.05051827430725098</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.08203864097595215</v>
+        <v>0.04801511764526367</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.04899859428405762</v>
+        <v>0.04502034187316895</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.05538654327392578</v>
+        <v>0.04465985298156738</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.05051708221435547</v>
+        <v>0.0485374927520752</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.04900050163269043</v>
+        <v>0.04755949974060059</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.05002021789550781</v>
+        <v>0.04798984527587891</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.05207371711730957</v>
+        <v>0.04472041130065918</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.06499934196472168</v>
+        <v>0.05550956726074219</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.04620003700256348</v>
+        <v>0.05599355697631836</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.06361627578735352</v>
+        <v>0.04551792144775391</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.05095124244689941</v>
+        <v>0.04401087760925293</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.05856561660766602</v>
+        <v>0.04800319671630859</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.04811000823974609</v>
+        <v>0.04651212692260742</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.05002355575561523</v>
+        <v>0.07596087455749512</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.0521996021270752</v>
+        <v>0.04735398292541504</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.0522620677947998</v>
+        <v>0.04652190208435059</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.05949258804321289</v>
+        <v>0.06399822235107422</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.05100846290588379</v>
+        <v>0.05789399147033691</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.0525202751159668</v>
+        <v>0.06580615043640137</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.04895329475402832</v>
+        <v>0.04704427719116211</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.05152034759521484</v>
+        <v>0.07161593437194824</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.0485081672668457</v>
+        <v>0.0445556640625</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.05203413963317871</v>
+        <v>0.0469975471496582</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.04951000213623047</v>
+        <v>0.04853391647338867</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.05219340324401855</v>
+        <v>0.04568362236022949</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.05295658111572266</v>
+        <v>0.07100486755371094</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.04911375045776367</v>
+        <v>0.04699921607971191</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.05376362800598145</v>
+        <v>0.04729676246643066</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.050994873046875</v>
+        <v>0.04703736305236816</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.07055997848510742</v>
+        <v>0.04756712913513184</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.05571603775024414</v>
+        <v>0.07214927673339844</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.0449979305267334</v>
+        <v>0.05701589584350586</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.05155587196350098</v>
+        <v>0.04811286926269531</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.04942560195922852</v>
+        <v>0.04399371147155762</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.04899477958679199</v>
+        <v>0.05256009101867676</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.04857444763183594</v>
+        <v>0.07983231544494629</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.05414843559265137</v>
+        <v>0.04514145851135254</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.04604649543762207</v>
+        <v>0.04500102996826172</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.04850578308105469</v>
+        <v>0.05828475952148438</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.05095338821411133</v>
+        <v>0.04900145530700684</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.05141472816467285</v>
+        <v>0.05600118637084961</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.04846596717834473</v>
+        <v>0.04685783386230469</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.04799962043762207</v>
+        <v>0.05204129219055176</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.0515143871307373</v>
+        <v>0.05895352363586426</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.05155611038208008</v>
+        <v>0.04550957679748535</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.05054521560668945</v>
+        <v>0.04899859428405762</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.08077239990234375</v>
+        <v>0.06557655334472656</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.05320453643798828</v>
+        <v>0.05160379409790039</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.05865383148193359</v>
+        <v>0.04600000381469727</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.04999709129333496</v>
+        <v>0.04850482940673828</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.05766987800598145</v>
+        <v>0.04973697662353516</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.05409002304077148</v>
+        <v>0.04595470428466797</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.0479729175567627</v>
+        <v>0.0605165958404541</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.05135464668273926</v>
+        <v>0.05553126335144043</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.07651376724243164</v>
+        <v>0.04895758628845215</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.04802966117858887</v>
+        <v>0.05252885818481445</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.05961012840270996</v>
+        <v>0.06251645088195801</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.05761098861694336</v>
+        <v>0.04698038101196289</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.04800128936767578</v>
+        <v>0.07167410850524902</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.05903363227844238</v>
+        <v>0.04456901550292969</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.05063533782958984</v>
+        <v>0.07106256484985352</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.04600071907043457</v>
+        <v>0.0519874095916748</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.04799914360046387</v>
+        <v>0.04546451568603516</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.04846453666687012</v>
+        <v>0.05895352363586426</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.0520470142364502</v>
+        <v>0.05984926223754883</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.04628252983093262</v>
+        <v>0.05264163017272949</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.04938030242919922</v>
+        <v>0.04601502418518066</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.05103230476379395</v>
+        <v>0.04652118682861328</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.05152511596679688</v>
+        <v>0.04799342155456543</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.05659699440002441</v>
+        <v>0.05350828170776367</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.04695940017700195</v>
+        <v>0.04551315307617188</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.04759836196899414</v>
+        <v>0.05817842483520508</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.06461501121520996</v>
+        <v>0.07304048538208008</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.05499935150146484</v>
+        <v>0.04647421836853027</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.05064988136291504</v>
+        <v>0.05461668968200684</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.06763553619384766</v>
+        <v>0.05204892158508301</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.05000019073486328</v>
+        <v>0.05557036399841309</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.04851603507995605</v>
+        <v>0.06665825843811035</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.06061887741088867</v>
+        <v>0.07207655906677246</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.06203317642211914</v>
+        <v>0.07295465469360352</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.04500317573547363</v>
+        <v>0.0756535530090332</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.05202770233154297</v>
+        <v>0.04559993743896484</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.05199909210205078</v>
+        <v>0.04514861106872559</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.06413722038269043</v>
+        <v>0.06007838249206543</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.0465245246887207</v>
+        <v>0.04674339294433594</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.04998970031738281</v>
+        <v>0.04499912261962891</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.05356216430664062</v>
+        <v>0.04529404640197754</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.05072450637817383</v>
+        <v>0.0469975471496582</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.06892228126525879</v>
+        <v>0.04750990867614746</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.05195426940917969</v>
+        <v>0.04651069641113281</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.05248546600341797</v>
+        <v>0.04579854011535645</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.05658984184265137</v>
+        <v>0.04552507400512695</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.05599784851074219</v>
+        <v>0.07550954818725586</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.0532684326171875</v>
+        <v>0.04577231407165527</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.05252814292907715</v>
+        <v>0.04456925392150879</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.07303929328918457</v>
+        <v>0.0482780933380127</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.04900240898132324</v>
+        <v>0.04815912246704102</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.05612945556640625</v>
+        <v>0.06685805320739746</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.04904556274414062</v>
+        <v>0.04728460311889648</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.05111789703369141</v>
+        <v>0.06718826293945312</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.06343555450439453</v>
+        <v>0.06315970420837402</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.04805231094360352</v>
+        <v>0.04404425621032715</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.05551362037658691</v>
+        <v>0.07103061676025391</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.05002856254577637</v>
+        <v>0.04714179039001465</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.04999756813049316</v>
+        <v>0.04728102684020996</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.05251216888427734</v>
+        <v>0.04551267623901367</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.04852604866027832</v>
+        <v>0.05208873748779297</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.04799890518188477</v>
+        <v>0.04600048065185547</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.04857778549194336</v>
+        <v>0.04509425163269043</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.05752849578857422</v>
+        <v>0.04454851150512695</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.05100226402282715</v>
+        <v>0.0455629825592041</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.05149078369140625</v>
+        <v>0.0612797737121582</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.05758786201477051</v>
+        <v>0.04499220848083496</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.05199980735778809</v>
+        <v>0.04462647438049316</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.05056023597717285</v>
+        <v>0.04799723625183105</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.0520024299621582</v>
+        <v>0.04816484451293945</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.0489962100982666</v>
+        <v>0.04555749893188477</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.04653072357177734</v>
+        <v>0.04468154907226562</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.0500028133392334</v>
+        <v>0.0524904727935791</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.05851030349731445</v>
+        <v>0.06199312210083008</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.04914665222167969</v>
+        <v>0.0450437068939209</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.04987502098083496</v>
+        <v>0.04454922676086426</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.0517270565032959</v>
+        <v>0.04599666595458984</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.05151867866516113</v>
+        <v>0.05955100059509277</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.04800057411193848</v>
+        <v>0.05208539962768555</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.04751205444335938</v>
+        <v>0.05500411987304688</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.06951737403869629</v>
+        <v>0.06253361701965332</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.0500340461730957</v>
+        <v>0.06352066993713379</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.04951119422912598</v>
+        <v>0.04799485206604004</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.04654622077941895</v>
+        <v>0.04659247398376465</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.04900026321411133</v>
+        <v>0.05563497543334961</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.05051922798156738</v>
+        <v>0.05003929138183594</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.05000615119934082</v>
+        <v>0.04562211036682129</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.04900074005126953</v>
+        <v>0.04599666595458984</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.05651283264160156</v>
+        <v>0.04659581184387207</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.05852389335632324</v>
+        <v>0.04610085487365723</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.07800173759460449</v>
+        <v>0.05390787124633789</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.0470430850982666</v>
+        <v>0.07454824447631836</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.05051636695861816</v>
+        <v>0.04559135437011719</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.05200529098510742</v>
+        <v>0.07277727127075195</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.04951095581054688</v>
+        <v>0.04387354850769043</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.0515139102935791</v>
+        <v>0.04588222503662109</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.0540003776550293</v>
+        <v>0.04699826240539551</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.07251143455505371</v>
+        <v>0.05464673042297363</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.05356931686401367</v>
+        <v>0.04399752616882324</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.0835716724395752</v>
+        <v>0.04925394058227539</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.05100607872009277</v>
+        <v>0.05063796043395996</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.04903817176818848</v>
+        <v>0.04799699783325195</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.04751896858215332</v>
+        <v>0.04606819152832031</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.05895781517028809</v>
+        <v>0.04799747467041016</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.04999995231628418</v>
+        <v>0.04750919342041016</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.04933714866638184</v>
+        <v>0.04492974281311035</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.04700493812561035</v>
+        <v>0.04548525810241699</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.04851150512695312</v>
+        <v>0.0475163459777832</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.06414365768432617</v>
+        <v>0.04800009727478027</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.05400609970092773</v>
+        <v>0.05550956726074219</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.07599639892578125</v>
+        <v>0.04452657699584961</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.04851818084716797</v>
+        <v>0.05195498466491699</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.06907057762145996</v>
+        <v>0.04853057861328125</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.06714344024658203</v>
+        <v>0.04409503936767578</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.08151102066040039</v>
+        <v>0.04451489448547363</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.0500023365020752</v>
+        <v>0.07845234870910645</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.04700636863708496</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.04571628570556641</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.04464936256408691</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.04599547386169434</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.04751992225646973</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.05099201202392578</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.07205080986022949</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.04738903045654297</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.04800701141357422</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.04555797576904297</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.04552721977233887</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.05700087547302246</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.04751467704772949</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.0460054874420166</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.07515120506286621</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.04714536666870117</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.05200099945068359</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.04900264739990234</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.07358527183532715</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.04707765579223633</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.04620122909545898</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.0571901798248291</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.04895734786987305</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.04653358459472656</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.04652500152587891</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.05595588684082031</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.04655146598815918</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.04800248146057129</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.04599976539611816</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.05551266670227051</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.05704236030578613</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.04606318473815918</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.07319903373718262</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.04400062561035156</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.0575106143951416</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.04707098007202148</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.07299327850341797</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.04506492614746094</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.04802536964416504</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.04599165916442871</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.04453158378601074</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.04599952697753906</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.05350494384765625</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.05039000511169434</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.05677366256713867</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.04790043830871582</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.05401062965393066</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.05456423759460449</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.04443001747131348</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.04600024223327637</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.04555559158325195</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.04810667037963867</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.07300138473510742</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.06769037246704102</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.0731348991394043</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.04851746559143066</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.05299735069274902</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.0514984130859375</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.0525057315826416</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.05299949645996094</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.05251717567443848</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.05000400543212891</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.0469973087310791</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.0467979907989502</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.06796765327453613</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.04900240898132324</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.04393196105957031</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.04500007629394531</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.04651355743408203</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.04799890518188477</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.04831790924072266</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.04600644111633301</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.07710886001586914</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.04852294921875</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.06350922584533691</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.04968667030334473</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.04655694961547852</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.0465095043182373</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.04899787902832031</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.04853940010070801</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.04701328277587891</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.05075836181640625</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.04751086235046387</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.0469975471496582</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.05852079391479492</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.05632472038269043</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.04599738121032715</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.05665016174316406</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.05000567436218262</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.04651951789855957</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.04568958282470703</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.04507255554199219</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.04712033271789551</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.05556845664978027</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.07051205635070801</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.04551434516906738</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.0449974536895752</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.05606579780578613</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.04453516006469727</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.0480048656463623</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.04867959022521973</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.04499483108520508</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.04618144035339355</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.04500031471252441</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.04699873924255371</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.05256462097167969</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.04564690589904785</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.04652881622314453</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.07952690124511719</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.04599976539611816</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.04652762413024902</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0.05014300346374512</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0.04603099822998047</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0.04462933540344238</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>0.04895710945129395</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0.05655431747436523</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>0.05534482002258301</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.05504703521728516</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0.08000063896179199</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.04638195037841797</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.0455164909362793</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.05599403381347656</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.0576021671295166</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.07160830497741699</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0.04500222206115723</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.0451195240020752</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.06951689720153809</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.04492020606994629</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.04751753807067871</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.04802036285400391</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.04499936103820801</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0.04420733451843262</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0.0450432300567627</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.04952144622802734</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.0480496883392334</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.07295966148376465</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>0.04754495620727539</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0.04793787002563477</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.04604482650756836</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.04554128646850586</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0.04695272445678711</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.06715512275695801</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.04751992225646973</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.0555577278137207</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.04904437065124512</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.0541374683380127</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.05000209808349609</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.05124568939208984</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.04798054695129395</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0.06300663948059082</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.04778766632080078</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0.04913520812988281</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0.04470300674438477</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0.0574493408203125</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.0590519905090332</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0.05001974105834961</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.04546403884887695</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0.04800176620483398</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0.0475914478302002</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.04900240898132324</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.05351829528808594</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.04951381683349609</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0.04727506637573242</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.0453488826751709</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.0444338321685791</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.04501032829284668</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.04735302925109863</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.04799771308898926</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.04956912994384766</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.05995965003967285</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.04999065399169922</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.05551433563232422</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.06751871109008789</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0.04791402816772461</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0.04846835136413574</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.04602694511413574</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.0459895133972168</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0.04752564430236816</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.05495166778564453</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0.05025172233581543</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.05498456954956055</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.04840731620788574</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.0465085506439209</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.04948592185974121</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.05299925804138184</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0.06223249435424805</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0.05933070182800293</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.04665970802307129</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0.04842233657836914</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0.04788470268249512</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.04523086547851562</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0.04956650733947754</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.0469977855682373</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.05357789993286133</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0.0499570369720459</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0.04700493812561035</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0.04660844802856445</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>0.04538321495056152</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0.04954814910888672</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0.04695677757263184</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0.05155539512634277</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0.04340004920959473</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.04504203796386719</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0.05256271362304688</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0.04704928398132324</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0.0460357666015625</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0.04468488693237305</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0.04999852180480957</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0.04834628105163574</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0.06483292579650879</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0.04403567314147949</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0.04754829406738281</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0.04700946807861328</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0.04455852508544922</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0.04805636405944824</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>0.05433011054992676</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0.05332803726196289</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>0.04604482650756836</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0.046600341796875</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0.04750776290893555</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>0.05399870872497559</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>0.04660606384277344</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0.04417729377746582</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0.0466458797454834</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0.04695296287536621</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0.04595136642456055</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0.06002998352050781</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0.0575711727142334</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0.04704403877258301</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0.04567074775695801</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0.0449974536895752</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.0445711612701416</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0.05458259582519531</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0.05599737167358398</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0.04450178146362305</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0.04699802398681641</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0.04918384552001953</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0.04580187797546387</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0.04404306411743164</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>0.0459294319152832</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0.05100035667419434</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0.05838680267333984</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0.04431533813476562</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0.04595351219177246</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0.05559730529785156</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0.0442662239074707</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0.04504704475402832</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0.04787325859069824</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0.04699969291687012</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0.04951071739196777</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0.04500555992126465</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0.05032086372375488</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0.04804348945617676</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0.05200099945068359</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0.05007362365722656</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0.05552577972412109</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0.05414056777954102</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0.05052709579467773</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0.05509543418884277</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0.05498409271240234</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0.04759526252746582</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0.0492253303527832</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0.04455685615539551</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0.04796648025512695</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0.0479588508605957</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0.04757094383239746</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0.04502201080322266</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0.04560327529907227</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0.0460360050201416</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0.05299711227416992</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0.04633212089538574</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0.04699873924255371</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0.0465545654296875</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0.04604983329772949</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0.04495573043823242</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0.04653239250183105</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0.0489957332611084</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0.04552888870239258</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0.04703164100646973</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0.04808354377746582</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>0.04730105400085449</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0.05198574066162109</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>0.04451441764831543</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0.04995250701904297</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0.05999112129211426</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0.04774212837219238</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0.0449986457824707</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0.0463414192199707</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0.04600739479064941</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0.05599617958068848</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0.06207942962646484</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0.04696226119995117</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0.04895210266113281</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0.04551100730895996</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0.05484700202941895</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0.04951882362365723</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0.04801297187805176</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0.05003213882446289</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0.04460525512695312</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>0.04703855514526367</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0.05355572700500488</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0.04608869552612305</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>0.04463982582092285</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>0.04558897018432617</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0.0649573802947998</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0.05539107322692871</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0.04551959037780762</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0.05255246162414551</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0.04836940765380859</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0.04504871368408203</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0.04895591735839844</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0.04713201522827148</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0.04816269874572754</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0.0530698299407959</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0.05393433570861816</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0.04603362083435059</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0.06117630004882812</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0.0500948429107666</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0.04504013061523438</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0.04967260360717773</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0.0499570369720459</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>0.04658246040344238</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>0.04600429534912109</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>0.04799962043762207</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>0.04855608940124512</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0.0446927547454834</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>0.07251381874084473</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0.05160641670227051</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>0.04704380035400391</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>0.04518008232116699</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0.04602241516113281</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>0.04895949363708496</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>0.05051207542419434</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>0.05404210090637207</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>0.04510641098022461</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>0.0484774112701416</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>0.04599761962890625</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>0.04555940628051758</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>0.07005715370178223</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>0.05501127243041992</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>0.06351900100708008</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>0.04455041885375977</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>0.04900050163269043</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>0.04951906204223633</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>0.04495501518249512</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>0.04349923133850098</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>0.04622578620910645</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>0.04803943634033203</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>0.0476996898651123</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>0.0441586971282959</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>0.05263400077819824</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>0.04704499244689941</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>0.04473066329956055</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>0.04457807540893555</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>0.0470426082611084</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>0.04712009429931641</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>0.04695296287536621</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>0.05362343788146973</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>0.04851293563842773</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>0.04864645004272461</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>0.04554653167724609</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>0.06603360176086426</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>0.05099821090698242</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>0.0514984130859375</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>0.04604601860046387</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>0.06157350540161133</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>0.05195474624633789</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0.04664182662963867</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>0.04459142684936523</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>0.04488587379455566</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>0.05200314521789551</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>0.04963850975036621</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>0.04906678199768066</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>0.05351543426513672</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>0.0538489818572998</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>0.06548309326171875</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>0.04500126838684082</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0.04350781440734863</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0.04862499237060547</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0.04752683639526367</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>0.04500317573547363</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0.04559803009033203</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>0.04904842376708984</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>0.05217385292053223</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>0.04494166374206543</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>0.04703617095947266</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>0.04550862312316895</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>0.04726433753967285</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>0.04695224761962891</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>0.0450737476348877</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>0.04695463180541992</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>0.05213499069213867</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>0.05850791931152344</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>0.04499578475952148</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>0.05351567268371582</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>0.05161786079406738</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>0.04595279693603516</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0.04665613174438477</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>0.05000019073486328</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>0.05651426315307617</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>0.05251145362854004</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>0.04999828338623047</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>0.05055642127990723</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>0.05099701881408691</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>0.04699301719665527</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>0.05701637268066406</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>0.04699921607971191</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>0.04860377311706543</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>0.04556131362915039</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>0.05500125885009766</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>0.05153298377990723</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>0.04500484466552734</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>0.04451441764831543</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>0.04651761054992676</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>0.05100417137145996</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0.04651665687561035</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>0.04450607299804688</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>0.04558038711547852</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>0.05001115798950195</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>0.05003881454467773</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>0.05362486839294434</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>0.04804015159606934</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>0.04751276969909668</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>0.04365992546081543</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>0.04995560646057129</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>0.0462806224822998</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>0.04695010185241699</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>0.04450225830078125</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>0.05045986175537109</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0.06199884414672852</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>0.05342960357666016</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>0.04477834701538086</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>0.04695391654968262</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>0.06651830673217773</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>0.04902911186218262</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>0.0450446605682373</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>0.06154751777648926</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>0.0469970703125</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>0.06264901161193848</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>0.05251717567443848</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>0.05604386329650879</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>0.05500078201293945</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>0.04857730865478516</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>0.04435968399047852</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>0.04755544662475586</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>0.05507254600524902</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>0.04503583908081055</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0.04409909248352051</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>0.0479884147644043</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0.05451059341430664</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>0.04551267623901367</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>0.04836201667785645</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>0.05260610580444336</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>0.04834771156311035</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>0.0446624755859375</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>0.04557657241821289</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>0.04699945449829102</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0.04739642143249512</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>0.04918527603149414</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0.04849815368652344</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>0.04847240447998047</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>0.0469970703125</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>0.04560971260070801</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0.04479455947875977</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>0.04769396781921387</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>0.04800057411193848</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>0.04800009727478027</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0.04847002029418945</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>0.04799723625183105</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0.04765605926513672</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>0.04604387283325195</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0.0539853572845459</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0.047515869140625</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0.04803729057312012</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>0.04718589782714844</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0.05234932899475098</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>0.05495047569274902</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0.04836797714233398</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>0.04500794410705566</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>0.04554533958435059</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>0.04600954055786133</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>0.04799413681030273</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>0.04555082321166992</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>0.05298805236816406</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>0.05050873756408691</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>0.04843354225158691</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>0.04499673843383789</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>0.04455351829528809</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>0.04999732971191406</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>0.04947161674499512</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>0.05351066589355469</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>0.04501104354858398</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>0.04553937911987305</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>0.04899454116821289</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>0.05499768257141113</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>0.04952526092529297</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>0.0489964485168457</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>0.05057835578918457</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>0.04400062561035156</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>0.05002856254577637</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>0.04558467864990234</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>0.04999184608459473</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>0.04754924774169922</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>0.04761338233947754</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>0.04800128936767578</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>0.04756903648376465</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>0.04599952697753906</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>0.04555296897888184</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>0.04897308349609375</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>0.04900956153869629</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>0.05547213554382324</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>0.04398560523986816</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>0.06056618690490723</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>0.05456757545471191</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>0.04582095146179199</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>0.04851222038269043</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>0.0550084114074707</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>0.04799675941467285</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>0.04453277587890625</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>0.04495501518249512</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>0.04458045959472656</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>0.0625309944152832</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>0.04494786262512207</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>0.0444648265838623</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>0.04697966575622559</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>0.05051231384277344</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>0.04600739479064941</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>0.05076956748962402</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>0.04904031753540039</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>0.04799056053161621</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>0.04560947418212891</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>0.04500842094421387</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>0.06095409393310547</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>0.05458211898803711</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>0.05553340911865234</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>0.05000042915344238</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>0.05104708671569824</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>0.0470116138458252</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>0.04703712463378906</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>0.0445559024810791</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>0.05299806594848633</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>0.0576319694519043</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>0.07051801681518555</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>0.04996705055236816</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>0.05657029151916504</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>0.04805111885070801</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>0.05502724647521973</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>0.05216670036315918</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>0.04953098297119141</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>0.04499578475952148</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>0.04607534408569336</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>0.04696464538574219</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>0.04887008666992188</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>0.0449974536895752</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>0.05404567718505859</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>0.05310702323913574</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>0.05599427223205566</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>0.07300448417663574</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>0.05162930488586426</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>0.05334043502807617</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>0.05228018760681152</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>0.04451084136962891</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>0.04775404930114746</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>0.04703569412231445</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>0.04517221450805664</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>0.04399704933166504</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>0.04552721977233887</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>0.04796791076660156</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>0.05057954788208008</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>0.04507350921630859</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>0.05504512786865234</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>0.04836821556091309</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>0.04633045196533203</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>0.04456138610839844</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>0.04807758331298828</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>0.04999923706054688</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>0.05560803413391113</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>0.04900431632995605</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>0.06804275512695312</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>0.0680844783782959</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>0.05066275596618652</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>0.0629734992980957</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>0.04655981063842773</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>0.04612970352172852</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>0.04404115676879883</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>0.04513764381408691</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>0.0460047721862793</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>0.04518318176269531</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>0.04450583457946777</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>0.06606388092041016</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>0.04861092567443848</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>0.04500222206115723</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>0.04455733299255371</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>0.04495811462402344</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>0.05707144737243652</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>0.04704117774963379</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>0.04507780075073242</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>0.0514981746673584</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>0.04604744911193848</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>0.04495406150817871</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>0.06719565391540527</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>0.04900503158569336</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>0.04842305183410645</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>0.0438697338104248</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>0.0443108081817627</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>0.04669833183288574</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>0.04999876022338867</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>0.05051183700561523</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>0.04404878616333008</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>0.04401826858520508</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>0.04764747619628906</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>0.04499149322509766</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>0.0545494556427002</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>0.04671382904052734</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>0.04998373985290527</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>0.04455971717834473</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>0.04453349113464355</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>0.06017661094665527</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>0.04961061477661133</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>0.04799890518188477</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>0.06151413917541504</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>0.04640841484069824</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>0.05280542373657227</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>0.04919314384460449</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>0.05099678039550781</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>0.05910778045654297</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>0.05320167541503906</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>0.04958295822143555</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>0.04460978507995605</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>0.04605221748352051</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>0.05700850486755371</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>0.04555773735046387</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>0.04999184608459473</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>0.04640817642211914</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>0.04901003837585449</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>0.04542183876037598</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>0.06751561164855957</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>0.06460094451904297</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>0.04657506942749023</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>0.04569101333618164</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>0.05400586128234863</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>0.06227231025695801</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>0.3152332305908203</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>0.04599785804748535</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>0.04551482200622559</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>0.0469968318939209</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>0.0550839900970459</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>0.05653619766235352</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>0.05332326889038086</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>0.04656124114990234</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>0.04799938201904297</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>0.04850912094116211</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>0.04751849174499512</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>0.05401849746704102</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>0.0466768741607666</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>0.05105161666870117</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>0.04704642295837402</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>0.05647182464599609</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>0.06916904449462891</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>0.06299877166748047</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>0.06013083457946777</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>0.05856871604919434</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>0.0540165901184082</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>0.06099486351013184</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>0.06751465797424316</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>0.08052968978881836</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>0.05134034156799316</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>0.04900026321411133</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>0.05100154876708984</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>0.05350518226623535</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>0.04900455474853516</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>0.06251311302185059</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>0.05261087417602539</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>0.05800557136535645</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>0.05399823188781738</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>0.05263090133666992</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>0.05252552032470703</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>0.0619971752166748</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>0.05751895904541016</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>0.05648446083068848</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>0.05200409889221191</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>0.0489952564239502</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>0.0505375862121582</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>0.04800152778625488</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>0.06799983978271484</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>0.05303287506103516</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>0.04951024055480957</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>0.05194568634033203</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>0.05251836776733398</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>0.04900956153869629</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>0.05799722671508789</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>0.05551958084106445</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>0.05416631698608398</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>0.04799842834472656</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>0.05217742919921875</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>0.05051589012145996</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>0.04799699783325195</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>0.05255842208862305</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>0.05245518684387207</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>0.06196451187133789</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>0.07104778289794922</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>0.07004046440124512</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>0.04853439331054688</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>0.04900431632995605</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>0.05800008773803711</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>0.06056356430053711</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>0.05147886276245117</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>0.05504107475280762</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>0.05360746383666992</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>0.05151963233947754</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>0.05410909652709961</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>0.05858802795410156</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>0.05152368545532227</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>0.04999995231628418</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>0.05599522590637207</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>0.05551576614379883</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>0.04851937294006348</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>0.05500626564025879</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>0.05655646324157715</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>0.04956173896789551</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>0.05104637145996094</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>0.05757260322570801</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>0.06356287002563477</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>0.04900193214416504</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>0.05251169204711914</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>0.0566251277923584</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>0.05600953102111816</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>0.0469968318939209</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>0.08351826667785645</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>0.09053301811218262</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>0.07107686996459961</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>0.0780484676361084</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>0.129188060760498</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>0.07000017166137695</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>0.05555915832519531</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>0.05952191352844238</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>0.08053231239318848</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>0.0865180492401123</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>0.06651902198791504</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>0.07151985168457031</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>0.07651591300964355</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>0.05199575424194336</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>0.05851364135742188</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>0.06134390830993652</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>0.05301928520202637</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>0.06399440765380859</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>0.05452179908752441</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>0.04906654357910156</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>0.0641181468963623</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>0.05299472808837891</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>0.05033326148986816</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>0.05600881576538086</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>0.05699515342712402</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>0.05851840972900391</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>0.05607986450195312</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>0.04900050163269043</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>0.04851126670837402</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>0.05453181266784668</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>0.05299592018127441</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>0.05030035972595215</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>0.04850149154663086</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>0.05200099945068359</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>0.05077719688415527</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>0.04900193214416504</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>0.04799795150756836</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>0.05012845993041992</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>0.05011367797851562</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>0.04651403427124023</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>0.04565119743347168</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>0.04852747917175293</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>0.05019044876098633</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>0.04796338081359863</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>0.04704451560974121</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>0.04936432838439941</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>0.04833745956420898</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>0.04701805114746094</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>0.04714179039001465</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>0.04901409149169922</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>0.05682730674743652</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>0.05000829696655273</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>0.04591965675354004</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>0.05455493927001953</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>0.05304813385009766</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>0.04899501800537109</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>0.05064272880554199</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>0.04699945449829102</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>0.05935359001159668</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>0.04961204528808594</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>0.05100369453430176</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>0.04783773422241211</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>0.05229926109313965</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>0.04989075660705566</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>0.0515444278717041</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>0.05218720436096191</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>0.04800224304199219</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>0.05425453186035156</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>0.05239963531494141</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>0.04800009727478027</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>0.04952502250671387</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>0.05300760269165039</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>0.05398845672607422</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>0.0475161075592041</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>0.0470585823059082</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>0.0529172420501709</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>0.05855083465576172</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>0.04832243919372559</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>0.04799652099609375</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>0.05433797836303711</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>0.05911517143249512</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>0.04608058929443359</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>0.08451128005981445</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>0.07715439796447754</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>0.05052566528320312</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>0.04900026321411133</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>0.049560546875</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>0.04699134826660156</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>0.04604244232177734</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>0.05971932411193848</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>0.0595252513885498</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>0.0468294620513916</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>0.04651284217834473</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>0.04900765419006348</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>0.05200028419494629</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>0.04706406593322754</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>0.04674458503723145</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>0.04951667785644531</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>0.06705093383789062</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>0.04799842834472656</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>0.04795622825622559</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>0.05000805854797363</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>0.05327224731445312</v>
       </c>
     </row>
   </sheetData>

--- a/log/time_log.xlsx
+++ b/log/time_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1225"/>
+  <dimension ref="A1:A1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,6122 +430,5767 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1010420322418213</v>
+        <v>0.0625607967376709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.07031941413879395</v>
+        <v>0.06095790863037109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05464386940002441</v>
+        <v>0.05027675628662109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.04499912261962891</v>
+        <v>0.04913902282714844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05098915100097656</v>
+        <v>0.04399895668029785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04852294921875</v>
+        <v>0.04357767105102539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0500032901763916</v>
+        <v>0.06147503852844238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.06999731063842773</v>
+        <v>0.05499839782714844</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04316616058349609</v>
+        <v>0.04713344573974609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.04800748825073242</v>
+        <v>0.04600358009338379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0469963550567627</v>
+        <v>0.07099533081054688</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.04453229904174805</v>
+        <v>0.04755043983459473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.05500125885009766</v>
+        <v>0.04498648643493652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.05199384689331055</v>
+        <v>0.04499578475952148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.07494854927062988</v>
+        <v>0.07213997840881348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.04500365257263184</v>
+        <v>0.05115199089050293</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.05099916458129883</v>
+        <v>0.04699873924255371</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.05163097381591797</v>
+        <v>0.04560518264770508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.06065869331359863</v>
+        <v>0.04800224304199219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.04804396629333496</v>
+        <v>0.05052518844604492</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.07947945594787598</v>
+        <v>0.05106997489929199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0455780029296875</v>
+        <v>0.04899430274963379</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04395723342895508</v>
+        <v>0.05013203620910645</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.04710197448730469</v>
+        <v>0.05754876136779785</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04498529434204102</v>
+        <v>0.04595351219177246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.04400634765625</v>
+        <v>0.04851603507995605</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04751682281494141</v>
+        <v>0.06460762023925781</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.06077194213867188</v>
+        <v>0.0449531078338623</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.04644942283630371</v>
+        <v>0.04601025581359863</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.04405331611633301</v>
+        <v>0.05001187324523926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.04698920249938965</v>
+        <v>0.06526708602905273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.05255746841430664</v>
+        <v>0.04562997817993164</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.05704998970031738</v>
+        <v>0.04608488082885742</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0509955883026123</v>
+        <v>0.07401847839355469</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.08528900146484375</v>
+        <v>0.04677009582519531</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.06837081909179688</v>
+        <v>0.04600977897644043</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.04952836036682129</v>
+        <v>0.04600048065185547</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.04899024963378906</v>
+        <v>0.04752087593078613</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.04651880264282227</v>
+        <v>0.05499720573425293</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.04746556282043457</v>
+        <v>0.05450892448425293</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.06195425987243652</v>
+        <v>0.04555392265319824</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.07511448860168457</v>
+        <v>0.04930281639099121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.04552197456359863</v>
+        <v>0.07450699806213379</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.04496121406555176</v>
+        <v>0.06913089752197266</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.05000448226928711</v>
+        <v>0.04601025581359863</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0484771728515625</v>
+        <v>0.07904887199401855</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.05100321769714355</v>
+        <v>0.07346963882446289</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.05955767631530762</v>
+        <v>0.04651737213134766</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05014204978942871</v>
+        <v>0.05400609970092773</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.04498839378356934</v>
+        <v>0.04899072647094727</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.04995012283325195</v>
+        <v>0.06551194190979004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.05151271820068359</v>
+        <v>0.07851886749267578</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.04895591735839844</v>
+        <v>0.1245236396789551</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0460667610168457</v>
+        <v>0.09004116058349609</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.04901552200317383</v>
+        <v>0.06351733207702637</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.04899930953979492</v>
+        <v>0.0775153636932373</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.05256342887878418</v>
+        <v>0.05813741683959961</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.05300164222717285</v>
+        <v>0.05395340919494629</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.04695653915405273</v>
+        <v>0.04738879203796387</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.04756903648376465</v>
+        <v>0.05450630187988281</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.05503630638122559</v>
+        <v>0.06500482559204102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.04600739479064941</v>
+        <v>0.08300209045410156</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.05056905746459961</v>
+        <v>0.05300664901733398</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.06198906898498535</v>
+        <v>0.04613137245178223</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.05255746841430664</v>
+        <v>0.04900074005126953</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.04755973815917969</v>
+        <v>0.06435346603393555</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.06200098991394043</v>
+        <v>0.07851529121398926</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.06400513648986816</v>
+        <v>0.04755926132202148</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0605778694152832</v>
+        <v>0.05300188064575195</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.04811334609985352</v>
+        <v>0.0585486888885498</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.05399894714355469</v>
+        <v>0.05451273918151855</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.05048298835754395</v>
+        <v>0.04800033569335938</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.05351543426513672</v>
+        <v>0.05351400375366211</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.04899978637695312</v>
+        <v>0.0741584300994873</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.05650186538696289</v>
+        <v>0.05947208404541016</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.04651546478271484</v>
+        <v>0.05104589462280273</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.04995870590209961</v>
+        <v>0.04651570320129395</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.05028367042541504</v>
+        <v>0.06403660774230957</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.04700732231140137</v>
+        <v>0.05199909210205078</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.04503107070922852</v>
+        <v>0.06229615211486816</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.05633807182312012</v>
+        <v>0.04654335975646973</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.04999995231628418</v>
+        <v>0.04599928855895996</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.05008339881896973</v>
+        <v>0.05154275894165039</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.05761456489562988</v>
+        <v>0.04805302619934082</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.05000782012939453</v>
+        <v>0.06182551383972168</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.05100202560424805</v>
+        <v>0.04639339447021484</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.05652260780334473</v>
+        <v>0.04914402961730957</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.05601000785827637</v>
+        <v>0.04806113243103027</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.05599451065063477</v>
+        <v>0.05575084686279297</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.04851603507995605</v>
+        <v>0.05192303657531738</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.04800796508789062</v>
+        <v>0.04851031303405762</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.05595993995666504</v>
+        <v>0.07861804962158203</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.05257892608642578</v>
+        <v>0.04695606231689453</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.05600357055664062</v>
+        <v>0.04855680465698242</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.05304050445556641</v>
+        <v>0.04923295974731445</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.05352115631103516</v>
+        <v>0.04604530334472656</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.05503416061401367</v>
+        <v>0.07504129409790039</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.05195379257202148</v>
+        <v>0.04953575134277344</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.04960823059082031</v>
+        <v>0.05794787406921387</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.05202317237854004</v>
+        <v>0.04651069641113281</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.04599905014038086</v>
+        <v>0.04851746559143066</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.04951786994934082</v>
+        <v>0.06399703025817871</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.05205321311950684</v>
+        <v>0.04557394981384277</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.05300211906433105</v>
+        <v>0.07659769058227539</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.04555869102478027</v>
+        <v>0.04796671867370605</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.04800248146057129</v>
+        <v>0.04652237892150879</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.05799388885498047</v>
+        <v>0.06218814849853516</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.04572796821594238</v>
+        <v>0.04999613761901855</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.04504203796386719</v>
+        <v>0.04700064659118652</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.05452537536621094</v>
+        <v>0.04459881782531738</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.06152606010437012</v>
+        <v>0.04587483406066895</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.05652213096618652</v>
+        <v>0.04607129096984863</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.06499361991882324</v>
+        <v>0.05100440979003906</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.07199287414550781</v>
+        <v>0.06609129905700684</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.05450892448425293</v>
+        <v>0.04622364044189453</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.05553507804870605</v>
+        <v>0.05300259590148926</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.06951642036437988</v>
+        <v>0.04709005355834961</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.05900478363037109</v>
+        <v>0.04559946060180664</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.05899763107299805</v>
+        <v>0.04499506950378418</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.07852482795715332</v>
+        <v>0.04656124114990234</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.04852128028869629</v>
+        <v>0.04999852180480957</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.06201267242431641</v>
+        <v>0.04739928245544434</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.09854745864868164</v>
+        <v>0.04603934288024902</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.06551384925842285</v>
+        <v>0.04895567893981934</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.07600498199462891</v>
+        <v>0.0500025749206543</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.06199359893798828</v>
+        <v>0.04700016975402832</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.05550813674926758</v>
+        <v>0.04700827598571777</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.05511164665222168</v>
+        <v>0.0470588207244873</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.05400776863098145</v>
+        <v>0.04998540878295898</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.05499982833862305</v>
+        <v>0.04654455184936523</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.04851937294006348</v>
+        <v>0.04599928855895996</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.05401444435119629</v>
+        <v>0.05647945404052734</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.05199980735778809</v>
+        <v>0.04804086685180664</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.1075379848480225</v>
+        <v>0.05904269218444824</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.07799816131591797</v>
+        <v>0.04717016220092773</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.06999444961547852</v>
+        <v>0.0493471622467041</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.1050539016723633</v>
+        <v>0.04898691177368164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.0740821361541748</v>
+        <v>0.04768061637878418</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.06399917602539062</v>
+        <v>0.04602289199829102</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.06699633598327637</v>
+        <v>0.04659533500671387</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.06152057647705078</v>
+        <v>0.05100250244140625</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.0551607608795166</v>
+        <v>0.04895544052124023</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.06959152221679688</v>
+        <v>0.05561351776123047</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.0695195198059082</v>
+        <v>0.05129599571228027</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.09852409362792969</v>
+        <v>0.04955458641052246</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.05099606513977051</v>
+        <v>0.04447174072265625</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.05751252174377441</v>
+        <v>0.04700040817260742</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.07024669647216797</v>
+        <v>0.04868197441101074</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.05651307106018066</v>
+        <v>0.06101346015930176</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.06800985336303711</v>
+        <v>0.05695271492004395</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.05629706382751465</v>
+        <v>0.04807591438293457</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.04752969741821289</v>
+        <v>0.05900359153747559</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.04996609687805176</v>
+        <v>0.06099581718444824</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.05904316902160645</v>
+        <v>0.07662725448608398</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.05752468109130859</v>
+        <v>0.05053162574768066</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.0676109790802002</v>
+        <v>0.04799914360046387</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.04696273803710938</v>
+        <v>0.05452299118041992</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.0508582592010498</v>
+        <v>0.05118060111999512</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.07046914100646973</v>
+        <v>0.05067157745361328</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.04800701141357422</v>
+        <v>0.0794682502746582</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.05599451065063477</v>
+        <v>0.05518937110900879</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.05621170997619629</v>
+        <v>0.07459545135498047</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.05051469802856445</v>
+        <v>0.04904580116271973</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.05799770355224609</v>
+        <v>0.06550765037536621</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.05000662803649902</v>
+        <v>0.04929065704345703</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.0615546703338623</v>
+        <v>0.0600275993347168</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.05800294876098633</v>
+        <v>0.04995465278625488</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.05599451065063477</v>
+        <v>0.08059191703796387</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.09452080726623535</v>
+        <v>0.04727458953857422</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.06208109855651855</v>
+        <v>0.04795598983764648</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.0625147819519043</v>
+        <v>0.04960799217224121</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.09153413772583008</v>
+        <v>0.04795551300048828</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.08451962471008301</v>
+        <v>0.05353498458862305</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.0475010871887207</v>
+        <v>0.05309772491455078</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.04755663871765137</v>
+        <v>0.05508613586425781</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.04716658592224121</v>
+        <v>0.05108880996704102</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.04800534248352051</v>
+        <v>0.05059146881103516</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.05595302581787109</v>
+        <v>0.04692721366882324</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.04712677001953125</v>
+        <v>0.04556918144226074</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.05608630180358887</v>
+        <v>0.05205106735229492</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.0490262508392334</v>
+        <v>0.07900905609130859</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.04994416236877441</v>
+        <v>0.07455229759216309</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.0488739013671875</v>
+        <v>0.04755616188049316</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.04723763465881348</v>
+        <v>0.04904532432556152</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.07554268836975098</v>
+        <v>0.04751062393188477</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.04496049880981445</v>
+        <v>0.04605340957641602</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.04900050163269043</v>
+        <v>0.07473468780517578</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.05853128433227539</v>
+        <v>0.07370138168334961</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.04737520217895508</v>
+        <v>0.04575109481811523</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.04504537582397461</v>
+        <v>0.04668760299682617</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.08016705513000488</v>
+        <v>0.0520482063293457</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.04920244216918945</v>
+        <v>0.05002903938293457</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.04999995231628418</v>
+        <v>0.04599761962890625</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.06252002716064453</v>
+        <v>0.04639267921447754</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.05259418487548828</v>
+        <v>0.04963278770446777</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.07452797889709473</v>
+        <v>0.04699802398681641</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.0480189323425293</v>
+        <v>0.04512834548950195</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.05158066749572754</v>
+        <v>0.04795265197753906</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.07206559181213379</v>
+        <v>0.05608463287353516</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.04992890357971191</v>
+        <v>0.07246971130371094</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.06112122535705566</v>
+        <v>0.04858827590942383</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.07706451416015625</v>
+        <v>0.04808354377746582</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.05758261680603027</v>
+        <v>0.04607987403869629</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.05200314521789551</v>
+        <v>0.04599189758300781</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.06658315658569336</v>
+        <v>0.04703736305236816</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.04647064208984375</v>
+        <v>0.05707955360412598</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.04495501518249512</v>
+        <v>0.0520014762878418</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.06746792793273926</v>
+        <v>0.05356717109680176</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.06900715827941895</v>
+        <v>0.04804658889770508</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.06300640106201172</v>
+        <v>0.05102396011352539</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.06600499153137207</v>
+        <v>0.04656028747558594</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.0665287971496582</v>
+        <v>0.04705286026000977</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.04952454566955566</v>
+        <v>0.04951596260070801</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.04899978637695312</v>
+        <v>0.05053830146789551</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.06266093254089355</v>
+        <v>0.04699897766113281</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.0586395263671875</v>
+        <v>0.05971717834472656</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.04460430145263672</v>
+        <v>0.05256295204162598</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.0448760986328125</v>
+        <v>0.0499567985534668</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.07465147972106934</v>
+        <v>0.05464386940002441</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.04703593254089355</v>
+        <v>0.04904651641845703</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.04465103149414062</v>
+        <v>0.05004048347473145</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.04504227638244629</v>
+        <v>0.04560685157775879</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.06164216995239258</v>
+        <v>0.04404282569885254</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.04851317405700684</v>
+        <v>0.04855704307556152</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.0455935001373291</v>
+        <v>0.05194997787475586</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.0445716381072998</v>
+        <v>0.04799866676330566</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.0480039119720459</v>
+        <v>0.04803347587585449</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.04694938659667969</v>
+        <v>0.04900288581848145</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.04619765281677246</v>
+        <v>0.06150317192077637</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.04525279998779297</v>
+        <v>0.05744838714599609</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.05051827430725098</v>
+        <v>0.07511281967163086</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.04801511764526367</v>
+        <v>0.0690150260925293</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.04502034187316895</v>
+        <v>0.07395505905151367</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.04465985298156738</v>
+        <v>0.05450153350830078</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.0485374927520752</v>
+        <v>0.05013036727905273</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.04755949974060059</v>
+        <v>0.05504012107849121</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.04798984527587891</v>
+        <v>0.06960463523864746</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.04472041130065918</v>
+        <v>0.04761099815368652</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.05550956726074219</v>
+        <v>0.06769800186157227</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.05599355697631836</v>
+        <v>0.04500031471252441</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.04551792144775391</v>
+        <v>0.05047249794006348</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.04401087760925293</v>
+        <v>0.04803347587585449</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.04800319671630859</v>
+        <v>0.07412314414978027</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.04651212692260742</v>
+        <v>0.04460906982421875</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.07596087455749512</v>
+        <v>0.04904985427856445</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.04735398292541504</v>
+        <v>0.05251359939575195</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.04652190208435059</v>
+        <v>0.04720830917358398</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.06399822235107422</v>
+        <v>0.04495334625244141</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.05789399147033691</v>
+        <v>0.04857802391052246</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.06580615043640137</v>
+        <v>0.06064867973327637</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.04704427719116211</v>
+        <v>0.05008530616760254</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.07161593437194824</v>
+        <v>0.04699969291687012</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.0445556640625</v>
+        <v>0.04799842834472656</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.0469975471496582</v>
+        <v>0.0465090274810791</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.04853391647338867</v>
+        <v>0.04569673538208008</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.04568362236022949</v>
+        <v>0.04600167274475098</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.07100486755371094</v>
+        <v>0.04851365089416504</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.04699921607971191</v>
+        <v>0.04999589920043945</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.04729676246643066</v>
+        <v>0.04609322547912598</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.04703736305236816</v>
+        <v>0.04604983329772949</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.04756712913513184</v>
+        <v>0.05042433738708496</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.07214927673339844</v>
+        <v>0.05350136756896973</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.05701589584350586</v>
+        <v>0.07446074485778809</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.04811286926269531</v>
+        <v>0.04599642753601074</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.04399371147155762</v>
+        <v>0.04951906204223633</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.05256009101867676</v>
+        <v>0.07604432106018066</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.07983231544494629</v>
+        <v>0.04597949981689453</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.04514145851135254</v>
+        <v>0.07854819297790527</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.04500102996826172</v>
+        <v>0.0475151538848877</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.05828475952148438</v>
+        <v>0.04395747184753418</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.04900145530700684</v>
+        <v>0.04851460456848145</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.05600118637084961</v>
+        <v>0.04853057861328125</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.04685783386230469</v>
+        <v>0.04600143432617188</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.05204129219055176</v>
+        <v>0.05822014808654785</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.05895352363586426</v>
+        <v>0.04704666137695312</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.04550957679748535</v>
+        <v>0.07795381546020508</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.04899859428405762</v>
+        <v>0.04652047157287598</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.06557655334472656</v>
+        <v>0.05704975128173828</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.05160379409790039</v>
+        <v>0.05409002304077148</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.04600000381469727</v>
+        <v>0.07348084449768066</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.04850482940673828</v>
+        <v>0.04754328727722168</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.04973697662353516</v>
+        <v>0.0600132942199707</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.04595470428466797</v>
+        <v>0.07399678230285645</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.0605165958404541</v>
+        <v>0.04655742645263672</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.05553126335144043</v>
+        <v>0.04495763778686523</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.04895758628845215</v>
+        <v>0.06595063209533691</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.05252885818481445</v>
+        <v>0.04855632781982422</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.06251645088195801</v>
+        <v>0.04524064064025879</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.04698038101196289</v>
+        <v>0.04698991775512695</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.07167410850524902</v>
+        <v>0.07757902145385742</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.04456901550292969</v>
+        <v>0.05029892921447754</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.07106256484985352</v>
+        <v>0.0469963550567627</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.0519874095916748</v>
+        <v>0.07017111778259277</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.04546451568603516</v>
+        <v>0.05411863327026367</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.05895352363586426</v>
+        <v>0.07825016975402832</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.05984926223754883</v>
+        <v>0.04588556289672852</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.05264163017272949</v>
+        <v>0.04838299751281738</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.04601502418518066</v>
+        <v>0.04799938201904297</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.04652118682861328</v>
+        <v>0.04545164108276367</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.04799342155456543</v>
+        <v>0.04500961303710938</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.05350828170776367</v>
+        <v>0.07508635520935059</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.04551315307617188</v>
+        <v>0.04756426811218262</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.05817842483520508</v>
+        <v>0.04656386375427246</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.07304048538208008</v>
+        <v>0.04699444770812988</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.04647421836853027</v>
+        <v>0.05362892150878906</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.05461668968200684</v>
+        <v>0.05555295944213867</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.05204892158508301</v>
+        <v>0.05300998687744141</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.05557036399841309</v>
+        <v>0.07547760009765625</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.06665825843811035</v>
+        <v>0.04869890213012695</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.07207655906677246</v>
+        <v>0.04907035827636719</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.07295465469360352</v>
+        <v>0.04719710350036621</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.0756535530090332</v>
+        <v>0.04700565338134766</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.04559993743896484</v>
+        <v>0.04999423027038574</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.04514861106872559</v>
+        <v>0.04765033721923828</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.06007838249206543</v>
+        <v>0.0459589958190918</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.04674339294433594</v>
+        <v>0.05021166801452637</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.04499912261962891</v>
+        <v>0.05751442909240723</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.04529404640197754</v>
+        <v>0.04600048065185547</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.0469975471496582</v>
+        <v>0.04552412033081055</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.04750990867614746</v>
+        <v>0.04586958885192871</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.04651069641113281</v>
+        <v>0.0485236644744873</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.04579854011535645</v>
+        <v>0.04551148414611816</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.04552507400512695</v>
+        <v>0.04527163505554199</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.07550954818725586</v>
+        <v>0.04851484298706055</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.04577231407165527</v>
+        <v>0.0499730110168457</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.04456925392150879</v>
+        <v>0.0455935001373291</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.0482780933380127</v>
+        <v>0.04660940170288086</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.04815912246704102</v>
+        <v>0.04899787902832031</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.06685805320739746</v>
+        <v>0.06164932250976562</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.04728460311889648</v>
+        <v>0.04605197906494141</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.06718826293945312</v>
+        <v>0.04800152778625488</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.06315970420837402</v>
+        <v>0.04848504066467285</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.04404425621032715</v>
+        <v>0.05100369453430176</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.07103061676025391</v>
+        <v>0.07243990898132324</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.04714179039001465</v>
+        <v>0.0455169677734375</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.04728102684020996</v>
+        <v>0.04695463180541992</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.04551267623901367</v>
+        <v>0.06615400314331055</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.05208873748779297</v>
+        <v>0.0460505485534668</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.04600048065185547</v>
+        <v>0.07301092147827148</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.04509425163269043</v>
+        <v>0.04700350761413574</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.04454851150512695</v>
+        <v>0.05093717575073242</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.0455629825592041</v>
+        <v>0.04595208168029785</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.0612797737121582</v>
+        <v>0.04660558700561523</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.04499220848083496</v>
+        <v>0.04905056953430176</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.04462647438049316</v>
+        <v>0.04799962043762207</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.04799723625183105</v>
+        <v>0.04646706581115723</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.04816484451293945</v>
+        <v>0.04596400260925293</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.04555749893188477</v>
+        <v>0.05665969848632812</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.04468154907226562</v>
+        <v>0.04855990409851074</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.0524904727935791</v>
+        <v>0.04799985885620117</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.06199312210083008</v>
+        <v>0.04730534553527832</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.0450437068939209</v>
+        <v>0.04699873924255371</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.04454922676086426</v>
+        <v>0.06659698486328125</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.04599666595458984</v>
+        <v>0.0455772876739502</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.05955100059509277</v>
+        <v>0.04799842834472656</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.05208539962768555</v>
+        <v>0.0492556095123291</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.05500411987304688</v>
+        <v>0.05881500244140625</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.06253361701965332</v>
+        <v>0.04554915428161621</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.06352066993713379</v>
+        <v>0.0482029914855957</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.04799485206604004</v>
+        <v>0.05100798606872559</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.04659247398376465</v>
+        <v>0.04599714279174805</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.05563497543334961</v>
+        <v>0.06288695335388184</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.05003929138183594</v>
+        <v>0.04703760147094727</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.04562211036682129</v>
+        <v>0.05000734329223633</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.04599666595458984</v>
+        <v>0.04665541648864746</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.04659581184387207</v>
+        <v>0.04495811462402344</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.04610085487365723</v>
+        <v>0.04567098617553711</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.05390787124633789</v>
+        <v>0.04999518394470215</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.07454824447631836</v>
+        <v>0.04811954498291016</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.04559135437011719</v>
+        <v>0.04660654067993164</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.07277727127075195</v>
+        <v>0.06525969505310059</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.04387354850769043</v>
+        <v>0.0474705696105957</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.04588222503662109</v>
+        <v>0.05055546760559082</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.04699826240539551</v>
+        <v>0.07500815391540527</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.05464673042297363</v>
+        <v>0.04800581932067871</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.04399752616882324</v>
+        <v>0.07363438606262207</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.04925394058227539</v>
+        <v>0.04700016975402832</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.05063796043395996</v>
+        <v>0.04902291297912598</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.04799699783325195</v>
+        <v>0.04728937149047852</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.04606819152832031</v>
+        <v>0.04799962043762207</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.04799747467041016</v>
+        <v>0.04670834541320801</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.04750919342041016</v>
+        <v>0.04804682731628418</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.04492974281311035</v>
+        <v>0.05304408073425293</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.04548525810241699</v>
+        <v>0.07419705390930176</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.0475163459777832</v>
+        <v>0.04951071739196777</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.04800009727478027</v>
+        <v>0.04894208908081055</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.05550956726074219</v>
+        <v>0.04560637474060059</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.04452657699584961</v>
+        <v>0.04700899124145508</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.05195498466491699</v>
+        <v>0.04847192764282227</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.04853057861328125</v>
+        <v>0.07451772689819336</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.04409503936767578</v>
+        <v>0.07455635070800781</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.04451489448547363</v>
+        <v>0.06194186210632324</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.07845234870910645</v>
+        <v>0.04802298545837402</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.04700636863708496</v>
+        <v>0.0465548038482666</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.04571628570556641</v>
+        <v>0.0490415096282959</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.04464936256408691</v>
+        <v>0.05053329467773438</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.04599547386169434</v>
+        <v>0.04602193832397461</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.04751992225646973</v>
+        <v>0.04603958129882812</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.05099201202392578</v>
+        <v>0.04956626892089844</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.07205080986022949</v>
+        <v>0.05094265937805176</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.04738903045654297</v>
+        <v>0.04551959037780762</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.04800701141357422</v>
+        <v>0.04605865478515625</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.04555797576904297</v>
+        <v>0.05199956893920898</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.04552721977233887</v>
+        <v>0.04710102081298828</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.05700087547302246</v>
+        <v>0.04999995231628418</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.04751467704772949</v>
+        <v>0.0472867488861084</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.0460054874420166</v>
+        <v>0.04600882530212402</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.07515120506286621</v>
+        <v>0.0655968189239502</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.04714536666870117</v>
+        <v>0.05450892448425293</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.05200099945068359</v>
+        <v>0.04776310920715332</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.04900264739990234</v>
+        <v>0.05100464820861816</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.07358527183532715</v>
+        <v>0.05650615692138672</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.04707765579223633</v>
+        <v>0.04523921012878418</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.04620122909545898</v>
+        <v>0.04703974723815918</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.0571901798248291</v>
+        <v>0.05159378051757812</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.04895734786987305</v>
+        <v>0.0470433235168457</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.04653358459472656</v>
+        <v>0.0765223503112793</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.04652500152587891</v>
+        <v>0.04650163650512695</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.05595588684082031</v>
+        <v>0.05102968215942383</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.04655146598815918</v>
+        <v>0.05651211738586426</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.04800248146057129</v>
+        <v>0.04557442665100098</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.04599976539611816</v>
+        <v>0.05295538902282715</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.05551266670227051</v>
+        <v>0.07812952995300293</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.05704236030578613</v>
+        <v>0.05963873863220215</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.04606318473815918</v>
+        <v>0.05451154708862305</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.07319903373718262</v>
+        <v>0.05576753616333008</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.04400062561035156</v>
+        <v>0.04961442947387695</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.0575106143951416</v>
+        <v>0.0464775562286377</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.04707098007202148</v>
+        <v>0.04554343223571777</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.07299327850341797</v>
+        <v>0.04662013053894043</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.04506492614746094</v>
+        <v>0.06706690788269043</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.04802536964416504</v>
+        <v>0.04499506950378418</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.04599165916442871</v>
+        <v>0.04540610313415527</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.04453158378601074</v>
+        <v>0.04804420471191406</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.04599952697753906</v>
+        <v>0.07263040542602539</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.05350494384765625</v>
+        <v>0.04453325271606445</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.05039000511169434</v>
+        <v>0.04399895668029785</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.05677366256713867</v>
+        <v>0.05851888656616211</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.04790043830871582</v>
+        <v>0.04794669151306152</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.05401062965393066</v>
+        <v>0.04500293731689453</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.05456423759460449</v>
+        <v>0.0465857982635498</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.04443001747131348</v>
+        <v>0.0493772029876709</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.04600024223327637</v>
+        <v>0.04851913452148438</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.04555559158325195</v>
+        <v>0.04508709907531738</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.04810667037963867</v>
+        <v>0.04405832290649414</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.07300138473510742</v>
+        <v>0.06650733947753906</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.06769037246704102</v>
+        <v>0.04802942276000977</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.0731348991394043</v>
+        <v>0.04459691047668457</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.04851746559143066</v>
+        <v>0.04503917694091797</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.05299735069274902</v>
+        <v>0.04691863059997559</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.0514984130859375</v>
+        <v>0.04648613929748535</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.0525057315826416</v>
+        <v>0.04899716377258301</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.05299949645996094</v>
+        <v>0.04464983940124512</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.05251717567443848</v>
+        <v>0.04403948783874512</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.05000400543212891</v>
+        <v>0.0480506420135498</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.0469973087310791</v>
+        <v>0.04569005966186523</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.0467979907989502</v>
+        <v>0.04599857330322266</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.06796765327453613</v>
+        <v>0.04652953147888184</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.04900240898132324</v>
+        <v>0.04699873924255371</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.04393196105957031</v>
+        <v>0.0458071231842041</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.04500007629394531</v>
+        <v>0.04551553726196289</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.04651355743408203</v>
+        <v>0.05862712860107422</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.04799890518188477</v>
+        <v>0.04951381683349609</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.04831790924072266</v>
+        <v>0.04532313346862793</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.04600644111633301</v>
+        <v>0.05099844932556152</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.07710886001586914</v>
+        <v>0.04633522033691406</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.04852294921875</v>
+        <v>0.04743504524230957</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.06350922584533691</v>
+        <v>0.0545647144317627</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.04968667030334473</v>
+        <v>0.04400086402893066</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.04655694961547852</v>
+        <v>0.07286453247070312</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.0465095043182373</v>
+        <v>0.07650542259216309</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.04899787902832031</v>
+        <v>0.04852819442749023</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.04853940010070801</v>
+        <v>0.04399561882019043</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.04701328277587891</v>
+        <v>0.05053019523620605</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.05075836181640625</v>
+        <v>0.04658985137939453</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.04751086235046387</v>
+        <v>0.04399847984313965</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.0469975471496582</v>
+        <v>0.0536496639251709</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.05852079391479492</v>
+        <v>0.04789638519287109</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.05632472038269043</v>
+        <v>0.07595252990722656</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.04599738121032715</v>
+        <v>0.0728452205657959</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.05665016174316406</v>
+        <v>0.04765152931213379</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.05000567436218262</v>
+        <v>0.05400633811950684</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.04651951789855957</v>
+        <v>0.04500055313110352</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.04568958282470703</v>
+        <v>0.04551792144775391</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.04507255554199219</v>
+        <v>0.04695892333984375</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.04712033271789551</v>
+        <v>0.04710912704467773</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.05556845664978027</v>
+        <v>0.04405784606933594</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.07051205635070801</v>
+        <v>0.05399012565612793</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.04551434516906738</v>
+        <v>0.04554414749145508</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.0449974536895752</v>
+        <v>0.04800844192504883</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.05606579780578613</v>
+        <v>0.04626107215881348</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.04453516006469727</v>
+        <v>0.04402995109558105</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.0480048656463623</v>
+        <v>0.04952025413513184</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.04867959022521973</v>
+        <v>0.05561017990112305</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.04499483108520508</v>
+        <v>0.04633879661560059</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.04618144035339355</v>
+        <v>0.04550695419311523</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.04500031471252441</v>
+        <v>0.05851268768310547</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.04699873924255371</v>
+        <v>0.0795133113861084</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.05256462097167969</v>
+        <v>0.04599905014038086</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.04564690589904785</v>
+        <v>0.04551410675048828</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.04652881622314453</v>
+        <v>0.04798984527587891</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.07952690124511719</v>
+        <v>0.04798126220703125</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.04599976539611816</v>
+        <v>0.06795310974121094</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.04652762413024902</v>
+        <v>0.0805351734161377</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.05014300346374512</v>
+        <v>0.04699087142944336</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.04603099822998047</v>
+        <v>0.04551577568054199</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.04462933540344238</v>
+        <v>0.04600167274475098</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0.04895710945129395</v>
+        <v>0.04515266418457031</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.05655431747436523</v>
+        <v>0.0550386905670166</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.05534482002258301</v>
+        <v>0.04765176773071289</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.05504703521728516</v>
+        <v>0.05916094779968262</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.08000063896179199</v>
+        <v>0.07039308547973633</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.04638195037841797</v>
+        <v>0.04898858070373535</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.0455164909362793</v>
+        <v>0.063507080078125</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.05599403381347656</v>
+        <v>0.04545116424560547</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.0576021671295166</v>
+        <v>0.04895234107971191</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.07160830497741699</v>
+        <v>0.05155420303344727</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.04500222206115723</v>
+        <v>0.05396556854248047</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.0451195240020752</v>
+        <v>0.0450139045715332</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.06951689720153809</v>
+        <v>0.04751944541931152</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.04492020606994629</v>
+        <v>0.0479576587677002</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.04751753807067871</v>
+        <v>0.04740285873413086</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.04802036285400391</v>
+        <v>0.07224321365356445</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.04499936103820801</v>
+        <v>0.04899859428405762</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.04420733451843262</v>
+        <v>0.04951906204223633</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.0450432300567627</v>
+        <v>0.04596900939941406</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.04952144622802734</v>
+        <v>0.04599189758300781</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.0480496883392334</v>
+        <v>0.07660508155822754</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.07295966148376465</v>
+        <v>0.04651260375976562</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.04754495620727539</v>
+        <v>0.05001211166381836</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.04793787002563477</v>
+        <v>0.05057501792907715</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.04604482650756836</v>
+        <v>0.04595685005187988</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>0.04554128646850586</v>
+        <v>0.04700803756713867</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.04695272445678711</v>
+        <v>0.04715800285339355</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.06715512275695801</v>
+        <v>0.04500460624694824</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.04751992225646973</v>
+        <v>0.04526042938232422</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.0555577278137207</v>
+        <v>0.04575943946838379</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.04904437065124512</v>
+        <v>0.05954980850219727</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.0541374683380127</v>
+        <v>0.04860353469848633</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.05000209808349609</v>
+        <v>0.04708099365234375</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.05124568939208984</v>
+        <v>0.08701658248901367</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.04798054695129395</v>
+        <v>0.06451153755187988</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.06300663948059082</v>
+        <v>0.06151938438415527</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.04778766632080078</v>
+        <v>0.05551290512084961</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.04913520812988281</v>
+        <v>0.04596066474914551</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.04470300674438477</v>
+        <v>0.05045223236083984</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.0574493408203125</v>
+        <v>0.04595613479614258</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.0590519905090332</v>
+        <v>0.0494682788848877</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.05001974105834961</v>
+        <v>0.04665184020996094</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.04546403884887695</v>
+        <v>0.07304930686950684</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.04800176620483398</v>
+        <v>0.07464909553527832</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.0475914478302002</v>
+        <v>0.04653382301330566</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.04900240898132324</v>
+        <v>0.05504918098449707</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.05351829528808594</v>
+        <v>0.04500007629394531</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.04951381683349609</v>
+        <v>0.04760479927062988</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.04727506637573242</v>
+        <v>0.05699944496154785</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.0453488826751709</v>
+        <v>0.06447315216064453</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.0444338321685791</v>
+        <v>0.04455733299255371</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.04501032829284668</v>
+        <v>0.0489959716796875</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.04735302925109863</v>
+        <v>0.04619050025939941</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.04799771308898926</v>
+        <v>0.04499650001525879</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0.04956912994384766</v>
+        <v>0.04419255256652832</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.05995965003967285</v>
+        <v>0.0706024169921875</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>0.04999065399169922</v>
+        <v>0.04605412483215332</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0.05551433563232422</v>
+        <v>0.04400110244750977</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.06751871109008789</v>
+        <v>0.07751703262329102</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.04791402816772461</v>
+        <v>0.056610107421875</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.04846835136413574</v>
+        <v>0.04642367362976074</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.04602694511413574</v>
+        <v>0.0455629825592041</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.0459895133972168</v>
+        <v>0.04799818992614746</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.04752564430236816</v>
+        <v>0.04807639122009277</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.05495166778564453</v>
+        <v>0.0474853515625</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.05025172233581543</v>
+        <v>0.04751229286193848</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.05498456954956055</v>
+        <v>0.07546114921569824</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>0.04840731620788574</v>
+        <v>0.04763174057006836</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.0465085506439209</v>
+        <v>0.0470428466796875</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.04948592185974121</v>
+        <v>0.07304286956787109</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.05299925804138184</v>
+        <v>0.07548213005065918</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.06223249435424805</v>
+        <v>0.04816675186157227</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0.05933070182800293</v>
+        <v>0.0450437068939209</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.04665970802307129</v>
+        <v>0.07659101486206055</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.04842233657836914</v>
+        <v>0.06247210502624512</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.04788470268249512</v>
+        <v>0.0460975170135498</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.04523086547851562</v>
+        <v>0.04944109916687012</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>0.04956650733947754</v>
+        <v>0.0475926399230957</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0.0469977855682373</v>
+        <v>0.04800081253051758</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0.05357789993286133</v>
+        <v>0.04451847076416016</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0.0499570369720459</v>
+        <v>0.04599618911743164</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>0.04700493812561035</v>
+        <v>0.04750180244445801</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0.04660844802856445</v>
+        <v>0.04719948768615723</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0.04538321495056152</v>
+        <v>0.04700827598571777</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0.04954814910888672</v>
+        <v>0.07230114936828613</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0.04695677757263184</v>
+        <v>0.07911086082458496</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.05155539512634277</v>
+        <v>0.05400180816650391</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>0.04340004920959473</v>
+        <v>0.04595470428466797</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0.04504203796386719</v>
+        <v>0.04767537117004395</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>0.05256271362304688</v>
+        <v>0.0479583740234375</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.04704928398132324</v>
+        <v>0.04781937599182129</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.0460357666015625</v>
+        <v>0.04600214958190918</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.04468488693237305</v>
+        <v>0.05504512786865234</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0.04999852180480957</v>
+        <v>0.04660320281982422</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.04834628105163574</v>
+        <v>0.04934048652648926</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0.06483292579650879</v>
+        <v>0.04659914970397949</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.04403567314147949</v>
+        <v>0.04477405548095703</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0.04754829406738281</v>
+        <v>0.05003976821899414</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0.04700946807861328</v>
+        <v>0.06788754463195801</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.04455852508544922</v>
+        <v>0.04700112342834473</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.04805636405944824</v>
+        <v>0.04600286483764648</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0.05433011054992676</v>
+        <v>0.07659626007080078</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0.05332803726196289</v>
+        <v>0.06041145324707031</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>0.04604482650756836</v>
+        <v>0.04599952697753906</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0.046600341796875</v>
+        <v>0.05757260322570801</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0.04750776290893555</v>
+        <v>0.04699921607971191</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0.05399870872497559</v>
+        <v>0.05598926544189453</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0.04660606384277344</v>
+        <v>0.0734865665435791</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0.04417729377746582</v>
+        <v>0.04655933380126953</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>0.0466458797454834</v>
+        <v>0.04977941513061523</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.04695296287536621</v>
+        <v>0.04818630218505859</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>0.04595136642456055</v>
+        <v>0.04593062400817871</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0.06002998352050781</v>
+        <v>0.04799985885620117</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>0.0575711727142334</v>
+        <v>0.04730749130249023</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.04704403877258301</v>
+        <v>0.04665470123291016</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.04567074775695801</v>
+        <v>0.07253527641296387</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0.0449974536895752</v>
+        <v>0.04756927490234375</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.0445711612701416</v>
+        <v>0.04891085624694824</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.05458259582519531</v>
+        <v>0.04530549049377441</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.05599737167358398</v>
+        <v>0.04500699043273926</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0.04450178146362305</v>
+        <v>0.06699967384338379</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>0.04699802398681641</v>
+        <v>0.04950833320617676</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0.04918384552001953</v>
+        <v>0.04483437538146973</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.04580187797546387</v>
+        <v>0.04590868949890137</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.04404306411743164</v>
+        <v>0.04852557182312012</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>0.0459294319152832</v>
+        <v>0.05097508430480957</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0.05100035667419434</v>
+        <v>0.04763197898864746</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>0.05838680267333984</v>
+        <v>0.04500055313110352</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0.04431533813476562</v>
+        <v>0.04395461082458496</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0.04595351219177246</v>
+        <v>0.0472724437713623</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0.05559730529785156</v>
+        <v>0.04799461364746094</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>0.0442662239074707</v>
+        <v>0.04943418502807617</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0.04504704475402832</v>
+        <v>0.05503201484680176</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>0.04787325859069824</v>
+        <v>0.0574648380279541</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.04699969291687012</v>
+        <v>0.04552674293518066</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>0.04951071739196777</v>
+        <v>0.04599976539611816</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0.04500555992126465</v>
+        <v>0.04751133918762207</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.05032086372375488</v>
+        <v>0.05146193504333496</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0.04804348945617676</v>
+        <v>0.04700660705566406</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.05200099945068359</v>
+        <v>0.04556798934936523</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0.05007362365722656</v>
+        <v>0.04599905014038086</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0.05552577972412109</v>
+        <v>0.04824233055114746</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0.05414056777954102</v>
+        <v>0.04600000381469727</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0.05052709579467773</v>
+        <v>0.04699826240539551</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.05509543418884277</v>
+        <v>0.07732367515563965</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.05498409271240234</v>
+        <v>0.04553842544555664</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0.04759526252746582</v>
+        <v>0.07304811477661133</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.0492253303527832</v>
+        <v>0.04480814933776855</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.04455685615539551</v>
+        <v>0.0555121898651123</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.04796648025512695</v>
+        <v>0.04895353317260742</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.0479588508605957</v>
+        <v>0.05008363723754883</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0.04757094383239746</v>
+        <v>0.05405282974243164</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0.04502201080322266</v>
+        <v>0.0479588508605957</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0.04560327529907227</v>
+        <v>0.04725956916809082</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0.0460360050201416</v>
+        <v>0.04504776000976562</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>0.05299711227416992</v>
+        <v>0.04664039611816406</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0.04633212089538574</v>
+        <v>0.04505348205566406</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0.04699873924255371</v>
+        <v>0.04999446868896484</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.0465545654296875</v>
+        <v>0.04673933982849121</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0.04604983329772949</v>
+        <v>0.05103158950805664</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.04495573043823242</v>
+        <v>0.04789185523986816</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>0.04653239250183105</v>
+        <v>0.0459589958190918</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.0489957332611084</v>
+        <v>0.0559539794921875</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.04552888870239258</v>
+        <v>0.04762768745422363</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.04703164100646973</v>
+        <v>0.0460808277130127</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>0.04808354377746582</v>
+        <v>0.04966139793395996</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0.04730105400085449</v>
+        <v>0.04460692405700684</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0.05198574066162109</v>
+        <v>0.0450446605682373</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0.04451441764831543</v>
+        <v>0.06164646148681641</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.04995250701904297</v>
+        <v>0.05004310607910156</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.05999112129211426</v>
+        <v>0.04657959938049316</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.04774212837219238</v>
+        <v>0.05445432662963867</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.0449986457824707</v>
+        <v>0.05699467658996582</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>0.0463414192199707</v>
+        <v>0.04951190948486328</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.04600739479064941</v>
+        <v>0.04596281051635742</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.05599617958068848</v>
+        <v>0.06299948692321777</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.06207942962646484</v>
+        <v>0.04858946800231934</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0.04696226119995117</v>
+        <v>0.04804110527038574</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0.04895210266113281</v>
+        <v>0.04599618911743164</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.04551100730895996</v>
+        <v>0.06259727478027344</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.05484700202941895</v>
+        <v>0.04600310325622559</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.04951882362365723</v>
+        <v>0.04958724975585938</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.04801297187805176</v>
+        <v>0.06460404396057129</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.05003213882446289</v>
+        <v>0.04699897766113281</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.04460525512695312</v>
+        <v>0.04765844345092773</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.04703855514526367</v>
+        <v>0.04805278778076172</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.05355572700500488</v>
+        <v>0.05195498466491699</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.04608869552612305</v>
+        <v>0.0464177131652832</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.04463982582092285</v>
+        <v>0.07066965103149414</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.04558897018432617</v>
+        <v>0.04899978637695312</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0.0649573802947998</v>
+        <v>0.07319426536560059</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>0.05539107322692871</v>
+        <v>0.04506754875183105</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0.04551959037780762</v>
+        <v>0.07762408256530762</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.05255246162414551</v>
+        <v>0.05099821090698242</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0.04836940765380859</v>
+        <v>0.04552698135375977</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>0.04504871368408203</v>
+        <v>0.04495882987976074</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.04895591735839844</v>
+        <v>0.04710721969604492</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>0.04713201522827148</v>
+        <v>0.05006217956542969</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>0.04816269874572754</v>
+        <v>0.04654765129089355</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>0.0530698299407959</v>
+        <v>0.04552793502807617</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0.05393433570861816</v>
+        <v>0.04900050163269043</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>0.04603362083435059</v>
+        <v>0.04652762413024902</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>0.06117630004882812</v>
+        <v>0.04600405693054199</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>0.0500948429107666</v>
+        <v>0.04545378684997559</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.04504013061523438</v>
+        <v>0.07646942138671875</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.04967260360717773</v>
+        <v>0.05009174346923828</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.0499570369720459</v>
+        <v>0.05500125885009766</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.04658246040344238</v>
+        <v>0.05601644515991211</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.04600429534912109</v>
+        <v>0.04901123046875</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.04799962043762207</v>
+        <v>0.04802465438842773</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.04855608940124512</v>
+        <v>0.04354286193847656</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>0.0446927547454834</v>
+        <v>0.04603409767150879</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.07251381874084473</v>
+        <v>0.05392050743103027</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>0.05160641670227051</v>
+        <v>0.04668259620666504</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.04704380035400391</v>
+        <v>0.04598307609558105</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>0.04518008232116699</v>
+        <v>0.04429101943969727</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>0.04602241516113281</v>
+        <v>0.0459597110748291</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>0.04895949363708496</v>
+        <v>0.04856395721435547</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.05051207542419434</v>
+        <v>0.04677248001098633</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.05404210090637207</v>
+        <v>0.04450869560241699</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>0.04510641098022461</v>
+        <v>0.05036330223083496</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0.0484774112701416</v>
+        <v>0.04799699783325195</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.04599761962890625</v>
+        <v>0.05789971351623535</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0.04555940628051758</v>
+        <v>0.0450286865234375</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0.07005715370178223</v>
+        <v>0.05395412445068359</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0.05501127243041992</v>
+        <v>0.06156349182128906</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>0.06351900100708008</v>
+        <v>0.04532074928283691</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>0.04455041885375977</v>
+        <v>0.05599713325500488</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>0.04900050163269043</v>
+        <v>0.05852365493774414</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.04951906204223633</v>
+        <v>0.0450294017791748</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>0.04495501518249512</v>
+        <v>0.04600644111633301</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>0.04349923133850098</v>
+        <v>0.04647564888000488</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0.04622578620910645</v>
+        <v>0.04754185676574707</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.04803943634033203</v>
+        <v>0.04903936386108398</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.0476996898651123</v>
+        <v>0.05500650405883789</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>0.0441586971282959</v>
+        <v>0.06499862670898438</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.05263400077819824</v>
+        <v>0.04882407188415527</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.04704499244689941</v>
+        <v>0.05490326881408691</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>0.04473066329956055</v>
+        <v>0.049041748046875</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>0.04457807540893555</v>
+        <v>0.04758501052856445</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>0.0470426082611084</v>
+        <v>0.05804347991943359</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>0.04712009429931641</v>
+        <v>0.04651999473571777</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.04695296287536621</v>
+        <v>0.04501175880432129</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0.05362343788146973</v>
+        <v>0.07803773880004883</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.04851293563842773</v>
+        <v>0.05305123329162598</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>0.04864645004272461</v>
+        <v>0.05652236938476562</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>0.04554653167724609</v>
+        <v>0.04499673843383789</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>0.06603360176086426</v>
+        <v>0.04633212089538574</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>0.05099821090698242</v>
+        <v>0.04864835739135742</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>0.0514984130859375</v>
+        <v>0.04598402976989746</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>0.04604601860046387</v>
+        <v>0.04519295692443848</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0.06157350540161133</v>
+        <v>0.04600143432617188</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>0.05195474624633789</v>
+        <v>0.05755829811096191</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0.04664182662963867</v>
+        <v>0.04920697212219238</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.04459142684936523</v>
+        <v>0.04495644569396973</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0.04488587379455566</v>
+        <v>0.04838037490844727</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0.05200314521789551</v>
+        <v>0.04599857330322266</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.04963850975036621</v>
+        <v>0.04650211334228516</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.04906678199768066</v>
+        <v>0.04413604736328125</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.05351543426513672</v>
+        <v>0.0760045051574707</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.0538489818572998</v>
+        <v>0.04710268974304199</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.06548309326171875</v>
+        <v>0.04596304893493652</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.04500126838684082</v>
+        <v>0.07299971580505371</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>0.04350781440734863</v>
+        <v>0.04646396636962891</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>0.04862499237060547</v>
+        <v>0.04895687103271484</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>0.04752683639526367</v>
+        <v>0.04499936103820801</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.04500317573547363</v>
+        <v>0.04654979705810547</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.04559803009033203</v>
+        <v>0.04816198348999023</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.04904842376708984</v>
+        <v>0.05743765830993652</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>0.05217385292053223</v>
+        <v>0.04653024673461914</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>0.04494166374206543</v>
+        <v>0.05395817756652832</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>0.04703617095947266</v>
+        <v>0.04902386665344238</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0.04550862312316895</v>
+        <v>0.04704785346984863</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>0.04726433753967285</v>
+        <v>0.04656577110290527</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>0.04695224761962891</v>
+        <v>0.07321882247924805</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>0.0450737476348877</v>
+        <v>0.05595970153808594</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0.04695463180541992</v>
+        <v>0.0592186450958252</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.05213499069213867</v>
+        <v>0.04447007179260254</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.05850791931152344</v>
+        <v>0.04592776298522949</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0.04499578475952148</v>
+        <v>0.04653000831604004</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>0.05351567268371582</v>
+        <v>0.04487895965576172</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>0.05161786079406738</v>
+        <v>0.04495644569396973</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>0.04595279693603516</v>
+        <v>0.0455780029296875</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>0.04665613174438477</v>
+        <v>0.04699444770812988</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>0.05000019073486328</v>
+        <v>0.04664039611816406</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>0.05651426315307617</v>
+        <v>0.04401016235351562</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>0.05251145362854004</v>
+        <v>0.04634237289428711</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>0.04999828338623047</v>
+        <v>0.07751297950744629</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>0.05055642127990723</v>
+        <v>0.04491806030273438</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>0.05099701881408691</v>
+        <v>0.04630756378173828</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>0.04699301719665527</v>
+        <v>0.04724240303039551</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>0.05701637268066406</v>
+        <v>0.04603123664855957</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0.04699921607971191</v>
+        <v>0.04460263252258301</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>0.04860377311706543</v>
+        <v>0.04610586166381836</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>0.04556131362915039</v>
+        <v>0.05095052719116211</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>0.05500125885009766</v>
+        <v>0.05357003211975098</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>0.05153298377990723</v>
+        <v>0.07158017158508301</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>0.04500484466552734</v>
+        <v>0.04630637168884277</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>0.04451441764831543</v>
+        <v>0.05556750297546387</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>0.04651761054992676</v>
+        <v>0.04672837257385254</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>0.05100417137145996</v>
+        <v>0.04728889465332031</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>0.04651665687561035</v>
+        <v>0.04793858528137207</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.04450607299804688</v>
+        <v>0.04743504524230957</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>0.04558038711547852</v>
+        <v>0.07255887985229492</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>0.05001115798950195</v>
+        <v>0.04669046401977539</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>0.05003881454467773</v>
+        <v>0.04998064041137695</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0.05362486839294434</v>
+        <v>0.0726015567779541</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>0.04804015159606934</v>
+        <v>0.0741574764251709</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>0.04751276969909668</v>
+        <v>0.04503989219665527</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0.04365992546081543</v>
+        <v>0.04629349708557129</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>0.04995560646057129</v>
+        <v>0.04448556900024414</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>0.0462806224822998</v>
+        <v>0.04504537582397461</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>0.04695010185241699</v>
+        <v>0.04651927947998047</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>0.04450225830078125</v>
+        <v>0.04800796508789062</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>0.05045986175537109</v>
+        <v>0.04491877555847168</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>0.06199884414672852</v>
+        <v>0.05529093742370605</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.05342960357666016</v>
+        <v>0.04899501800537109</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>0.04477834701538086</v>
+        <v>0.04510116577148438</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>0.04695391654968262</v>
+        <v>0.04401254653930664</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>0.06651830673217773</v>
+        <v>0.07899570465087891</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>0.04902911186218262</v>
+        <v>0.0465538501739502</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>0.0450446605682373</v>
+        <v>0.04505157470703125</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>0.06154751777648926</v>
+        <v>0.04495429992675781</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>0.0469970703125</v>
+        <v>0.04669666290283203</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>0.06264901161193848</v>
+        <v>0.04895758628845215</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>0.05251717567443848</v>
+        <v>0.04656147956848145</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>0.05604386329650879</v>
+        <v>0.04696202278137207</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>0.05500078201293945</v>
+        <v>0.0575251579284668</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>0.04857730865478516</v>
+        <v>0.04660439491271973</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>0.04435968399047852</v>
+        <v>0.04458117485046387</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>0.04755544662475586</v>
+        <v>0.04483652114868164</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>0.05507254600524902</v>
+        <v>0.05391359329223633</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>0.04503583908081055</v>
+        <v>0.07600188255310059</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>0.04409909248352051</v>
+        <v>0.04705953598022461</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>0.0479884147644043</v>
+        <v>0.04500341415405273</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>0.05451059341430664</v>
+        <v>0.04999709129333496</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>0.04551267623901367</v>
+        <v>0.04826140403747559</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>0.04836201667785645</v>
+        <v>0.0475919246673584</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>0.05260610580444336</v>
+        <v>0.04750943183898926</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>0.04834771156311035</v>
+        <v>0.05988979339599609</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.0446624755859375</v>
+        <v>0.04500222206115723</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>0.04557657241821289</v>
+        <v>0.04506897926330566</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>0.04699945449829102</v>
+        <v>0.04495048522949219</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>0.04739642143249512</v>
+        <v>0.04687666893005371</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>0.04918527603149414</v>
+        <v>0.04706048965454102</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>0.04849815368652344</v>
+        <v>0.07317614555358887</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>0.04847240447998047</v>
+        <v>0.04798340797424316</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>0.0469970703125</v>
+        <v>0.0530390739440918</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>0.04560971260070801</v>
+        <v>0.04499721527099609</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.04479455947875977</v>
+        <v>0.04550909996032715</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.04769396781921387</v>
+        <v>0.04800224304199219</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>0.04800057411193848</v>
+        <v>0.04700374603271484</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0.04800009727478027</v>
+        <v>0.04652571678161621</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>0.04847002029418945</v>
+        <v>0.04395556449890137</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0.04799723625183105</v>
+        <v>0.05758953094482422</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>0.04765605926513672</v>
+        <v>0.04750919342041016</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>0.04604387283325195</v>
+        <v>0.04704141616821289</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>0.0539853572845459</v>
+        <v>0.04565834999084473</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>0.047515869140625</v>
+        <v>0.04700088500976562</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>0.04803729057312012</v>
+        <v>0.04754829406738281</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>0.04718589782714844</v>
+        <v>0.04505538940429688</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>0.05234932899475098</v>
+        <v>0.04599547386169434</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>0.05495047569274902</v>
+        <v>0.0455784797668457</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>0.04836797714233398</v>
+        <v>0.04794931411743164</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.04500794410705566</v>
+        <v>0.07551097869873047</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>0.04554533958435059</v>
+        <v>0.04548454284667969</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>0.04600954055786133</v>
+        <v>0.07960081100463867</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>0.04799413681030273</v>
+        <v>0.04504227638244629</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0.04555082321166992</v>
+        <v>0.05455350875854492</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>0.05298805236816406</v>
+        <v>0.06751346588134766</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0.05050873756408691</v>
+        <v>0.07461237907409668</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>0.04843354225158691</v>
+        <v>0.04499959945678711</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>0.04499673843383789</v>
+        <v>0.04560685157775879</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.04455351829528809</v>
+        <v>0.04400110244750977</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.04999732971191406</v>
+        <v>0.07060790061950684</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.04947161674499512</v>
+        <v>0.05857515335083008</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>0.05351066589355469</v>
+        <v>0.04796862602233887</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>0.04501104354858398</v>
+        <v>0.04551315307617188</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>0.04553937911987305</v>
+        <v>0.05151200294494629</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0.04899454116821289</v>
+        <v>0.04603958129882812</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>0.05499768257141113</v>
+        <v>0.04905557632446289</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>0.04952526092529297</v>
+        <v>0.05509495735168457</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>0.0489964485168457</v>
+        <v>0.05498600006103516</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>0.05057835578918457</v>
+        <v>0.05759215354919434</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>0.04400062561035156</v>
+        <v>0.05703473091125488</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>0.05002856254577637</v>
+        <v>0.04738998413085938</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>0.04558467864990234</v>
+        <v>0.04551506042480469</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>0.04999184608459473</v>
+        <v>0.07405519485473633</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>0.04754924774169922</v>
+        <v>0.06299996376037598</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>0.04761338233947754</v>
+        <v>0.04551815986633301</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>0.04800128936767578</v>
+        <v>0.04700064659118652</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>0.04756903648376465</v>
+        <v>0.04751706123352051</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>0.04599952697753906</v>
+        <v>0.07887077331542969</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>0.04555296897888184</v>
+        <v>0.04605317115783691</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>0.04897308349609375</v>
+        <v>0.04604864120483398</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>0.04900956153869629</v>
+        <v>0.04610323905944824</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>0.05547213554382324</v>
+        <v>0.04999828338623047</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0.04398560523986816</v>
+        <v>0.04460954666137695</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>0.06056618690490723</v>
+        <v>0.04303884506225586</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>0.05456757545471191</v>
+        <v>0.06528425216674805</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>0.04582095146179199</v>
+        <v>0.05057525634765625</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>0.04851222038269043</v>
+        <v>0.04699993133544922</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>0.0550084114074707</v>
+        <v>0.04455375671386719</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>0.04799675941467285</v>
+        <v>0.07562160491943359</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>0.04453277587890625</v>
+        <v>0.05299758911132812</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>0.04495501518249512</v>
+        <v>0.04600095748901367</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>0.04458045959472656</v>
+        <v>0.0455329418182373</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>0.0625309944152832</v>
+        <v>0.04758954048156738</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>0.04494786262512207</v>
+        <v>0.04651737213134766</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>0.0444648265838623</v>
+        <v>0.06000709533691406</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>0.04697966575622559</v>
+        <v>0.04585623741149902</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>0.05051231384277344</v>
+        <v>0.04452085494995117</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>0.04600739479064941</v>
+        <v>0.04899954795837402</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>0.05076956748962402</v>
+        <v>0.04612088203430176</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>0.04904031753540039</v>
+        <v>0.04910683631896973</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>0.04799056053161621</v>
+        <v>0.04651927947998047</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>0.04560947418212891</v>
+        <v>0.06062793731689453</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>0.04500842094421387</v>
+        <v>0.07316184043884277</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>0.06095409393310547</v>
+        <v>0.04546475410461426</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>0.05458211898803711</v>
+        <v>0.0495612621307373</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>0.05553340911865234</v>
+        <v>0.04750585556030273</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>0.05000042915344238</v>
+        <v>0.04436135292053223</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>0.05104708671569824</v>
+        <v>0.05105972290039062</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>0.0470116138458252</v>
+        <v>0.04900574684143066</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>0.04703712463378906</v>
+        <v>0.07272458076477051</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>0.0445559024810791</v>
+        <v>0.04612970352172852</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0.05299806594848633</v>
+        <v>0.05996394157409668</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>0.0576319694519043</v>
+        <v>0.0472407341003418</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>0.07051801681518555</v>
+        <v>0.04600667953491211</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>0.04996705055236816</v>
+        <v>0.0469658374786377</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>0.05657029151916504</v>
+        <v>0.04805994033813477</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>0.04805111885070801</v>
+        <v>0.04600381851196289</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>0.05502724647521973</v>
+        <v>0.06150507926940918</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>0.05216670036315918</v>
+        <v>0.04507064819335938</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>0.04953098297119141</v>
+        <v>0.05100131034851074</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>0.04499578475952148</v>
+        <v>0.06713008880615234</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>0.04607534408569336</v>
+        <v>0.06357979774475098</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>0.04696464538574219</v>
+        <v>0.05396127700805664</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>0.04887008666992188</v>
+        <v>0.05100011825561523</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>0.0449974536895752</v>
+        <v>0.04651713371276855</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>0.05404567718505859</v>
+        <v>0.0440821647644043</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>0.05310702323913574</v>
+        <v>0.04751706123352051</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>0.05599427223205566</v>
+        <v>0.04800820350646973</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>0.07300448417663574</v>
+        <v>0.04599285125732422</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>0.05162930488586426</v>
+        <v>0.04626679420471191</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>0.05334043502807617</v>
+        <v>0.04702997207641602</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>0.05228018760681152</v>
+        <v>0.05153226852416992</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>0.04451084136962891</v>
+        <v>0.04706907272338867</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>0.04775404930114746</v>
+        <v>0.07199859619140625</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>0.04703569412231445</v>
+        <v>0.07551360130310059</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>0.04517221450805664</v>
+        <v>0.05461025238037109</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>0.04399704933166504</v>
+        <v>0.04500150680541992</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>0.04552721977233887</v>
+        <v>0.04386138916015625</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>0.04796791076660156</v>
+        <v>0.05760955810546875</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>0.05057954788208008</v>
+        <v>0.05000519752502441</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>0.04507350921630859</v>
+        <v>0.0456545352935791</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>0.05504512786865234</v>
+        <v>0.04500007629394531</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>0.04836821556091309</v>
+        <v>0.04355359077453613</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>0.04633045196533203</v>
+        <v>0.04800510406494141</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>0.04456138610839844</v>
+        <v>0.06700563430786133</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0.04807758331298828</v>
+        <v>0.0545954704284668</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>0.04999923706054688</v>
+        <v>0.04612374305725098</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>0.05560803413391113</v>
+        <v>0.04600191116333008</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>0.04900431632995605</v>
+        <v>0.0451512336730957</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>0.06804275512695312</v>
+        <v>0.04700541496276855</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>0.0680844783782959</v>
+        <v>0.04643559455871582</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>0.05066275596618652</v>
+        <v>0.04968881607055664</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>0.0629734992980957</v>
+        <v>0.04498982429504395</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>0.04655981063842773</v>
+        <v>0.04461574554443359</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>0.04612970352172852</v>
+        <v>0.04695582389831543</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>0.04404115676879883</v>
+        <v>0.05658912658691406</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>0.04513764381408691</v>
+        <v>0.07208657264709473</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>0.0460047721862793</v>
+        <v>0.04704952239990234</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>0.04518318176269531</v>
+        <v>0.0469975471496582</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>0.04450583457946777</v>
+        <v>0.07214522361755371</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>0.06606388092041016</v>
+        <v>0.04706335067749023</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>0.04861092567443848</v>
+        <v>0.04599523544311523</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>0.04500222206115723</v>
+        <v>0.04466772079467773</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>0.04455733299255371</v>
+        <v>0.04495525360107422</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>0.04495811462402344</v>
+        <v>0.04671263694763184</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>0.05707144737243652</v>
+        <v>0.05301165580749512</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>0.04704117774963379</v>
+        <v>0.05499815940856934</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>0.04507780075073242</v>
+        <v>0.04764556884765625</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>0.0514981746673584</v>
+        <v>0.04804658889770508</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>0.04604744911193848</v>
+        <v>0.04695010185241699</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>0.04495406150817871</v>
+        <v>0.04506945610046387</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>0.06719565391540527</v>
+        <v>0.04599881172180176</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>0.04900503158569336</v>
+        <v>0.05059599876403809</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>0.04842305183410645</v>
+        <v>0.04699921607971191</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>0.0438697338104248</v>
+        <v>0.04851365089416504</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>0.0443108081817627</v>
+        <v>0.04546809196472168</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>0.04669833183288574</v>
+        <v>0.04900336265563965</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>0.04999876022338867</v>
+        <v>0.05695223808288574</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>0.05051183700561523</v>
+        <v>0.07361030578613281</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>0.04404878616333008</v>
+        <v>0.04800128936767578</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>0.04401826858520508</v>
+        <v>0.07561326026916504</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>0.04764747619628906</v>
+        <v>0.07565164566040039</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>0.04499149322509766</v>
+        <v>0.04627203941345215</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>0.0545494556427002</v>
+        <v>0.0469973087310791</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>0.04671382904052734</v>
+        <v>0.04946613311767578</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>0.04998373985290527</v>
+        <v>0.04975748062133789</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>0.04455971717834473</v>
+        <v>0.05299639701843262</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>0.04453349113464355</v>
+        <v>0.05251932144165039</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>0.06017661094665527</v>
+        <v>0.05554819107055664</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>0.04961061477661133</v>
+        <v>0.0560004711151123</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>0.04799890518188477</v>
+        <v>0.07653999328613281</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>0.06151413917541504</v>
+        <v>0.0664362907409668</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>0.04640841484069824</v>
+        <v>0.06953597068786621</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>0.05280542373657227</v>
+        <v>0.06551837921142578</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>0.04919314384460449</v>
+        <v>0.04899740219116211</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>0.05099678039550781</v>
+        <v>0.06451749801635742</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>0.05910778045654297</v>
+        <v>0.06206464767456055</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>0.05320167541503906</v>
+        <v>0.05098557472229004</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>0.04958295822143555</v>
+        <v>0.05299901962280273</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>0.04460978507995605</v>
+        <v>0.05204510688781738</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>0.04605221748352051</v>
+        <v>0.05298900604248047</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>0.05700850486755371</v>
+        <v>0.0534660816192627</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>0.04555773735046387</v>
+        <v>0.04700112342834473</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>0.04999184608459473</v>
+        <v>0.05099844932556152</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>0.04640817642211914</v>
+        <v>0.05057168006896973</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>0.04901003837585449</v>
+        <v>0.04604291915893555</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>0.04542183876037598</v>
+        <v>0.04656124114990234</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>0.06751561164855957</v>
+        <v>0.07822275161743164</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>0.06460094451904297</v>
+        <v>0.04722023010253906</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>0.04657506942749023</v>
+        <v>0.0470280647277832</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>0.04569101333618164</v>
+        <v>0.05011272430419922</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>0.05400586128234863</v>
+        <v>0.04799628257751465</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>0.06227231025695801</v>
+        <v>0.04723525047302246</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>0.3152332305908203</v>
+        <v>0.3030722141265869</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>0.04599785804748535</v>
+        <v>0.04724287986755371</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>0.04551482200622559</v>
+        <v>0.0489962100982666</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>0.0469968318939209</v>
+        <v>0.04914522171020508</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>0.0550839900970459</v>
+        <v>0.04900717735290527</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>0.05653619766235352</v>
+        <v>0.04889154434204102</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>0.05332326889038086</v>
+        <v>0.05055832862854004</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>0.04656124114990234</v>
+        <v>0.04899787902832031</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>0.04799938201904297</v>
+        <v>0.04895973205566406</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>0.04850912094116211</v>
+        <v>0.05099964141845703</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>0.04751849174499512</v>
+        <v>0.04899382591247559</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>0.05401849746704102</v>
+        <v>0.0493309497833252</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>0.0466768741607666</v>
+        <v>0.05996918678283691</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>0.05105161666870117</v>
+        <v>0.05199861526489258</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>0.04704642295837402</v>
+        <v>0.04751706123352051</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>0.05647182464599609</v>
+        <v>0.0665276050567627</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>0.06916904449462891</v>
+        <v>0.06699585914611816</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>0.06299877166748047</v>
+        <v>0.06651520729064941</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>0.06013083457946777</v>
+        <v>0.06853604316711426</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>0.05856871604919434</v>
+        <v>0.08121633529663086</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>0.0540165901184082</v>
+        <v>0.1165261268615723</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>0.06099486351013184</v>
+        <v>0.08051514625549316</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>0.06751465797424316</v>
+        <v>0.07452559471130371</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>0.08052968978881836</v>
+        <v>0.08254146575927734</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>0.05134034156799316</v>
+        <v>0.06751799583435059</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>0.04900026321411133</v>
+        <v>0.07453417778015137</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>0.05100154876708984</v>
+        <v>0.07751297950744629</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>0.05350518226623535</v>
+        <v>0.06552433967590332</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>0.04900455474853516</v>
+        <v>0.06399178504943848</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>0.06251311302185059</v>
+        <v>0.06200051307678223</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>0.05261087417602539</v>
+        <v>0.08253192901611328</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>0.05800557136535645</v>
+        <v>0.07950806617736816</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>0.05399823188781738</v>
+        <v>0.05952000617980957</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>0.05263090133666992</v>
+        <v>0.07052206993103027</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>0.05252552032470703</v>
+        <v>0.07249927520751953</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>0.0619971752166748</v>
+        <v>0.05199670791625977</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>0.05751895904541016</v>
+        <v>0.1085202693939209</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>0.05648446083068848</v>
+        <v>0.06800317764282227</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>0.05200409889221191</v>
+        <v>0.06306648254394531</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>0.0489952564239502</v>
+        <v>0.0585334300994873</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>0.0505375862121582</v>
+        <v>0.07451558113098145</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>0.04800152778625488</v>
+        <v>0.05900812149047852</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>0.06799983978271484</v>
+        <v>0.06700444221496582</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>0.05303287506103516</v>
+        <v>0.05860304832458496</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>0.04951024055480957</v>
+        <v>0.06105661392211914</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>0.05194568634033203</v>
+        <v>0.06452775001525879</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>0.05251836776733398</v>
+        <v>0.05899786949157715</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>0.04900956153869629</v>
+        <v>0.05651617050170898</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>0.05799722671508789</v>
+        <v>0.05453133583068848</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>0.05551958084106445</v>
+        <v>0.06301236152648926</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>0.05416631698608398</v>
+        <v>0.05900001525878906</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>0.04799842834472656</v>
+        <v>0.05401611328125</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>0.05217742919921875</v>
+        <v>0.06553030014038086</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>0.05051589012145996</v>
+        <v>0.06751370429992676</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>0.04799699783325195</v>
+        <v>0.07300257682800293</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>0.05255842208862305</v>
+        <v>0.05499839782714844</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>0.05245518684387207</v>
+        <v>0.05351901054382324</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>0.06196451187133789</v>
+        <v>0.06853222846984863</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>0.07104778289794922</v>
+        <v>0.05499720573425293</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>0.07004046440124512</v>
+        <v>0.07400631904602051</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>0.04853439331054688</v>
+        <v>0.0564720630645752</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>0.04900431632995605</v>
+        <v>0.06753921508789062</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>0.05800008773803711</v>
+        <v>0.05800652503967285</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>0.06056356430053711</v>
+        <v>0.06099534034729004</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>0.05147886276245117</v>
+        <v>0.06006669998168945</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>0.05504107475280762</v>
+        <v>0.06103062629699707</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>0.05360746383666992</v>
+        <v>0.06205892562866211</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>0.05151963233947754</v>
+        <v>0.06600213050842285</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>0.05410909652709961</v>
+        <v>0.05999755859375</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>0.05858802795410156</v>
+        <v>0.05351853370666504</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>0.05152368545532227</v>
+        <v>0.05850362777709961</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>0.04999995231628418</v>
+        <v>0.05600237846374512</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>0.05599522590637207</v>
+        <v>0.05954194068908691</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>0.05551576614379883</v>
+        <v>0.08354043960571289</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>0.04851937294006348</v>
+        <v>0.05547904968261719</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>0.05500626564025879</v>
+        <v>0.05652880668640137</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>0.05655646324157715</v>
+        <v>0.05699563026428223</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>0.04956173896789551</v>
+        <v>0.06851577758789062</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>0.05104637145996094</v>
+        <v>0.07753109931945801</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>0.05757260322570801</v>
+        <v>0.05255842208862305</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>0.06356287002563477</v>
+        <v>0.04852604866027832</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>0.04900193214416504</v>
+        <v>0.05265665054321289</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>0.05251169204711914</v>
+        <v>0.06051349639892578</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>0.0566251277923584</v>
+        <v>0.06550860404968262</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>0.05600953102111816</v>
+        <v>0.06354069709777832</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>0.0469968318939209</v>
+        <v>0.06600832939147949</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>0.08351826667785645</v>
+        <v>0.05499982833862305</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>0.09053301811218262</v>
+        <v>0.07552742958068848</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>0.07107686996459961</v>
+        <v>0.08154988288879395</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>0.0780484676361084</v>
+        <v>0.05051755905151367</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>0.129188060760498</v>
+        <v>0.06001043319702148</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>0.07000017166137695</v>
+        <v>0.06599974632263184</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>0.05555915832519531</v>
+        <v>0.06151103973388672</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>0.05952191352844238</v>
+        <v>0.09354043006896973</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>0.08053231239318848</v>
+        <v>0.0605168342590332</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>0.0865180492401123</v>
+        <v>0.05509161949157715</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>0.06651902198791504</v>
+        <v>0.05501174926757812</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>0.07151985168457031</v>
+        <v>0.05700373649597168</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>0.07651591300964355</v>
+        <v>0.0555427074432373</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>0.05199575424194336</v>
+        <v>0.07052087783813477</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>0.05851364135742188</v>
+        <v>0.062530517578125</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>0.06134390830993652</v>
+        <v>0.05299162864685059</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>0.05301928520202637</v>
+        <v>0.1531047821044922</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>0.06399440765380859</v>
+        <v>0.06439995765686035</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>0.05452179908752441</v>
+        <v>0.06451916694641113</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>0.04906654357910156</v>
+        <v>0.1115677356719971</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>0.0641181468963623</v>
+        <v>0.07753753662109375</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>0.05299472808837891</v>
+        <v>0.06813621520996094</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>0.05033326148986816</v>
+        <v>0.0995631217956543</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>0.05600881576538086</v>
+        <v>0.08153438568115234</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>0.05699515342712402</v>
+        <v>0.1020865440368652</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>0.05851840972900391</v>
+        <v>0.07451248168945312</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>0.05607986450195312</v>
+        <v>0.1478853225708008</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>0.04900050163269043</v>
+        <v>0.07653045654296875</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>0.04851126670837402</v>
+        <v>0.06809496879577637</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>0.05453181266784668</v>
+        <v>0.06400656700134277</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>0.05299592018127441</v>
+        <v>0.05299735069274902</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>0.05030035972595215</v>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="n">
-        <v>0.04850149154663086</v>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="n">
-        <v>0.05200099945068359</v>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="n">
-        <v>0.05077719688415527</v>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="n">
-        <v>0.04900193214416504</v>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="n">
-        <v>0.04799795150756836</v>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="n">
-        <v>0.05012845993041992</v>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="n">
-        <v>0.05011367797851562</v>
-      </c>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="n">
-        <v>0.04651403427124023</v>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="n">
-        <v>0.04565119743347168</v>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="n">
-        <v>0.04852747917175293</v>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="n">
-        <v>0.05019044876098633</v>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="n">
-        <v>0.04796338081359863</v>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="n">
-        <v>0.04704451560974121</v>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="n">
-        <v>0.04936432838439941</v>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="n">
-        <v>0.04833745956420898</v>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="n">
-        <v>0.04701805114746094</v>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="n">
-        <v>0.04714179039001465</v>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="n">
-        <v>0.04901409149169922</v>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="n">
-        <v>0.05682730674743652</v>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="n">
-        <v>0.05000829696655273</v>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="n">
-        <v>0.04591965675354004</v>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="n">
-        <v>0.05455493927001953</v>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="n">
-        <v>0.05304813385009766</v>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="n">
-        <v>0.04899501800537109</v>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="n">
-        <v>0.05064272880554199</v>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="n">
-        <v>0.04699945449829102</v>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="n">
-        <v>0.05935359001159668</v>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="n">
-        <v>0.04961204528808594</v>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="n">
-        <v>0.05100369453430176</v>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="n">
-        <v>0.04783773422241211</v>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="n">
-        <v>0.05229926109313965</v>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="n">
-        <v>0.04989075660705566</v>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="n">
-        <v>0.0515444278717041</v>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="n">
-        <v>0.05218720436096191</v>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="n">
-        <v>0.04800224304199219</v>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="n">
-        <v>0.05425453186035156</v>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="n">
-        <v>0.05239963531494141</v>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="n">
-        <v>0.04800009727478027</v>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="n">
-        <v>0.04952502250671387</v>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="n">
-        <v>0.05300760269165039</v>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="n">
-        <v>0.05398845672607422</v>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="n">
-        <v>0.0475161075592041</v>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="n">
-        <v>0.0470585823059082</v>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="n">
-        <v>0.0529172420501709</v>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="n">
-        <v>0.05855083465576172</v>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="n">
-        <v>0.04832243919372559</v>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="n">
-        <v>0.04799652099609375</v>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="n">
-        <v>0.05433797836303711</v>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="n">
-        <v>0.05911517143249512</v>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="n">
-        <v>0.04608058929443359</v>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="n">
-        <v>0.08451128005981445</v>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="n">
-        <v>0.07715439796447754</v>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="n">
-        <v>0.05052566528320312</v>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="n">
-        <v>0.04900026321411133</v>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="n">
-        <v>0.049560546875</v>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="n">
-        <v>0.04699134826660156</v>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="n">
-        <v>0.04604244232177734</v>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="n">
-        <v>0.05971932411193848</v>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="n">
-        <v>0.0595252513885498</v>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="n">
-        <v>0.0468294620513916</v>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="n">
-        <v>0.04651284217834473</v>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="n">
-        <v>0.04900765419006348</v>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="n">
-        <v>0.05200028419494629</v>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="n">
-        <v>0.04706406593322754</v>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="n">
-        <v>0.04674458503723145</v>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="n">
-        <v>0.04951667785644531</v>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="n">
-        <v>0.06705093383789062</v>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="n">
-        <v>0.04799842834472656</v>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="n">
-        <v>0.04795622825622559</v>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="n">
-        <v>0.05000805854797363</v>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="n">
-        <v>0.05327224731445312</v>
+        <v>0.08852458000183105</v>
       </c>
     </row>
   </sheetData>

--- a/log/time_log.xlsx
+++ b/log/time_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A135"/>
+  <dimension ref="A1:A895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,672 +430,4472 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05301165580749512</v>
+        <v>0.1270034313201904</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05899882316589355</v>
+        <v>0.08699631690979004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0490870475769043</v>
+        <v>0.07300305366516113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.05085468292236328</v>
+        <v>0.09199929237365723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05312561988830566</v>
+        <v>0.07100081443786621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04953265190124512</v>
+        <v>0.07500267028808594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.04799890518188477</v>
+        <v>0.08199858665466309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08161020278930664</v>
+        <v>0.07799768447875977</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.06661200523376465</v>
+        <v>0.07899832725524902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.04982924461364746</v>
+        <v>0.08699989318847656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04799437522888184</v>
+        <v>0.08799600601196289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.047576904296875</v>
+        <v>0.07599854469299316</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.04900622367858887</v>
+        <v>0.09699702262878418</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0775599479675293</v>
+        <v>0.07400298118591309</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.05552101135253906</v>
+        <v>0.07399988174438477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.04805636405944824</v>
+        <v>0.09200263023376465</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07996201515197754</v>
+        <v>0.0749964714050293</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.05741047859191895</v>
+        <v>0.07300138473510742</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.04923224449157715</v>
+        <v>0.09399557113647461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.04800271987915039</v>
+        <v>0.1040005683898926</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.07912564277648926</v>
+        <v>0.1319973468780518</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.05426311492919922</v>
+        <v>0.06799769401550293</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04665446281433105</v>
+        <v>0.0989992618560791</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0449988842010498</v>
+        <v>0.08800387382507324</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04850530624389648</v>
+        <v>0.07400107383728027</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.06204771995544434</v>
+        <v>0.09099626541137695</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04899907112121582</v>
+        <v>0.08100128173828125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.05862903594970703</v>
+        <v>0.1039986610412598</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.08351612091064453</v>
+        <v>0.1289989948272705</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.06151103973388672</v>
+        <v>0.09799766540527344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.06199955940246582</v>
+        <v>0.1059975624084473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.05412554740905762</v>
+        <v>0.1450016498565674</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.05355477333068848</v>
+        <v>0.19100022315979</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0590050220489502</v>
+        <v>0.1419997215270996</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.05601048469543457</v>
+        <v>0.1740005016326904</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.05120015144348145</v>
+        <v>0.1409997940063477</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.04801058769226074</v>
+        <v>0.1499955654144287</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.06055760383605957</v>
+        <v>0.1740045547485352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.0545651912689209</v>
+        <v>0.1499996185302734</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.05005025863647461</v>
+        <v>0.160999059677124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.04895305633544922</v>
+        <v>0.1659982204437256</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.06156754493713379</v>
+        <v>0.187004566192627</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.06606030464172363</v>
+        <v>0.1529984474182129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.06410002708435059</v>
+        <v>0.1850039958953857</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0535578727722168</v>
+        <v>0.1989951133728027</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.05552816390991211</v>
+        <v>0.1560049057006836</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.04899740219116211</v>
+        <v>0.1719982624053955</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.05306077003479004</v>
+        <v>0.1710033416748047</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05552363395690918</v>
+        <v>0.1660010814666748</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.05099630355834961</v>
+        <v>0.2149977684020996</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.04952120780944824</v>
+        <v>0.1289985179901123</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.05100369453430176</v>
+        <v>0.1579999923706055</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.05399942398071289</v>
+        <v>0.1549990177154541</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.04852581024169922</v>
+        <v>0.1449618339538574</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.05500483512878418</v>
+        <v>0.1540002822875977</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.05399751663208008</v>
+        <v>0.1929998397827148</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.05650782585144043</v>
+        <v>0.1569950580596924</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.05005025863647461</v>
+        <v>0.1810011863708496</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.05205059051513672</v>
+        <v>0.1540005207061768</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.05251121520996094</v>
+        <v>0.2050025463104248</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0520024299621582</v>
+        <v>0.1380014419555664</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.05951237678527832</v>
+        <v>0.1639983654022217</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.05859589576721191</v>
+        <v>0.1660025119781494</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05303645133972168</v>
+        <v>0.1520004272460938</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.05099844932556152</v>
+        <v>0.15199875831604</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.05553054809570312</v>
+        <v>0.1540024280548096</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.05300211906433105</v>
+        <v>0.1630001068115234</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.05900001525878906</v>
+        <v>0.1450045108795166</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.04978060722351074</v>
+        <v>0.1750035285949707</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.0540156364440918</v>
+        <v>0.1720011234283447</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.04999923706054688</v>
+        <v>0.1530020236968994</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.05251669883728027</v>
+        <v>0.1509983539581299</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.0489964485168457</v>
+        <v>0.2100048065185547</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.05359649658203125</v>
+        <v>0.1510016918182373</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.05451512336730957</v>
+        <v>0.1589996814727783</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.05000185966491699</v>
+        <v>0.1539986133575439</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.0500190258026123</v>
+        <v>0.1749958992004395</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.05552768707275391</v>
+        <v>0.1459965705871582</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.0579979419708252</v>
+        <v>0.1810014247894287</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.05251741409301758</v>
+        <v>0.1419985294342041</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.05032157897949219</v>
+        <v>0.1449978351593018</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.05995273590087891</v>
+        <v>0.1580047607421875</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.04952025413513184</v>
+        <v>0.1570026874542236</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.0530552864074707</v>
+        <v>0.1560037136077881</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.04900002479553223</v>
+        <v>0.1659994125366211</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.05307435989379883</v>
+        <v>0.1449975967407227</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.0530850887298584</v>
+        <v>0.1719973087310791</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.06300091743469238</v>
+        <v>0.1719968318939209</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.04950833320617676</v>
+        <v>0.1499958038330078</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.05354547500610352</v>
+        <v>0.1700048446655273</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.05699872970581055</v>
+        <v>0.1859991550445557</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.0561065673828125</v>
+        <v>0.1529974937438965</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.06005144119262695</v>
+        <v>0.2189996242523193</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.05699324607849121</v>
+        <v>0.1640055179595947</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.05299758911132812</v>
+        <v>0.1630027294158936</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.05350923538208008</v>
+        <v>0.1595959663391113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.0995185375213623</v>
+        <v>0.1580007076263428</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.09851336479187012</v>
+        <v>0.1790032386779785</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.07652091979980469</v>
+        <v>0.1730051040649414</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.04752683639526367</v>
+        <v>0.1549999713897705</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.05400490760803223</v>
+        <v>0.1719985008239746</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.06251859664916992</v>
+        <v>0.1520030498504639</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.05351519584655762</v>
+        <v>0.1189999580383301</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.06052041053771973</v>
+        <v>0.0930030345916748</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0965263843536377</v>
+        <v>0.1110014915466309</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.05699491500854492</v>
+        <v>0.069000244140625</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.06350398063659668</v>
+        <v>0.07499885559082031</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.0595097541809082</v>
+        <v>0.07700014114379883</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.06451702117919922</v>
+        <v>0.07600307464599609</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1015269756317139</v>
+        <v>0.07399845123291016</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.09751701354980469</v>
+        <v>0.09100031852722168</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.05403041839599609</v>
+        <v>0.06799721717834473</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.09720468521118164</v>
+        <v>0.08500289916992188</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.07451486587524414</v>
+        <v>0.07399392127990723</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.07100200653076172</v>
+        <v>0.08199620246887207</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.09552383422851562</v>
+        <v>0.07899880409240723</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1265184879302979</v>
+        <v>0.07999753952026367</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1085183620452881</v>
+        <v>0.07699799537658691</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.05952882766723633</v>
+        <v>0.07599115371704102</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.0844576358795166</v>
+        <v>0.06599950790405273</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1015582084655762</v>
+        <v>0.08499884605407715</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.06611251831054688</v>
+        <v>0.07000064849853516</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.09503650665283203</v>
+        <v>0.08099865913391113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.05751252174377441</v>
+        <v>0.06799149513244629</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.06852006912231445</v>
+        <v>0.07799911499023438</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1092164516448975</v>
+        <v>0.0910041332244873</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.06832218170166016</v>
+        <v>0.06499266624450684</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.07160401344299316</v>
+        <v>0.08100366592407227</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.04999303817749023</v>
+        <v>0.08100271224975586</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.05527591705322266</v>
+        <v>0.08299875259399414</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.05035090446472168</v>
+        <v>0.06799912452697754</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.04999852180480957</v>
+        <v>0.06800293922424316</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.05208945274353027</v>
+        <v>0.08599233627319336</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.05100488662719727</v>
+        <v>0.07999229431152344</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.07899904251098633</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.06500363349914551</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.06399750709533691</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.07400131225585938</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.08300113677978516</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.08700108528137207</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.08999800682067871</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.07100105285644531</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.0879967212677002</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.09100031852722168</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.07099318504333496</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.082000732421875</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.08799314498901367</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.08400201797485352</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.08045172691345215</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.1050004959106445</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.06800293922424316</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.0709989070892334</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.05999612808227539</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.09700560569763184</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.06199908256530762</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.0729985237121582</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.08099842071533203</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.07700085639953613</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.076995849609375</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.07700514793395996</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.09199929237365723</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.09000039100646973</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.07399749755859375</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.08900022506713867</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.1130039691925049</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.08699631690979004</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.08100128173828125</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.06299948692321777</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.1090009212493896</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.06599545478820801</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.08950686454772949</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.06000328063964844</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.06500005722045898</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.07160854339599609</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.07400107383728027</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.07200384140014648</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.06699633598327637</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.06999921798706055</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.08100342750549316</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.07899665832519531</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.08499693870544434</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.07299971580505371</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.09099125862121582</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.06100130081176758</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.08699607849121094</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.07699084281921387</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.07400012016296387</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.07200026512145996</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.07799553871154785</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.06900691986083984</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.06900525093078613</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.08199524879455566</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.07700061798095703</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.1079986095428467</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.09799957275390625</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.08299803733825684</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.07899737358093262</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.07100415229797363</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.08800172805786133</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.08099889755249023</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.06499886512756348</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.07899951934814453</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.07400321960449219</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.07200264930725098</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.07400178909301758</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.09800505638122559</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.0769956111907959</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.0729975700378418</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.0709998607635498</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.07300209999084473</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.06799983978271484</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.09100174903869629</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.07800054550170898</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.06499648094177246</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.07999920845031738</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.09499454498291016</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.07199907302856445</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.08999896049499512</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.07700109481811523</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.07800579071044922</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.07000398635864258</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.06999897956848145</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.08100271224975586</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.08899641036987305</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.07899975776672363</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.07054710388183594</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.07200503349304199</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.07699418067932129</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.08899807929992676</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.07199811935424805</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.08199787139892578</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.100006103515625</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.07499885559082031</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.07099747657775879</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.0729987621307373</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.08799433708190918</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.07999563217163086</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.07999992370605469</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.09099388122558594</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.08800244331359863</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.09199643135070801</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.07699823379516602</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.09700298309326172</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.07100081443786621</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.07700324058532715</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.07400298118591309</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.0789952278137207</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.0749964714050293</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.08799624443054199</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.07100343704223633</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.09499692916870117</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.07699322700500488</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.07599782943725586</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.07599687576293945</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.07899594306945801</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.08899903297424316</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.07299542427062988</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.07100605964660645</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.06400084495544434</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.089996337890625</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.08299899101257324</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.07198023796081543</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.06200051307678223</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.09099769592285156</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.06199336051940918</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.08498978614807129</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.06699872016906738</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.09799766540527344</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.06699681282043457</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.07099723815917969</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.08100247383117676</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.08400344848632812</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.07200002670288086</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.08599400520324707</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.1030032634735107</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.08400344848632812</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.07600188255310059</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.1210043430328369</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.07199835777282715</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.08799958229064941</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.07399868965148926</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.07399797439575195</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.06800055503845215</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.09000086784362793</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.07300448417663574</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.1069939136505127</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.07199478149414062</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.07299208641052246</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.09200048446655273</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.07699680328369141</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.06499242782592773</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.07400226593017578</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.07799911499023438</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.07099628448486328</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.0769965648651123</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.1000044345855713</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.08499860763549805</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.07899689674377441</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.0780029296875</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.09000182151794434</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.08199667930603027</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.07098603248596191</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.08300399780273438</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.07598567008972168</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.07000184059143066</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.07500219345092773</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.07700252532958984</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.08200311660766602</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.09800481796264648</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.07700085639953613</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.08899760246276855</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.0760033130645752</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.06899213790893555</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.0709986686706543</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.07400226593017578</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.07200217247009277</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.1020011901855469</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.07600164413452148</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.07900118827819824</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.0630037784576416</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.06699991226196289</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.06399393081665039</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.06899356842041016</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.08800101280212402</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.08299803733825684</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.08399868011474609</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.07799887657165527</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.06399965286254883</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.07200002670288086</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.07999897003173828</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.09099888801574707</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.08899879455566406</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.10500168800354</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.06099820137023926</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.0840001106262207</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.08000087738037109</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.08099675178527832</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.08600258827209473</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.07600140571594238</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.08400583267211914</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.07300066947937012</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.08400082588195801</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.08799386024475098</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.06700038909912109</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.06599235534667969</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.08199834823608398</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.08800053596496582</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.07200026512145996</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.08600139617919922</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.08600211143493652</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.09999632835388184</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.07400107383728027</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.08199238777160645</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.09699821472167969</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.0769960880279541</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.08100032806396484</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.06399154663085938</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.07299613952636719</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.07898378372192383</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.08600091934204102</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.08699917793273926</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.08199334144592285</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.09300470352172852</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.09399628639221191</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.07400131225585938</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.09099984169006348</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.08499956130981445</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.1479966640472412</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.1009998321533203</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.1329996585845947</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.1019957065582275</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.11299729347229</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.1669995784759521</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.1510012149810791</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.1720032691955566</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.168999195098877</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.179995059967041</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.1510405540466309</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.1469995975494385</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.1769969463348389</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.1920027732849121</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.1680421829223633</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.1519956588745117</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.1680018901824951</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.1930019855499268</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.1710009574890137</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.1480042934417725</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.1730003356933594</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.1660003662109375</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.165001392364502</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.142996072769165</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.1409993171691895</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.1850526332855225</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.1600017547607422</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.1710028648376465</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.1509974002838135</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.1739988327026367</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.1780047416687012</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.1480023860931396</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.1549980640411377</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.1780133247375488</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.1810390949249268</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.1760010719299316</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.1610028743743896</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.1559939384460449</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.19000244140625</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.1499981880187988</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.1609959602355957</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.163001537322998</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.1789994239807129</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.1590034961700439</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.1210007667541504</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.1359968185424805</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.1019976139068604</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.1080024242401123</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.07600092887878418</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.09100794792175293</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.08099913597106934</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.08099770545959473</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.08799529075622559</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.07900166511535645</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.1240024566650391</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.09299421310424805</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.08400154113769531</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.09499669075012207</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.09800314903259277</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.1319940090179443</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.08800315856933594</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.08699607849121094</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.1089999675750732</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.07400345802307129</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.09499502182006836</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.08199572563171387</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.08999252319335938</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.06700468063354492</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.1120026111602783</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.07800006866455078</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.06899642944335938</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.1119990348815918</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.1050019264221191</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.07200074195861816</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.08099794387817383</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.07999563217163086</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.06800103187561035</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.06400299072265625</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.08999896049499512</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.08200168609619141</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.0809938907623291</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.07700037956237793</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.08400082588195801</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.08400368690490723</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.0859980583190918</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.0650022029876709</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.07100105285644531</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.1009905338287354</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.07400274276733398</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.09700226783752441</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.07499885559082031</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.0850067138671875</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.08500003814697266</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.0749976634979248</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.0759892463684082</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.07899808883666992</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.08198809623718262</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.08699989318847656</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.0809943675994873</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.08298754692077637</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.0689997673034668</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.06699419021606445</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.09800004959106445</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.07299184799194336</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.08700370788574219</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.07499933242797852</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.08400464057922363</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.08200287818908691</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.07700204849243164</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.08299732208251953</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.07800054550170898</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.07600188255310059</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.08200359344482422</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.07499885559082031</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.07900142669677734</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.08400177955627441</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.07699823379516602</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.08100509643554688</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.0870048999786377</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.09299850463867188</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.08500099182128906</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.08599758148193359</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.08299827575683594</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.07599377632141113</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.09900498390197754</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.06299591064453125</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.0939946174621582</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.07600069046020508</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.1090013980865479</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.07100534439086914</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.08399605751037598</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.07899713516235352</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.07499527931213379</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.09100604057312012</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.0970005989074707</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.09899330139160156</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.07699894905090332</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0.09498691558837891</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0.06900382041931152</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0.07599663734436035</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>0.09999775886535645</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0.06800699234008789</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>0.08199787139892578</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.07999491691589355</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0.1120035648345947</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.08499431610107422</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.1150028705596924</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.1260018348693848</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.06199908256530762</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.07699751853942871</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0.09399795532226562</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.07799959182739258</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.0690004825592041</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.08900189399719238</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.08100390434265137</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.0769960880279541</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.09000277519226074</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0.0989985466003418</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0.08700013160705566</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.07499837875366211</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.09099340438842773</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.08999752998352051</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>0.07199859619140625</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0.06499814987182617</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.08300566673278809</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.08100223541259766</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0.0690004825592041</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.08700108528137207</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.08300304412841797</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.08100032806396484</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.07400202751159668</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.08400130271911621</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.07999968528747559</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.1029999256134033</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.09100484848022461</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0.113999605178833</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.07899808883666992</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0.1170012950897217</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0.08200263977050781</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0.07699704170227051</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.09399533271789551</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0.07699942588806152</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.06899309158325195</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0.07600092887878418</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0.07399916648864746</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.1119997501373291</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.07199597358703613</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.07300043106079102</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0.07700014114379883</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.08499741554260254</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.07600498199462891</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.1129958629608154</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.08899116516113281</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.09900403022766113</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.07500362396240234</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.1040022373199463</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.07100081443786621</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.09199643135070801</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.07900595664978027</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0.07899570465087891</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0.07899737358093262</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.07299685478210449</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.06699824333190918</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0.08899879455566406</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.07599568367004395</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0.08300352096557617</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.08699870109558105</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.07099771499633789</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.06799936294555664</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.07599997520446777</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.06899690628051758</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0.09399724006652832</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0.08399653434753418</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.09399223327636719</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0.08600091934204102</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0.07200026512145996</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.0769953727722168</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0.07699847221374512</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.0809941291809082</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.08200287818908691</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0.06898832321166992</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0.1189949512481689</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0.1110045909881592</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>0.09999847412109375</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0.07000088691711426</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0.1069962978363037</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0.06599617004394531</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0.07499790191650391</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.07699322700500488</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0.0820002555847168</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0.08300280570983887</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0.0859980583190918</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>0.08199715614318848</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>0.1029946804046631</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>0.07199764251708984</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>0.08699607849121094</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>0.089996337890625</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>0.07199740409851074</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>0.06799578666687012</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>0.08699846267700195</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>0.09600067138671875</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>0.06299376487731934</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>0.08700180053710938</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>0.07699680328369141</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>0.07900047302246094</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>0.07599759101867676</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>0.07399845123291016</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>0.06899595260620117</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>0.08100652694702148</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>0.1019964218139648</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>0.06899619102478027</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>0.06999540328979492</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>0.08403635025024414</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>0.111992359161377</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>0.08299875259399414</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>0.06400203704833984</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>0.08400607109069824</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>0.07599902153015137</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>0.1159994602203369</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>0.07700109481811523</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>0.07000303268432617</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>0.09000301361083984</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>0.08600354194641113</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>0.08299970626831055</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>0.109004020690918</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>0.06499981880187988</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>0.07000446319580078</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>0.07299494743347168</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>0.07199597358703613</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>0.07200169563293457</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>0.1139991283416748</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>0.1300029754638672</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>0.1019952297210693</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>0.141000509262085</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>0.1189954280853271</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>0.1169977188110352</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>0.1159980297088623</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>0.1150012016296387</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>0.1080007553100586</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>0.1890037059783936</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>0.1579985618591309</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>0.1749985218048096</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>0.18599534034729</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>0.1960031986236572</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>0.1739983558654785</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>0.183995246887207</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>0.1530361175537109</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>0.2119977474212646</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>0.1470000743865967</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0.1750061511993408</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>0.1609969139099121</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>0.1649999618530273</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0.1719956398010254</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>0.1560025215148926</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>0.1509990692138672</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>0.166999340057373</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>0.1740000247955322</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>0.1639988422393799</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>0.1860032081604004</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>0.1800022125244141</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>0.1960017681121826</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>0.1870031356811523</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>0.1650025844573975</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>0.1699995994567871</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>0.148993968963623</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>0.2040448188781738</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>0.1499969959259033</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>0.166001558303833</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>0.1630051136016846</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>0.1779992580413818</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>0.1739969253540039</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>0.2070004940032959</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0.1589946746826172</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>0.2299995422363281</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>0.2070024013519287</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>0.15199875831604</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>0.1749856472015381</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>0.1589982509613037</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>0.1559925079345703</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>0.1940100193023682</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>0.1949992179870605</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>0.1740002632141113</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>0.2399985790252686</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>0.1789939403533936</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>0.1895654201507568</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>0.1959977149963379</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>0.1570067405700684</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>0.208996057510376</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>0.223003625869751</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>0.179999828338623</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>0.1759994029998779</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0.1800367832183838</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>0.1879572868347168</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>0.1990008354187012</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>0.1780021190643311</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>0.1749992370605469</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>0.1820049285888672</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>0.1779990196228027</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>0.197002649307251</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>0.1940023899078369</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>0.16300368309021</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>0.1849994659423828</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>0.2000014781951904</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>0.2270023822784424</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>0.1499967575073242</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>0.1849989891052246</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>0.1549973487854004</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>0.166006326675415</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>0.1640036106109619</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>0.1699953079223633</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>0.1629970073699951</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>0.2170047760009766</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>0.1720004081726074</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>0.1789999008178711</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>0.1880013942718506</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>0.1630022525787354</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>0.1829981803894043</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>0.1749956607818604</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>0.1590015888214111</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>0.1539952754974365</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>0.1750001907348633</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>0.1670029163360596</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>0.1659996509552002</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>0.1660029888153076</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>0.1930046081542969</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>0.1669974327087402</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>0.227001428604126</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>0.1710009574890137</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>0.1780004501342773</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>0.177001953125</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>0.1610026359558105</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>0.1820025444030762</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>0.1810011863708496</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>0.2252554893493652</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>0.1730425357818604</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>0.1949996948242188</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>0.1669952869415283</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>0.1939992904663086</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>0.1920053958892822</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>0.1799962520599365</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>0.1410017013549805</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>0.1799972057342529</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>0.1729965209960938</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>0.1600017547607422</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>0.1879959106445312</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>0.1630022525787354</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>0.1720046997070312</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>0.177997350692749</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>0.1650021076202393</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>0.1700074672698975</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>0.1700036525726318</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>0.1590042114257812</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>0.1719989776611328</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>0.1580004692077637</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>0.1689968109130859</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>0.1509959697723389</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>0.1990041732788086</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>0.1520016193389893</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>0.175999641418457</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>0.1760032176971436</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>0.1839995384216309</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>0.1790030002593994</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>0.1800062656402588</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0.2199974060058594</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0.149000883102417</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0.1740007400512695</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>0.1620023250579834</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0.1550006866455078</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>0.1629965305328369</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>0.1829962730407715</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>0.1880066394805908</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>0.1720049381256104</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>0.1830027103424072</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>0.180999755859375</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>0.1590011119842529</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>0.1780011653900146</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>0.1759982109069824</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>0.1840016841888428</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>0.1549992561340332</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>0.1529996395111084</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>0.1679973602294922</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>0.1640012264251709</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>0.169001579284668</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>0.1589987277984619</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>0.1820068359375</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>0.1750030517578125</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>0.1809988021850586</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>0.2200000286102295</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>0.174999475479126</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>0.1820013523101807</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>0.1620025634765625</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>0.1789994239807129</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>0.1669952869415283</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>0.206510066986084</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>0.1890027523040771</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>0.1770005226135254</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>0.1710021495819092</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>0.1580026149749756</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>0.1900019645690918</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>0.1630001068115234</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>0.1820032596588135</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>0.1609992980957031</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>0.2010009288787842</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>0.1669976711273193</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>0.1700026988983154</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>0.1779985427856445</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>0.1520025730133057</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>0.2249965667724609</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>0.2739956378936768</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>0.1600003242492676</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>0.1849994659423828</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>0.1979987621307373</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>0.1769976615905762</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>0.1789984703063965</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>0.1820015907287598</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0.1729991436004639</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>0.1829965114593506</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>0.2050004005432129</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>0.2080008983612061</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>0.2445693016052246</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>0.186002254486084</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>0.1920061111450195</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>0.2329983711242676</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>0.1929996013641357</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>0.2010025978088379</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>0.1709990501403809</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>0.1780004501342773</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>0.2640068531036377</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>0.2760000228881836</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>0.317000150680542</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>0.2629935741424561</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>0.1829986572265625</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>0.1840016841888428</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>0.179004430770874</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>0.1820039749145508</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>0.3020031452178955</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>0.2840030193328857</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>0.3080027103424072</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>0.145000696182251</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>0.1680004596710205</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>0.1959939002990723</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>0.1520004272460938</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>0.209003210067749</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>0.1839985847473145</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>0.2009975910186768</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>0.1500492095947266</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>0.2260451316833496</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>0.1939992904663086</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>0.1720013618469238</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>0.158001184463501</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>0.1669979095458984</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>0.1840012073516846</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>0.1900031566619873</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>0.1750004291534424</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>0.1439998149871826</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>0.1860001087188721</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>0.1509981155395508</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>0.1570022106170654</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>0.1880030632019043</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>0.1740007400512695</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>0.2210023403167725</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>0.1450450420379639</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>0.1929965019226074</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>0.1779968738555908</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>0.1830024719238281</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>0.2580013275146484</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>0.2879977226257324</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>0.1659986972808838</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>0.1710009574890137</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>0.2180008888244629</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>0.1960060596466064</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>0.1659998893737793</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>0.1739988327026367</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>0.1899979114532471</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>0.2120006084442139</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>0.1470038890838623</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>0.1739997863769531</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>0.169001579284668</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>0.1880016326904297</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>0.2350025177001953</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>0.2859983444213867</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>0.2319984436035156</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>0.1860034465789795</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>0.185997486114502</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>0.1730022430419922</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>0.1810004711151123</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>0.2890000343322754</v>
       </c>
     </row>
   </sheetData>

--- a/log/time_log.xlsx
+++ b/log/time_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A237"/>
+  <dimension ref="A1:A422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,1182 +430,2107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04898977279663086</v>
+        <v>0.1820619106292725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.04550552368164062</v>
+        <v>0.1505274772644043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04651570320129395</v>
+        <v>0.1635208129882812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.04399538040161133</v>
+        <v>0.1685194969177246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.06801819801330566</v>
+        <v>0.1775188446044922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.04921531677246094</v>
+        <v>0.153512716293335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.04199886322021484</v>
+        <v>0.1384124755859375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.03750824928283691</v>
+        <v>0.2000496387481689</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0590517520904541</v>
+        <v>0.144519567489624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05900096893310547</v>
+        <v>0.1700417995452881</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.05722880363464355</v>
+        <v>0.1595313549041748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.05194902420043945</v>
+        <v>0.146522045135498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.05838346481323242</v>
+        <v>0.141042947769165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.04165387153625488</v>
+        <v>0.1665091514587402</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.05889344215393066</v>
+        <v>0.1415238380432129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.04095244407653809</v>
+        <v>0.1910524368286133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0591273307800293</v>
+        <v>0.1655290126800537</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0419921875</v>
+        <v>0.1820387840270996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.04048824310302734</v>
+        <v>0.1520323753356934</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.03795242309570312</v>
+        <v>0.1820454597473145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.07356023788452148</v>
+        <v>0.1897952556610107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.06153106689453125</v>
+        <v>0.1410338878631592</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04351449012756348</v>
+        <v>0.1510474681854248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.03799796104431152</v>
+        <v>0.1495816707611084</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0382840633392334</v>
+        <v>0.1570441722869873</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.04001069068908691</v>
+        <v>0.1690442562103271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.03953814506530762</v>
+        <v>0.1550219058990479</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.04398679733276367</v>
+        <v>0.1590337753295898</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.03976678848266602</v>
+        <v>0.1446244716644287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.04099702835083008</v>
+        <v>0.1371784210205078</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.04854488372802734</v>
+        <v>0.1680240631103516</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.03901100158691406</v>
+        <v>0.1546204090118408</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.04010701179504395</v>
+        <v>0.1518747806549072</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.04405045509338379</v>
+        <v>0.1440467834472656</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.03999757766723633</v>
+        <v>0.1685216426849365</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.03901433944702148</v>
+        <v>0.1585359573364258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.04595470428466797</v>
+        <v>0.1745204925537109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.03810000419616699</v>
+        <v>0.1455187797546387</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.03895330429077148</v>
+        <v>0.1625289916992188</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.03806447982788086</v>
+        <v>0.1435258388519287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.04595398902893066</v>
+        <v>0.1590447425842285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.03952503204345703</v>
+        <v>0.1360294818878174</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.03904128074645996</v>
+        <v>0.1285271644592285</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.03961038589477539</v>
+        <v>0.1360940933227539</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.03795742988586426</v>
+        <v>0.1545264720916748</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.04519987106323242</v>
+        <v>0.1475293636322021</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.06214547157287598</v>
+        <v>0.2215602397918701</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.0610506534576416</v>
+        <v>0.1595802307128906</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.06699252128601074</v>
+        <v>0.1700422763824463</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.04341530799865723</v>
+        <v>0.1540420055389404</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.05300998687744141</v>
+        <v>0.190040111541748</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.05404186248779297</v>
+        <v>0.1580252647399902</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.0485832691192627</v>
+        <v>0.1556446552276611</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.03699898719787598</v>
+        <v>0.1560213565826416</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.03950953483581543</v>
+        <v>0.1570286750793457</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.03995060920715332</v>
+        <v>0.1480302810668945</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.03964424133300781</v>
+        <v>0.1500370502471924</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.047088623046875</v>
+        <v>0.1735203266143799</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.03799962997436523</v>
+        <v>0.1515202522277832</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.05653023719787598</v>
+        <v>0.1355233192443848</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.04103708267211914</v>
+        <v>0.1585144996643066</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.03751111030578613</v>
+        <v>0.1445212364196777</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.03899955749511719</v>
+        <v>0.1510515213012695</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04852461814880371</v>
+        <v>0.1450450420379639</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.04004478454589844</v>
+        <v>0.162050724029541</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0386807918548584</v>
+        <v>0.1445279121398926</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.04000639915466309</v>
+        <v>0.1455235481262207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.03999948501586914</v>
+        <v>0.1395323276519775</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.04000258445739746</v>
+        <v>0.1445229053497314</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.04199981689453125</v>
+        <v>0.1645298004150391</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.0395960807800293</v>
+        <v>0.1640312671661377</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0450444221496582</v>
+        <v>0.1558828353881836</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.0444328784942627</v>
+        <v>0.1666483879089355</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.0370481014251709</v>
+        <v>0.1440286636352539</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.03858160972595215</v>
+        <v>0.1507196426391602</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.03999781608581543</v>
+        <v>0.1650454998016357</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.03955721855163574</v>
+        <v>0.2006552219390869</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.03799581527709961</v>
+        <v>0.131525993347168</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.04059958457946777</v>
+        <v>0.1610264778137207</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.04001188278198242</v>
+        <v>0.157034158706665</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.03899860382080078</v>
+        <v>0.1576938629150391</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.03499102592468262</v>
+        <v>0.1420269012451172</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.03700160980224609</v>
+        <v>0.1550388336181641</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.04200506210327148</v>
+        <v>0.1385304927825928</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.03904390335083008</v>
+        <v>0.1515331268310547</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.04065418243408203</v>
+        <v>0.1625115871429443</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.03900718688964844</v>
+        <v>0.1625332832336426</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.05034232139587402</v>
+        <v>0.1770339012145996</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.03799009323120117</v>
+        <v>0.162517786026001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.04051852226257324</v>
+        <v>0.1442224979400635</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.03795361518859863</v>
+        <v>0.1880476474761963</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.03953456878662109</v>
+        <v>0.136530876159668</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.03599977493286133</v>
+        <v>0.1385245323181152</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.03754901885986328</v>
+        <v>0.1690456867218018</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.03800058364868164</v>
+        <v>0.1685621738433838</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.04660391807556152</v>
+        <v>0.1539707183837891</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.03900527954101562</v>
+        <v>0.1700520515441895</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.03802919387817383</v>
+        <v>0.1500468254089355</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.04002213478088379</v>
+        <v>0.1490373611450195</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.03799915313720703</v>
+        <v>0.158029317855835</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.0380408763885498</v>
+        <v>0.1650276184082031</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.03899502754211426</v>
+        <v>0.1550209522247314</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.05850362777709961</v>
+        <v>0.1750290393829346</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4082684516906738</v>
+        <v>0.1405284404754639</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.06239461898803711</v>
+        <v>0.1590535640716553</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.03600001335144043</v>
+        <v>0.1720397472381592</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.04061245918273926</v>
+        <v>0.211068868637085</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.03799962997436523</v>
+        <v>0.1522068977355957</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.04555654525756836</v>
+        <v>0.1355166435241699</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.04709506034851074</v>
+        <v>0.151907205581665</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.03899860382080078</v>
+        <v>0.1726622581481934</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.03705000877380371</v>
+        <v>0.1470353603363037</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.04294729232788086</v>
+        <v>0.1497523784637451</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.03756451606750488</v>
+        <v>0.1475207805633545</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.03704500198364258</v>
+        <v>0.1545162200927734</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.0415031909942627</v>
+        <v>0.1605300903320312</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.03502154350280762</v>
+        <v>0.14151930809021</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.03614950180053711</v>
+        <v>0.2015445232391357</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.06300616264343262</v>
+        <v>0.1305332183837891</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.03799867630004883</v>
+        <v>0.1543302536010742</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.03711724281311035</v>
+        <v>0.1715281009674072</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.03599309921264648</v>
+        <v>0.1501100063323975</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.03500938415527344</v>
+        <v>0.1495263576507568</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.06004428863525391</v>
+        <v>0.1400353908538818</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.04466009140014648</v>
+        <v>0.1587553024291992</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.03599405288696289</v>
+        <v>0.162039041519165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.03552436828613281</v>
+        <v>0.1680500507354736</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.03502964973449707</v>
+        <v>0.1490440368652344</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.03627967834472656</v>
+        <v>0.154038667678833</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.03599858283996582</v>
+        <v>0.169036865234375</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.03464365005493164</v>
+        <v>0.1490256786346436</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.04500055313110352</v>
+        <v>0.1640312671661377</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.03954052925109863</v>
+        <v>0.1530375480651855</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.0449988842010498</v>
+        <v>0.1610515117645264</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.03660035133361816</v>
+        <v>0.1556415557861328</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.03495454788208008</v>
+        <v>0.1375207901000977</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.03660154342651367</v>
+        <v>0.2150475978851318</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.04704451560974121</v>
+        <v>0.1544506549835205</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.05403733253479004</v>
+        <v>0.1790406703948975</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.03656172752380371</v>
+        <v>0.1646215915679932</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.03699970245361328</v>
+        <v>0.136646032333374</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.03658747673034668</v>
+        <v>0.1670353412628174</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.04699444770812988</v>
+        <v>0.1706070899963379</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.05073904991149902</v>
+        <v>0.1390247344970703</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.04700398445129395</v>
+        <v>0.1580314636230469</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.0729973316192627</v>
+        <v>0.1450445652008057</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.03664612770080566</v>
+        <v>0.1815502643585205</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.04505205154418945</v>
+        <v>0.1667823791503906</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.05299901962280273</v>
+        <v>0.1696469783782959</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.03564572334289551</v>
+        <v>0.1585168838500977</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.04295063018798828</v>
+        <v>0.1420950889587402</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.03764605522155762</v>
+        <v>0.1430411338806152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.03495359420776367</v>
+        <v>0.1645805835723877</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.04914522171020508</v>
+        <v>0.1495256423950195</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.0439915657043457</v>
+        <v>0.1605229377746582</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.03905034065246582</v>
+        <v>0.1525270938873291</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.04002237319946289</v>
+        <v>0.1395273208618164</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.0469968318939209</v>
+        <v>0.1432275772094727</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.03951382637023926</v>
+        <v>0.1900551319122314</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.03999972343444824</v>
+        <v>0.159034252166748</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.05452847480773926</v>
+        <v>0.1435236930847168</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.03899765014648438</v>
+        <v>0.145517110824585</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.04250717163085938</v>
+        <v>0.1720240116119385</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.06660842895507812</v>
+        <v>0.1805341243743896</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.0389866828918457</v>
+        <v>0.1473488807678223</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.03955793380737305</v>
+        <v>0.1525278091430664</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.03595209121704102</v>
+        <v>0.2310397624969482</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.04551482200622559</v>
+        <v>0.189042329788208</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.05400729179382324</v>
+        <v>0.1740405559539795</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.03999972343444824</v>
+        <v>0.1740200519561768</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.04058051109313965</v>
+        <v>0.1485257148742676</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.04300141334533691</v>
+        <v>0.09852719306945801</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.0365145206451416</v>
+        <v>0.08251428604125977</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.04800009727478027</v>
+        <v>0.0855247974395752</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.03546285629272461</v>
+        <v>0.09250664710998535</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.04396152496337891</v>
+        <v>0.1005308628082275</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.04800796508789062</v>
+        <v>0.09252476692199707</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.03846073150634766</v>
+        <v>0.09851527214050293</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.03599858283996582</v>
+        <v>0.1065123081207275</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.03608918190002441</v>
+        <v>0.1005213260650635</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.04604268074035645</v>
+        <v>0.159510612487793</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.06563997268676758</v>
+        <v>0.1080276966094971</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.05565285682678223</v>
+        <v>0.08851742744445801</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.05799722671508789</v>
+        <v>0.09352636337280273</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.03751444816589355</v>
+        <v>0.1080265045166016</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.03899812698364258</v>
+        <v>0.0729975700378418</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.03555059432983398</v>
+        <v>0.08000445365905762</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.05700469017028809</v>
+        <v>0.08800339698791504</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.06099915504455566</v>
+        <v>0.07299113273620605</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.04450345039367676</v>
+        <v>0.0645134449005127</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.03604435920715332</v>
+        <v>0.08151459693908691</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.04760503768920898</v>
+        <v>0.06552791595458984</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.0625159740447998</v>
+        <v>0.07052230834960938</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.03499698638916016</v>
+        <v>0.07651567459106445</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.03616452217102051</v>
+        <v>0.09051394462585449</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.03604507446289062</v>
+        <v>0.08352470397949219</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.03756189346313477</v>
+        <v>0.08104372024536133</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.04299640655517578</v>
+        <v>0.08318328857421875</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.0545048713684082</v>
+        <v>0.08612298965454102</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.03900790214538574</v>
+        <v>0.08417677879333496</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.03600025177001953</v>
+        <v>0.06899285316467285</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.03600096702575684</v>
+        <v>0.08051323890686035</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.05017423629760742</v>
+        <v>0.08151626586914062</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.03801155090332031</v>
+        <v>0.07952284812927246</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.06500101089477539</v>
+        <v>0.06851387023925781</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.03911495208740234</v>
+        <v>0.07452774047851562</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.03403377532958984</v>
+        <v>0.07252168655395508</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.06026315689086914</v>
+        <v>0.1075007915496826</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.047515869140625</v>
+        <v>0.07452487945556641</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.03599357604980469</v>
+        <v>0.07451462745666504</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.04456496238708496</v>
+        <v>0.07851052284240723</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.03599715232849121</v>
+        <v>0.08200502395629883</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.03545975685119629</v>
+        <v>0.06599926948547363</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.0410306453704834</v>
+        <v>0.08851790428161621</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.03703045845031738</v>
+        <v>0.1025207042694092</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.03595471382141113</v>
+        <v>0.07099723815917969</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.03704047203063965</v>
+        <v>0.07951211929321289</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.0370335578918457</v>
+        <v>0.07351875305175781</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.04143214225769043</v>
+        <v>0.06851863861083984</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.03514838218688965</v>
+        <v>0.06350827217102051</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.03698945045471191</v>
+        <v>0.1181342601776123</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.03599166870117188</v>
+        <v>0.1015257835388184</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.0361027717590332</v>
+        <v>0.07051849365234375</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.04500746726989746</v>
+        <v>0.07952070236206055</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.03495144844055176</v>
+        <v>0.07051324844360352</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.04952287673950195</v>
+        <v>0.07921981811523438</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.0449986457824707</v>
+        <v>0.07210373878479004</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.03717970848083496</v>
+        <v>0.07400107383728027</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.03598785400390625</v>
+        <v>0.09051895141601562</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.03636050224304199</v>
+        <v>0.09550952911376953</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.03699636459350586</v>
+        <v>0.06400465965270996</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.04764747619628906</v>
+        <v>0.06799983978271484</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.04895615577697754</v>
+        <v>0.07133626937866211</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.03554606437683105</v>
+        <v>0.07152628898620605</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.03599071502685547</v>
+        <v>0.06351637840270996</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.04354333877563477</v>
+        <v>0.08353090286254883</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.09751677513122559</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.06852221488952637</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.06800246238708496</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.1155271530151367</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.09852242469787598</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.09352517127990723</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.1025183200836182</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.09051990509033203</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.09199905395507812</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.1335182189941406</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.16904616355896</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.1315274238586426</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.1465260982513428</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.1705152988433838</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.1730887889862061</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.1325314044952393</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.1715381145477295</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.1610507965087891</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.1820790767669678</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.1580379009246826</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.1710364818572998</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.1450319290161133</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.1850488185882568</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.1630337238311768</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.159038782119751</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.1680243015289307</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.1667027473449707</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.1550445556640625</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.1670312881469727</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.1720407009124756</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.1837725639343262</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.1855416297912598</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.224104642868042</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.1586735248565674</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.1513442993164062</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.1555216312408447</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.2008180618286133</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.1620399951934814</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.1505217552185059</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.1780393123626709</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.2696585655212402</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.1570377349853516</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.273587703704834</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.2711076736450195</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.2490444183349609</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.2720932960510254</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.2865819931030273</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.2795984745025635</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.3966619968414307</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.3446319103240967</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.3281481266021729</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.3136012554168701</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.2700636386871338</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.2480432987213135</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.1445298194885254</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.1716821193695068</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.1565306186676025</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.1940436363220215</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.1755359172821045</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.1551289558410645</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.1445202827453613</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.1775317192077637</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.1900365352630615</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.147031307220459</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.1790461540222168</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.1580536365509033</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.1970384120941162</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.1500303745269775</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.1420371532440186</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.1530406475067139</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.1610586643218994</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.195030689239502</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.1468918323516846</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.1460428237915039</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.1900451183319092</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.1400446891784668</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.1590328216552734</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.1470339298248291</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.09353113174438477</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.09906792640686035</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.1115155220031738</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.1175150871276855</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.1075189113616943</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.1165173053741455</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.099517822265625</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.1265106201171875</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.09551215171813965</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.08400702476501465</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.08551454544067383</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.09651970863342285</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.1170170307159424</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.09052371978759766</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.08052849769592285</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.09052133560180664</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.1155157089233398</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.1115233898162842</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.09751987457275391</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.09349989891052246</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.09151625633239746</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.1045157909393311</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.08252525329589844</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.1195099353790283</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.09952950477600098</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.08844399452209473</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.1470391750335693</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.1095120906829834</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.1090350151062012</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.09051156044006348</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.1520566940307617</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.1280560493469238</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.1135106086730957</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.1415221691131592</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.1065235137939453</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.1015245914459229</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.08551907539367676</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.1145148277282715</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.1045181751251221</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.1035215854644775</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.09950065612792969</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.09151291847229004</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.1940433979034424</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.09003043174743652</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.1035168170928955</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.1125221252441406</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.1065213680267334</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.1205310821533203</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.1235322952270508</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.1145215034484863</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.1380431652069092</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.1065242290496826</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.1210372447967529</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.08952689170837402</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.0875096321105957</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.08252167701721191</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.08151984214782715</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.09351444244384766</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.1055259704589844</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.1025190353393555</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.1054105758666992</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.1355221271514893</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.1155185699462891</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.1250247955322266</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.1175289154052734</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.0895235538482666</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.09352493286132812</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.1115286350250244</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.1255257129669189</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.1191451549530029</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.1045312881469727</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.1150479316711426</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.1085193157196045</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.1335310935974121</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.09851598739624023</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.09952521324157715</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.1055119037628174</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.09851813316345215</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.09150433540344238</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.1185131072998047</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.1015255451202393</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.110522985458374</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.1185276508331299</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.1120438575744629</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.1960506439208984</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.1600589752197266</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.1480505466461182</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.1175270080566406</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.109515905380249</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.08710789680480957</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.1085245609283447</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.08206653594970703</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.09252357482910156</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.0935211181640625</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.1135149002075195</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.1180310249328613</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.1970555782318115</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.1990642547607422</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.1820495128631592</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.1715378761291504</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.1615250110626221</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.1605286598205566</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.1760396957397461</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.1840355396270752</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.1385300159454346</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.1270391941070557</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.107210636138916</v>
       </c>
     </row>
   </sheetData>
